--- a/data_2025/Jihom.xlsx
+++ b/data_2025/Jihom.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10905"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\INTERNET_2024\1_Kraj_okresy\01_kraj\1_Data a časové řady\1_časové řady\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/krystof.volf/Desktop/projects/KRAJE_RUD/data_2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D6AF71E-59C0-EC4A-9C91-563A4A90D63F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CZ0640-1" sheetId="3" r:id="rId1"/>
@@ -17,12 +18,25 @@
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'CZ0640-1'!$A:$B,'CZ0640-1'!$1:$3</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="74">
   <si>
     <t>%</t>
   </si>
@@ -475,11 +489,14 @@
   <si>
     <t>cizinci (bez osob s mezinárodní ochranou)</t>
   </si>
+  <si>
+    <t>624 757 </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="8">
     <numFmt numFmtId="164" formatCode="_-* #,##0\ _K_č_-;\-* #,##0\ _K_č_-;_-* &quot;-&quot;\ _K_č_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="\$#,##0\ ;\(\$#,##0\)"/>
@@ -490,7 +507,7 @@
     <numFmt numFmtId="170" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
     <numFmt numFmtId="171" formatCode="#,##0.00000_ ;\-#,##0.00000\ "/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21">
     <font>
       <sz val="10"/>
       <name val="Arial CE"/>
@@ -621,6 +638,11 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="238"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -809,9 +831,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -820,19 +842,15 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -845,25 +863,17 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1" shrinkToFit="1"/>
@@ -871,20 +881,18 @@
     <xf numFmtId="3" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="169" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="169" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -894,12 +902,11 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="166" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1" shrinkToFit="1"/>
@@ -910,17 +917,13 @@
     <xf numFmtId="170" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="3" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -940,40 +943,33 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -983,63 +979,27 @@
     </xf>
     <xf numFmtId="168" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="169" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="3" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="171" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="169" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="170" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="170" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="169" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="168" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1056,75 +1016,56 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="170" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="170" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="170" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="12">
-    <cellStyle name="Celkem" xfId="1" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Datum" xfId="2"/>
-    <cellStyle name="Excel Built-in Normal" xfId="9"/>
-    <cellStyle name="Finanční0" xfId="3"/>
-    <cellStyle name="Měna0" xfId="4"/>
-    <cellStyle name="Normální" xfId="0" builtinId="0"/>
-    <cellStyle name="normální 2" xfId="10"/>
-    <cellStyle name="normální 2 2" xfId="11"/>
-    <cellStyle name="normální_2_12az2_14" xfId="5"/>
-    <cellStyle name="Pevný" xfId="6"/>
-    <cellStyle name="Záhlaví 1" xfId="7"/>
-    <cellStyle name="Záhlaví 2" xfId="8"/>
+    <cellStyle name="Datum" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Excel Built-in Normal" xfId="9" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Finanční0" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Měna0" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="normální 2" xfId="10" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="normální 2 2" xfId="11" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="normální_2_12az2_14" xfId="5" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Pevný" xfId="6" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Total" xfId="1" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Záhlaví 1" xfId="7" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="Záhlaví 2" xfId="8" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -3082,7 +3023,7 @@
         <xdr:cNvPr id="50" name="Text Box 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000032000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3140,7 +3081,7 @@
         <xdr:cNvPr id="51" name="Text Box 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000033000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3198,7 +3139,7 @@
         <xdr:cNvPr id="52" name="Text Box 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000034000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3256,7 +3197,7 @@
         <xdr:cNvPr id="53" name="Text Box 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000035000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3314,7 +3255,7 @@
         <xdr:cNvPr id="54" name="Text Box 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000036000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3372,7 +3313,7 @@
         <xdr:cNvPr id="55" name="Text Box 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000037000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3430,7 +3371,7 @@
         <xdr:cNvPr id="56" name="Text Box 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000038000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3488,7 +3429,7 @@
         <xdr:cNvPr id="57" name="Text Box 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000039000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3546,7 +3487,7 @@
         <xdr:cNvPr id="58" name="Text Box 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3604,7 +3545,7 @@
         <xdr:cNvPr id="59" name="Text Box 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3662,7 +3603,7 @@
         <xdr:cNvPr id="60" name="Text Box 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3720,7 +3661,7 @@
         <xdr:cNvPr id="61" name="Text Box 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3778,7 +3719,7 @@
         <xdr:cNvPr id="62" name="Text Box 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3833,15 +3774,15 @@
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="48" name="Text Box 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000030000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3896,15 +3837,15 @@
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="49" name="Text Box 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000031000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3959,15 +3900,15 @@
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="63" name="Text Box 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4022,15 +3963,15 @@
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="64" name="Text Box 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000040000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4085,15 +4026,15 @@
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="66" name="Text Box 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000042000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4148,15 +4089,15 @@
     <xdr:to>
       <xdr:col>30</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="67" name="Text Box 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000043000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4211,15 +4152,15 @@
     <xdr:to>
       <xdr:col>30</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="68" name="Text Box 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000044000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4274,15 +4215,15 @@
     <xdr:to>
       <xdr:col>30</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="69" name="Text Box 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000045000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4337,15 +4278,15 @@
     <xdr:to>
       <xdr:col>30</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="70" name="Text Box 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000046000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4400,15 +4341,15 @@
     <xdr:to>
       <xdr:col>32</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="71" name="Text Box 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000047000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4463,15 +4404,15 @@
     <xdr:to>
       <xdr:col>32</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="72" name="Text Box 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000048000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4526,15 +4467,15 @@
     <xdr:to>
       <xdr:col>32</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="73" name="Text Box 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000049000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4589,15 +4530,15 @@
     <xdr:to>
       <xdr:col>32</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="74" name="Text Box 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4652,15 +4593,15 @@
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="75" name="Text Box 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000026000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4715,15 +4656,15 @@
     <xdr:to>
       <xdr:col>33</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="65" name="Text Box 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000041000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4778,15 +4719,15 @@
     <xdr:to>
       <xdr:col>33</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="76" name="Text Box 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4841,15 +4782,15 @@
     <xdr:to>
       <xdr:col>33</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="77" name="Text Box 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4904,15 +4845,15 @@
     <xdr:to>
       <xdr:col>33</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="78" name="Text Box 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4967,15 +4908,15 @@
     <xdr:to>
       <xdr:col>33</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="79" name="Text Box 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5030,15 +4971,15 @@
     <xdr:to>
       <xdr:col>33</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="80" name="Text Box 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000050000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5093,15 +5034,15 @@
     <xdr:to>
       <xdr:col>33</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="81" name="Text Box 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000051000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5156,15 +5097,15 @@
     <xdr:to>
       <xdr:col>33</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="82" name="Text Box 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000052000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5219,15 +5160,15 @@
     <xdr:to>
       <xdr:col>33</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="83" name="Text Box 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000053000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5282,15 +5223,15 @@
     <xdr:to>
       <xdr:col>33</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="84" name="Text Box 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000054000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5345,15 +5286,15 @@
     <xdr:to>
       <xdr:col>33</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="85" name="Text Box 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000055000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5408,15 +5349,15 @@
     <xdr:to>
       <xdr:col>33</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="86" name="Text Box 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000056000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5471,15 +5412,15 @@
     <xdr:to>
       <xdr:col>33</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="87" name="Text Box 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000057000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5534,15 +5475,15 @@
     <xdr:to>
       <xdr:col>33</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="88" name="Text Box 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000058000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5597,15 +5538,15 @@
     <xdr:to>
       <xdr:col>33</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="89" name="Text Box 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000059000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5660,15 +5601,15 @@
     <xdr:to>
       <xdr:col>33</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="90" name="Text Box 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6063,5550 +6004,5517 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="List1"/>
   <dimension ref="A1:AI69"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="N4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="Y4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" sqref="A1:B1"/>
+      <selection pane="bottomRight" activeCell="AH22" sqref="AH22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="31.85546875" style="10" customWidth="1"/>
-    <col min="2" max="2" width="8.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="14" width="9.140625" style="10" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="10"/>
+    <col min="1" max="1" width="31.83203125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="8.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="14" width="9.1640625" style="7" customWidth="1"/>
+    <col min="15" max="16384" width="9.1640625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="5" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="126" t="s">
+    <row r="1" spans="1:34" s="4" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A1" s="88" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="126"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
+      <c r="B1" s="88"/>
+      <c r="K1" s="5"/>
     </row>
-    <row r="2" spans="1:35" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:34" ht="14" thickBot="1">
+      <c r="A2" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="R2" s="11"/>
-      <c r="S2" s="11"/>
-      <c r="T2" s="11"/>
-      <c r="U2" s="11"/>
-      <c r="V2" s="11"/>
-      <c r="W2" s="11"/>
-      <c r="X2" s="11"/>
-      <c r="Y2" s="11"/>
-      <c r="Z2" s="11"/>
-      <c r="AA2" s="11"/>
-      <c r="AB2" s="88"/>
-      <c r="AC2" s="88"/>
-      <c r="AD2" s="88"/>
-      <c r="AE2" s="88"/>
-      <c r="AF2" s="11"/>
-      <c r="AG2" s="107"/>
-      <c r="AH2" s="110" t="s">
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="9"/>
+      <c r="U2" s="9"/>
+      <c r="V2" s="9"/>
+      <c r="W2" s="9"/>
+      <c r="X2" s="9"/>
+      <c r="Y2" s="9"/>
+      <c r="Z2" s="9"/>
+      <c r="AA2" s="9"/>
+      <c r="AB2" s="66"/>
+      <c r="AC2" s="66"/>
+      <c r="AD2" s="66"/>
+      <c r="AE2" s="66"/>
+      <c r="AF2" s="9"/>
+      <c r="AG2" s="78"/>
+      <c r="AH2" s="80" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:35" s="18" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12"/>
-      <c r="B3" s="13" t="s">
+    <row r="3" spans="1:34" s="6" customFormat="1" ht="24" customHeight="1" thickBot="1">
+      <c r="A3" s="10"/>
+      <c r="B3" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="12">
         <v>1993</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="12">
         <v>1994</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="12">
         <v>1995</v>
       </c>
-      <c r="F3" s="15">
+      <c r="F3" s="12">
         <v>1996</v>
       </c>
-      <c r="G3" s="15">
+      <c r="G3" s="12">
         <v>1997</v>
       </c>
-      <c r="H3" s="15">
+      <c r="H3" s="12">
         <v>1998</v>
       </c>
-      <c r="I3" s="16">
+      <c r="I3" s="12">
         <v>1999</v>
       </c>
-      <c r="J3" s="16">
+      <c r="J3" s="12">
         <v>2000</v>
       </c>
-      <c r="K3" s="16">
+      <c r="K3" s="12">
         <v>2001</v>
       </c>
-      <c r="L3" s="16">
+      <c r="L3" s="12">
         <v>2002</v>
       </c>
-      <c r="M3" s="16">
+      <c r="M3" s="12">
         <v>2003</v>
       </c>
-      <c r="N3" s="16">
+      <c r="N3" s="12">
         <v>2004</v>
       </c>
-      <c r="O3" s="16">
+      <c r="O3" s="12">
         <v>2005</v>
       </c>
-      <c r="P3" s="16">
+      <c r="P3" s="12">
         <v>2006</v>
       </c>
-      <c r="Q3" s="16">
+      <c r="Q3" s="12">
         <v>2007</v>
       </c>
-      <c r="R3" s="16">
+      <c r="R3" s="12">
         <v>2008</v>
       </c>
-      <c r="S3" s="16">
+      <c r="S3" s="12">
         <v>2009</v>
       </c>
-      <c r="T3" s="16">
+      <c r="T3" s="12">
         <v>2010</v>
       </c>
-      <c r="U3" s="16">
+      <c r="U3" s="12">
         <v>2011</v>
       </c>
-      <c r="V3" s="16">
+      <c r="V3" s="12">
         <v>2012</v>
       </c>
-      <c r="W3" s="16">
+      <c r="W3" s="12">
         <v>2013</v>
       </c>
-      <c r="X3" s="16">
+      <c r="X3" s="12">
         <v>2014</v>
       </c>
-      <c r="Y3" s="16">
+      <c r="Y3" s="12">
         <v>2015</v>
       </c>
-      <c r="Z3" s="16">
+      <c r="Z3" s="12">
         <v>2016</v>
       </c>
-      <c r="AA3" s="17">
+      <c r="AA3" s="13">
         <v>2017</v>
       </c>
-      <c r="AB3" s="17">
+      <c r="AB3" s="13">
         <v>2018</v>
       </c>
-      <c r="AC3" s="17">
+      <c r="AC3" s="13">
         <v>2019</v>
       </c>
-      <c r="AD3" s="17">
+      <c r="AD3" s="13">
         <v>2020</v>
       </c>
-      <c r="AE3" s="17">
+      <c r="AE3" s="13">
         <v>2021</v>
       </c>
-      <c r="AF3" s="16">
+      <c r="AF3" s="12">
         <v>2022</v>
       </c>
-      <c r="AG3" s="14">
+      <c r="AG3" s="12">
         <v>2023</v>
       </c>
-      <c r="AH3" s="101">
+      <c r="AH3" s="73">
         <v>2024</v>
       </c>
     </row>
-    <row r="4" spans="1:35" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="19" t="s">
+    <row r="4" spans="1:34" s="6" customFormat="1" ht="18" customHeight="1">
+      <c r="A4" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="22"/>
-      <c r="R4" s="23"/>
-      <c r="S4" s="23"/>
-      <c r="T4" s="23"/>
-      <c r="U4" s="23"/>
-      <c r="V4" s="23"/>
-      <c r="W4" s="23"/>
-      <c r="X4" s="23"/>
-      <c r="Y4" s="23"/>
-      <c r="Z4" s="23"/>
-      <c r="AA4" s="24"/>
-      <c r="AB4" s="24"/>
-      <c r="AC4" s="24"/>
-      <c r="AD4" s="24"/>
-      <c r="AE4" s="24"/>
-      <c r="AF4" s="23"/>
-      <c r="AG4" s="108"/>
-      <c r="AH4" s="102"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="16"/>
+      <c r="S4" s="16"/>
+      <c r="T4" s="16"/>
+      <c r="U4" s="16"/>
+      <c r="V4" s="16"/>
+      <c r="W4" s="16"/>
+      <c r="X4" s="16"/>
+      <c r="Y4" s="16"/>
+      <c r="Z4" s="16"/>
+      <c r="AA4" s="18"/>
+      <c r="AB4" s="18"/>
+      <c r="AC4" s="18"/>
+      <c r="AD4" s="18"/>
+      <c r="AE4" s="18"/>
+      <c r="AF4" s="16"/>
+      <c r="AG4" s="79"/>
+      <c r="AH4" s="74"/>
     </row>
-    <row r="5" spans="1:35" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="25" t="s">
+    <row r="5" spans="1:34" s="6" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A5" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="27">
+      <c r="C5" s="21">
         <v>706635</v>
       </c>
-      <c r="D5" s="27">
+      <c r="D5" s="21">
         <v>706624</v>
       </c>
-      <c r="E5" s="28">
+      <c r="E5" s="22">
         <v>706643</v>
       </c>
-      <c r="F5" s="28">
+      <c r="F5" s="22">
         <v>706651</v>
       </c>
-      <c r="G5" s="28">
+      <c r="G5" s="22">
         <v>706634.38009999995</v>
       </c>
-      <c r="H5" s="28">
+      <c r="H5" s="22">
         <v>706225</v>
       </c>
-      <c r="I5" s="29">
+      <c r="I5" s="21">
         <v>706555</v>
       </c>
-      <c r="J5" s="29">
+      <c r="J5" s="21">
         <v>706547</v>
       </c>
-      <c r="K5" s="29">
+      <c r="K5" s="21">
         <v>706570</v>
       </c>
-      <c r="L5" s="29">
+      <c r="L5" s="21">
         <v>706545</v>
       </c>
-      <c r="M5" s="29">
+      <c r="M5" s="21">
         <v>706562.43269999989</v>
       </c>
-      <c r="N5" s="29">
+      <c r="N5" s="21">
         <v>706674.22</v>
       </c>
-      <c r="O5" s="29">
+      <c r="O5" s="21">
         <v>719633.19149999996</v>
       </c>
-      <c r="P5" s="29">
+      <c r="P5" s="21">
         <v>719629.50760000001</v>
       </c>
-      <c r="Q5" s="29">
+      <c r="Q5" s="21">
         <v>719555.18629999994</v>
       </c>
-      <c r="R5" s="29">
+      <c r="R5" s="21">
         <v>719540.57759999996</v>
       </c>
-      <c r="S5" s="29">
+      <c r="S5" s="21">
         <v>719454.4621</v>
       </c>
-      <c r="T5" s="29">
+      <c r="T5" s="21">
         <v>719463.27260000003</v>
       </c>
-      <c r="U5" s="29">
+      <c r="U5" s="21">
         <v>719479.25209999993</v>
       </c>
-      <c r="V5" s="29">
+      <c r="V5" s="21">
         <v>719489.46129999997</v>
       </c>
-      <c r="W5" s="29">
+      <c r="W5" s="21">
         <v>719511.42599999998</v>
       </c>
-      <c r="X5" s="29">
+      <c r="X5" s="21">
         <v>719522.13319999992</v>
       </c>
-      <c r="Y5" s="29">
+      <c r="Y5" s="21">
         <v>719506</v>
       </c>
-      <c r="Z5" s="29">
+      <c r="Z5" s="21">
         <v>718782</v>
       </c>
-      <c r="AA5" s="30">
+      <c r="AA5" s="23">
         <v>718797</v>
       </c>
-      <c r="AB5" s="30">
+      <c r="AB5" s="23">
         <v>718802</v>
       </c>
-      <c r="AC5" s="30">
+      <c r="AC5" s="23">
         <v>718805</v>
       </c>
-      <c r="AD5" s="30">
+      <c r="AD5" s="23">
         <v>718783.16269999999</v>
       </c>
-      <c r="AE5" s="30">
+      <c r="AE5" s="23">
         <v>718772.43129999994</v>
       </c>
-      <c r="AF5" s="29">
+      <c r="AF5" s="21">
         <v>718779.32259999996</v>
       </c>
-      <c r="AG5" s="29">
+      <c r="AG5" s="21">
         <v>718785.84519999998</v>
       </c>
-      <c r="AH5" s="30">
+      <c r="AH5" s="23">
         <v>718774.36930000002</v>
       </c>
     </row>
-    <row r="6" spans="1:35" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="31" t="s">
+    <row r="6" spans="1:34" s="6" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A6" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="27">
+      <c r="B6" s="20"/>
+      <c r="C6" s="21">
         <v>427790</v>
       </c>
-      <c r="D6" s="27">
+      <c r="D6" s="21">
         <v>427776</v>
       </c>
-      <c r="E6" s="28">
+      <c r="E6" s="22">
         <v>427629</v>
       </c>
-      <c r="F6" s="28">
+      <c r="F6" s="22">
         <v>427438</v>
       </c>
-      <c r="G6" s="28">
+      <c r="G6" s="22">
         <v>427385</v>
       </c>
-      <c r="H6" s="28">
+      <c r="H6" s="22">
         <v>427696</v>
       </c>
-      <c r="I6" s="29">
+      <c r="I6" s="21">
         <v>427580</v>
       </c>
-      <c r="J6" s="29">
+      <c r="J6" s="21">
         <v>427276</v>
       </c>
-      <c r="K6" s="29">
+      <c r="K6" s="21">
         <v>427059</v>
       </c>
-      <c r="L6" s="29">
+      <c r="L6" s="21">
         <v>426612</v>
       </c>
-      <c r="M6" s="29">
+      <c r="M6" s="21">
         <v>426293.98779999994</v>
       </c>
-      <c r="N6" s="29">
+      <c r="N6" s="21">
         <v>425323.39600000001</v>
       </c>
-      <c r="O6" s="29">
+      <c r="O6" s="21">
         <v>431562.73680000001</v>
       </c>
-      <c r="P6" s="29">
+      <c r="P6" s="21">
         <v>430857.79190000001</v>
       </c>
-      <c r="Q6" s="29">
+      <c r="Q6" s="21">
         <v>429850.59250000003</v>
       </c>
-      <c r="R6" s="29">
+      <c r="R6" s="21">
         <v>429186.8971</v>
       </c>
-      <c r="S6" s="29">
+      <c r="S6" s="21">
         <v>428098.8518</v>
       </c>
-      <c r="T6" s="29">
+      <c r="T6" s="21">
         <v>427411.23509999999</v>
       </c>
-      <c r="U6" s="29">
+      <c r="U6" s="21">
         <v>426702.97699999996</v>
       </c>
-      <c r="V6" s="29">
+      <c r="V6" s="21">
         <v>426040.77500000002</v>
       </c>
-      <c r="W6" s="29">
+      <c r="W6" s="21">
         <v>425765.29040000006</v>
       </c>
-      <c r="X6" s="29">
+      <c r="X6" s="21">
         <v>425167.57339999988</v>
       </c>
-      <c r="Y6" s="29">
+      <c r="Y6" s="21">
         <v>424577</v>
       </c>
-      <c r="Z6" s="29">
+      <c r="Z6" s="21">
         <v>424021</v>
       </c>
-      <c r="AA6" s="30">
+      <c r="AA6" s="23">
         <v>423770</v>
       </c>
-      <c r="AB6" s="30">
+      <c r="AB6" s="23">
         <v>423318.2378</v>
       </c>
-      <c r="AC6" s="30">
+      <c r="AC6" s="23">
         <v>422902</v>
       </c>
-      <c r="AD6" s="30">
+      <c r="AD6" s="23">
         <v>422496.57260000001</v>
       </c>
-      <c r="AE6" s="30">
+      <c r="AE6" s="23">
         <v>422041.16059999994</v>
       </c>
-      <c r="AF6" s="29">
+      <c r="AF6" s="21">
         <v>421536.5061</v>
       </c>
-      <c r="AG6" s="29">
+      <c r="AG6" s="21">
         <v>420948.95559999993</v>
       </c>
-      <c r="AH6" s="30">
+      <c r="AH6" s="23">
         <v>420376.76459999994</v>
       </c>
     </row>
-    <row r="7" spans="1:35" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="55" t="s">
+    <row r="7" spans="1:34" s="6" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A7" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="B7" s="26"/>
-      <c r="C7" s="27">
+      <c r="B7" s="20"/>
+      <c r="C7" s="21">
         <v>359227</v>
       </c>
-      <c r="D7" s="27">
+      <c r="D7" s="21">
         <v>359224</v>
       </c>
-      <c r="E7" s="28">
+      <c r="E7" s="22">
         <v>359106</v>
       </c>
-      <c r="F7" s="28">
+      <c r="F7" s="22">
         <v>359166</v>
       </c>
-      <c r="G7" s="28">
+      <c r="G7" s="22">
         <v>359455</v>
       </c>
-      <c r="H7" s="28">
+      <c r="H7" s="22">
         <v>360450</v>
       </c>
-      <c r="I7" s="29">
+      <c r="I7" s="21">
         <v>360262</v>
       </c>
-      <c r="J7" s="29">
+      <c r="J7" s="21">
         <v>359641</v>
       </c>
-      <c r="K7" s="29">
+      <c r="K7" s="21">
         <v>359439</v>
       </c>
-      <c r="L7" s="29">
+      <c r="L7" s="21">
         <v>359019</v>
       </c>
-      <c r="M7" s="29">
+      <c r="M7" s="21">
         <v>358062.48329999996</v>
       </c>
-      <c r="N7" s="29">
+      <c r="N7" s="21">
         <v>355609</v>
       </c>
-      <c r="O7" s="29">
+      <c r="O7" s="21">
         <v>359498.23479999998</v>
       </c>
-      <c r="P7" s="29">
+      <c r="P7" s="21">
         <v>358468.60940000002</v>
       </c>
-      <c r="Q7" s="29">
+      <c r="Q7" s="21">
         <v>357308.66149999999</v>
       </c>
-      <c r="R7" s="29">
+      <c r="R7" s="21">
         <v>356662.11829999997</v>
       </c>
-      <c r="S7" s="29">
+      <c r="S7" s="21">
         <v>355248.96740000002</v>
       </c>
-      <c r="T7" s="29">
+      <c r="T7" s="21">
         <v>354247.86869999999</v>
       </c>
-      <c r="U7" s="29">
+      <c r="U7" s="21">
         <v>353723.89819999994</v>
       </c>
-      <c r="V7" s="29">
+      <c r="V7" s="21">
         <v>353116.2291</v>
       </c>
-      <c r="W7" s="29">
+      <c r="W7" s="21">
         <v>352771.09279999998</v>
       </c>
-      <c r="X7" s="29">
+      <c r="X7" s="21">
         <v>352170.84009999991</v>
       </c>
-      <c r="Y7" s="29">
+      <c r="Y7" s="21">
         <v>351428</v>
       </c>
-      <c r="Z7" s="29">
+      <c r="Z7" s="21">
         <v>350947</v>
       </c>
-      <c r="AA7" s="30">
+      <c r="AA7" s="23">
         <v>350454</v>
       </c>
-      <c r="AB7" s="30">
+      <c r="AB7" s="23">
         <v>349833.39309999999</v>
       </c>
-      <c r="AC7" s="30">
+      <c r="AC7" s="23">
         <v>349044</v>
       </c>
-      <c r="AD7" s="30">
+      <c r="AD7" s="23">
         <v>348266.04560000001</v>
       </c>
-      <c r="AE7" s="30">
+      <c r="AE7" s="23">
         <v>347433.67680000007</v>
       </c>
-      <c r="AF7" s="29">
+      <c r="AF7" s="21">
         <v>346258.88699999999</v>
       </c>
-      <c r="AG7" s="29">
+      <c r="AG7" s="21">
         <v>344915.27439999994</v>
       </c>
-      <c r="AH7" s="30">
+      <c r="AH7" s="23">
         <v>343654.99900000001</v>
       </c>
     </row>
-    <row r="8" spans="1:35" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="31" t="s">
+    <row r="8" spans="1:34" s="6" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A8" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="26"/>
-      <c r="C8" s="27">
+      <c r="B8" s="20"/>
+      <c r="C8" s="21">
         <v>278845</v>
       </c>
-      <c r="D8" s="27">
+      <c r="D8" s="21">
         <v>278848</v>
       </c>
-      <c r="E8" s="28">
+      <c r="E8" s="22">
         <v>279013</v>
       </c>
-      <c r="F8" s="28">
+      <c r="F8" s="22">
         <v>279212</v>
       </c>
-      <c r="G8" s="28">
+      <c r="G8" s="22">
         <v>279250</v>
       </c>
-      <c r="H8" s="28">
+      <c r="H8" s="22">
         <v>278529</v>
       </c>
-      <c r="I8" s="29">
+      <c r="I8" s="21">
         <v>278975</v>
       </c>
-      <c r="J8" s="29">
+      <c r="J8" s="21">
         <v>279271</v>
       </c>
-      <c r="K8" s="29">
+      <c r="K8" s="21">
         <v>279511</v>
       </c>
-      <c r="L8" s="29">
+      <c r="L8" s="21">
         <v>279933</v>
       </c>
-      <c r="M8" s="29">
+      <c r="M8" s="21">
         <v>280268.4449</v>
       </c>
-      <c r="N8" s="29">
+      <c r="N8" s="21">
         <v>281350.82400000002</v>
       </c>
-      <c r="O8" s="29">
+      <c r="O8" s="21">
         <v>288070.4547</v>
       </c>
-      <c r="P8" s="29">
+      <c r="P8" s="21">
         <v>288771.7157</v>
       </c>
-      <c r="Q8" s="29">
+      <c r="Q8" s="21">
         <v>289703.34619999997</v>
       </c>
-      <c r="R8" s="29">
+      <c r="R8" s="21">
         <v>290353.68049999996</v>
       </c>
-      <c r="S8" s="29">
+      <c r="S8" s="21">
         <v>291355.6103</v>
       </c>
-      <c r="T8" s="29">
+      <c r="T8" s="21">
         <v>292052.03749999998</v>
       </c>
-      <c r="U8" s="29">
+      <c r="U8" s="21">
         <v>292776.27509999997</v>
       </c>
-      <c r="V8" s="29">
+      <c r="V8" s="21">
         <v>293448.6863</v>
       </c>
-      <c r="W8" s="29">
+      <c r="W8" s="21">
         <v>293746.13560000004</v>
       </c>
-      <c r="X8" s="29">
+      <c r="X8" s="21">
         <v>294354.55979999999</v>
       </c>
-      <c r="Y8" s="29">
+      <c r="Y8" s="21">
         <v>294929</v>
       </c>
-      <c r="Z8" s="29">
+      <c r="Z8" s="21">
         <v>294761</v>
       </c>
-      <c r="AA8" s="30">
+      <c r="AA8" s="23">
         <v>295027</v>
       </c>
-      <c r="AB8" s="30">
+      <c r="AB8" s="23">
         <v>295484.00339999999</v>
       </c>
-      <c r="AC8" s="30">
+      <c r="AC8" s="23">
         <v>295903</v>
       </c>
-      <c r="AD8" s="30">
+      <c r="AD8" s="23">
         <v>296286.59010000003</v>
       </c>
-      <c r="AE8" s="30">
+      <c r="AE8" s="23">
         <v>296731.27070000005</v>
       </c>
-      <c r="AF8" s="29">
+      <c r="AF8" s="21">
         <v>297242.81650000002</v>
       </c>
-      <c r="AG8" s="29">
+      <c r="AG8" s="21">
         <v>297836.88960000005</v>
       </c>
-      <c r="AH8" s="30">
+      <c r="AH8" s="23">
         <v>298397.60469999997</v>
       </c>
     </row>
-    <row r="9" spans="1:35" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="55" t="s">
+    <row r="9" spans="1:34" s="6" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A9" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="B9" s="26"/>
-      <c r="C9" s="27">
+      <c r="B9" s="20"/>
+      <c r="C9" s="21">
         <v>195791</v>
       </c>
-      <c r="D9" s="27">
+      <c r="D9" s="21">
         <v>195746</v>
       </c>
-      <c r="E9" s="28">
+      <c r="E9" s="22">
         <v>195801</v>
       </c>
-      <c r="F9" s="28">
+      <c r="F9" s="22">
         <v>195943</v>
       </c>
-      <c r="G9" s="28">
+      <c r="G9" s="22">
         <v>195896</v>
       </c>
-      <c r="H9" s="28">
+      <c r="H9" s="22">
         <v>195945</v>
       </c>
-      <c r="I9" s="29">
+      <c r="I9" s="21">
         <v>196102</v>
       </c>
-      <c r="J9" s="29">
+      <c r="J9" s="21">
         <v>196155</v>
       </c>
-      <c r="K9" s="29">
+      <c r="K9" s="21">
         <v>196173</v>
       </c>
-      <c r="L9" s="29">
+      <c r="L9" s="21">
         <v>196182</v>
       </c>
-      <c r="M9" s="29">
+      <c r="M9" s="21">
         <v>196099.28230000002</v>
       </c>
-      <c r="N9" s="29">
+      <c r="N9" s="21">
         <v>196276</v>
       </c>
-      <c r="O9" s="29">
+      <c r="O9" s="21">
         <v>201168.80609999999</v>
       </c>
-      <c r="P9" s="29">
+      <c r="P9" s="21">
         <v>201311.4847</v>
       </c>
-      <c r="Q9" s="29">
+      <c r="Q9" s="21">
         <v>201418.00099999999</v>
       </c>
-      <c r="R9" s="29">
+      <c r="R9" s="21">
         <v>201466.84529999999</v>
       </c>
-      <c r="S9" s="29">
+      <c r="S9" s="21">
         <v>201610.6684</v>
       </c>
-      <c r="T9" s="29">
+      <c r="T9" s="21">
         <v>201675.1202</v>
       </c>
-      <c r="U9" s="29">
+      <c r="U9" s="21">
         <v>201866.26579999999</v>
       </c>
-      <c r="V9" s="29">
+      <c r="V9" s="21">
         <v>201898.1678</v>
       </c>
-      <c r="W9" s="29">
+      <c r="W9" s="21">
         <v>201926.20220000006</v>
       </c>
-      <c r="X9" s="29">
+      <c r="X9" s="21">
         <v>202003.78090000001</v>
       </c>
-      <c r="Y9" s="29">
+      <c r="Y9" s="21">
         <v>202137</v>
       </c>
-      <c r="Z9" s="29">
+      <c r="Z9" s="21">
         <v>201514</v>
       </c>
-      <c r="AA9" s="30">
+      <c r="AA9" s="23">
         <v>201559</v>
       </c>
-      <c r="AB9" s="30">
+      <c r="AB9" s="23">
         <v>201642.4166</v>
       </c>
-      <c r="AC9" s="30">
+      <c r="AC9" s="23">
         <v>201717</v>
       </c>
-      <c r="AD9" s="30">
+      <c r="AD9" s="23">
         <v>201769.51360000006</v>
       </c>
-      <c r="AE9" s="30">
+      <c r="AE9" s="23">
         <v>201777.34080000001</v>
       </c>
-      <c r="AF9" s="29">
+      <c r="AF9" s="21">
         <v>201832.49900000001</v>
       </c>
-      <c r="AG9" s="29">
+      <c r="AG9" s="21">
         <v>201880.39890000003</v>
       </c>
-      <c r="AH9" s="30">
+      <c r="AH9" s="23">
         <v>201901.66390000001</v>
       </c>
     </row>
-    <row r="10" spans="1:35" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="25" t="s">
+    <row r="10" spans="1:34" s="6" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A10" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="26"/>
-      <c r="C10" s="27">
+      <c r="B10" s="20"/>
+      <c r="C10" s="21">
         <v>639</v>
       </c>
-      <c r="D10" s="27">
+      <c r="D10" s="21">
         <v>643</v>
       </c>
-      <c r="E10" s="28">
+      <c r="E10" s="22">
         <v>644</v>
       </c>
-      <c r="F10" s="28">
+      <c r="F10" s="22">
         <v>643</v>
       </c>
-      <c r="G10" s="28">
+      <c r="G10" s="22">
         <v>643</v>
       </c>
-      <c r="H10" s="28">
+      <c r="H10" s="22">
         <v>645</v>
       </c>
-      <c r="I10" s="29">
+      <c r="I10" s="21">
         <v>645</v>
       </c>
-      <c r="J10" s="29">
+      <c r="J10" s="21">
         <v>647</v>
       </c>
-      <c r="K10" s="29">
+      <c r="K10" s="21">
         <v>647</v>
       </c>
-      <c r="L10" s="29">
+      <c r="L10" s="21">
         <v>647</v>
       </c>
-      <c r="M10" s="29">
+      <c r="M10" s="21">
         <v>647</v>
       </c>
-      <c r="N10" s="29">
+      <c r="N10" s="21">
         <v>647</v>
       </c>
-      <c r="O10" s="29">
+      <c r="O10" s="21">
         <v>672</v>
       </c>
-      <c r="P10" s="29">
+      <c r="P10" s="21">
         <v>673</v>
       </c>
-      <c r="Q10" s="29">
+      <c r="Q10" s="21">
         <v>673</v>
       </c>
-      <c r="R10" s="29">
+      <c r="R10" s="21">
         <v>673</v>
       </c>
-      <c r="S10" s="29">
+      <c r="S10" s="21">
         <v>673</v>
       </c>
-      <c r="T10" s="29">
+      <c r="T10" s="21">
         <v>673</v>
       </c>
-      <c r="U10" s="29">
+      <c r="U10" s="21">
         <v>673</v>
       </c>
-      <c r="V10" s="29">
+      <c r="V10" s="21">
         <v>673</v>
       </c>
-      <c r="W10" s="29">
+      <c r="W10" s="21">
         <v>673</v>
       </c>
-      <c r="X10" s="29">
+      <c r="X10" s="21">
         <v>673</v>
       </c>
-      <c r="Y10" s="29">
+      <c r="Y10" s="21">
         <v>673</v>
       </c>
-      <c r="Z10" s="29">
+      <c r="Z10" s="21">
         <v>673</v>
       </c>
-      <c r="AA10" s="30">
+      <c r="AA10" s="23">
         <v>673</v>
       </c>
-      <c r="AB10" s="30">
+      <c r="AB10" s="23">
         <v>673</v>
       </c>
-      <c r="AC10" s="30">
+      <c r="AC10" s="23">
         <v>673</v>
       </c>
-      <c r="AD10" s="93">
+      <c r="AD10" s="68">
         <v>673</v>
       </c>
-      <c r="AE10" s="93">
+      <c r="AE10" s="68">
         <v>673</v>
       </c>
-      <c r="AF10" s="103">
+      <c r="AF10" s="75">
         <v>673</v>
       </c>
-      <c r="AG10" s="103">
+      <c r="AG10" s="75">
         <v>673</v>
       </c>
-      <c r="AH10" s="93">
+      <c r="AH10" s="68">
         <v>673</v>
       </c>
     </row>
-    <row r="11" spans="1:35" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="31" t="s">
+    <row r="11" spans="1:34" s="6" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A11" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="26"/>
-      <c r="C11" s="27">
+      <c r="B11" s="20"/>
+      <c r="C11" s="21">
         <v>39</v>
       </c>
-      <c r="D11" s="27">
+      <c r="D11" s="21">
         <v>41</v>
       </c>
-      <c r="E11" s="28">
+      <c r="E11" s="22">
         <v>42</v>
       </c>
-      <c r="F11" s="28">
+      <c r="F11" s="22">
         <v>42</v>
       </c>
-      <c r="G11" s="28">
+      <c r="G11" s="22">
         <v>42</v>
       </c>
-      <c r="H11" s="28">
+      <c r="H11" s="22">
         <v>43</v>
       </c>
-      <c r="I11" s="29">
+      <c r="I11" s="21">
         <v>44</v>
       </c>
-      <c r="J11" s="29">
+      <c r="J11" s="21">
         <v>45</v>
       </c>
-      <c r="K11" s="29">
+      <c r="K11" s="21">
         <v>47</v>
       </c>
-      <c r="L11" s="29">
+      <c r="L11" s="21">
         <v>47</v>
       </c>
-      <c r="M11" s="29">
+      <c r="M11" s="21">
         <v>47</v>
       </c>
-      <c r="N11" s="29">
+      <c r="N11" s="21">
         <v>47</v>
       </c>
-      <c r="O11" s="29">
+      <c r="O11" s="21">
         <v>48</v>
       </c>
-      <c r="P11" s="29">
+      <c r="P11" s="21">
         <v>48</v>
       </c>
-      <c r="Q11" s="29">
+      <c r="Q11" s="21">
         <v>49</v>
       </c>
-      <c r="R11" s="29">
+      <c r="R11" s="21">
         <v>49</v>
       </c>
-      <c r="S11" s="29">
+      <c r="S11" s="21">
         <v>49</v>
       </c>
-      <c r="T11" s="29">
+      <c r="T11" s="21">
         <v>49</v>
       </c>
-      <c r="U11" s="29">
+      <c r="U11" s="21">
         <v>49</v>
       </c>
-      <c r="V11" s="29">
+      <c r="V11" s="21">
         <v>49</v>
       </c>
-      <c r="W11" s="29">
+      <c r="W11" s="21">
         <v>49</v>
       </c>
-      <c r="X11" s="29">
+      <c r="X11" s="21">
         <v>49</v>
       </c>
-      <c r="Y11" s="29">
+      <c r="Y11" s="21">
         <v>49</v>
       </c>
-      <c r="Z11" s="29">
+      <c r="Z11" s="21">
         <v>49</v>
       </c>
-      <c r="AA11" s="30">
+      <c r="AA11" s="23">
         <v>49</v>
       </c>
-      <c r="AB11" s="30">
+      <c r="AB11" s="23">
         <v>50</v>
       </c>
-      <c r="AC11" s="30">
+      <c r="AC11" s="23">
         <v>50</v>
       </c>
-      <c r="AD11" s="93">
+      <c r="AD11" s="68">
         <v>50</v>
       </c>
-      <c r="AE11" s="93">
+      <c r="AE11" s="68">
         <v>50</v>
       </c>
-      <c r="AF11" s="103">
+      <c r="AF11" s="75">
         <v>50</v>
       </c>
-      <c r="AG11" s="103">
+      <c r="AG11" s="75">
         <v>50</v>
       </c>
-      <c r="AH11" s="93">
+      <c r="AH11" s="68">
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:35" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="25" t="s">
+    <row r="12" spans="1:34" s="6" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A12" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="32">
+      <c r="C12" s="25">
         <v>62.931991486997873</v>
       </c>
-      <c r="D12" s="32">
+      <c r="D12" s="25">
         <v>63.4</v>
       </c>
-      <c r="E12" s="33">
+      <c r="E12" s="26">
         <v>63.608290424230532</v>
       </c>
-      <c r="F12" s="33">
+      <c r="F12" s="26">
         <v>63.560377085353068</v>
       </c>
-      <c r="G12" s="33">
+      <c r="G12" s="26">
         <v>63.431557224088344</v>
       </c>
-      <c r="H12" s="33">
+      <c r="H12" s="26">
         <v>63.40041153637317</v>
       </c>
-      <c r="I12" s="34">
+      <c r="I12" s="25">
         <v>63.465310928005103</v>
       </c>
-      <c r="J12" s="34">
+      <c r="J12" s="25">
         <v>63.507563495851485</v>
       </c>
-      <c r="K12" s="34">
+      <c r="K12" s="25">
         <v>63.756555176421728</v>
       </c>
-      <c r="L12" s="34">
+      <c r="L12" s="25">
         <v>63.527195772478315</v>
       </c>
-      <c r="M12" s="34">
+      <c r="M12" s="25">
         <v>63.392483319525731</v>
       </c>
-      <c r="N12" s="34">
+      <c r="N12" s="25">
         <v>63.201065526116871</v>
       </c>
-      <c r="O12" s="34">
+      <c r="O12" s="25">
         <v>62.950941206237317</v>
       </c>
-      <c r="P12" s="34">
+      <c r="P12" s="25">
         <v>62.729667135514752</v>
       </c>
-      <c r="Q12" s="34">
+      <c r="Q12" s="25">
         <v>62.65205596676644</v>
       </c>
-      <c r="R12" s="34">
+      <c r="R12" s="25">
         <v>62.5</v>
       </c>
-      <c r="S12" s="34">
+      <c r="S12" s="25">
         <v>62.4</v>
       </c>
-      <c r="T12" s="34">
+      <c r="T12" s="25">
         <v>62.183303396515321</v>
       </c>
-      <c r="U12" s="96">
+      <c r="U12" s="69">
         <v>62.3</v>
       </c>
-      <c r="V12" s="35">
+      <c r="V12" s="27">
         <v>62.1</v>
       </c>
-      <c r="W12" s="35">
+      <c r="W12" s="27">
         <v>62</v>
       </c>
-      <c r="X12" s="35">
+      <c r="X12" s="27">
         <v>61.868026086815654</v>
       </c>
-      <c r="Y12" s="35">
+      <c r="Y12" s="27">
         <v>61.7</v>
       </c>
-      <c r="Z12" s="35">
+      <c r="Z12" s="27">
         <v>61.7</v>
       </c>
-      <c r="AA12" s="36">
+      <c r="AA12" s="28">
         <v>61.6</v>
       </c>
-      <c r="AB12" s="36">
+      <c r="AB12" s="28">
         <v>61.7</v>
       </c>
-      <c r="AC12" s="36">
+      <c r="AC12" s="28">
         <v>61.6</v>
       </c>
-      <c r="AD12" s="46">
+      <c r="AD12" s="28">
         <v>61.5</v>
       </c>
-      <c r="AE12" s="99">
+      <c r="AE12" s="71">
         <v>61.4</v>
       </c>
-      <c r="AF12" s="35">
+      <c r="AF12" s="27">
         <v>61.7</v>
       </c>
-      <c r="AG12" s="35">
+      <c r="AG12" s="27">
         <v>61.718167289999997</v>
       </c>
-      <c r="AH12" s="36"/>
+      <c r="AH12" s="28"/>
     </row>
-    <row r="13" spans="1:35" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="25" t="s">
+    <row r="13" spans="1:34" s="6" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A13" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="32">
+      <c r="C13" s="25">
         <v>161.53711150080747</v>
       </c>
-      <c r="D13" s="32">
+      <c r="D13" s="25">
         <v>161.5</v>
       </c>
-      <c r="E13" s="33">
+      <c r="E13" s="26">
         <v>161.49635449687528</v>
       </c>
-      <c r="F13" s="33">
+      <c r="F13" s="26">
         <v>161.2971472157794</v>
       </c>
-      <c r="G13" s="33">
+      <c r="G13" s="26">
         <v>161.14390271859799</v>
       </c>
-      <c r="H13" s="33">
+      <c r="H13" s="26">
         <v>161.06971753043354</v>
       </c>
-      <c r="I13" s="34">
+      <c r="I13" s="25">
         <v>161.03777124853977</v>
       </c>
-      <c r="J13" s="34">
+      <c r="J13" s="25">
         <v>160.72152910955268</v>
       </c>
-      <c r="K13" s="34">
+      <c r="K13" s="25">
         <v>159.14813818871448</v>
       </c>
-      <c r="L13" s="34">
+      <c r="L13" s="25">
         <v>158.77148660028729</v>
       </c>
-      <c r="M13" s="34">
+      <c r="M13" s="25">
         <v>158.87767988319203</v>
       </c>
-      <c r="N13" s="34">
+      <c r="N13" s="25">
         <v>158.94183885751485</v>
       </c>
-      <c r="O13" s="34">
+      <c r="O13" s="25">
         <v>157.07418909401429</v>
       </c>
-      <c r="P13" s="34">
+      <c r="P13" s="25">
         <v>157.38140085127327</v>
       </c>
-      <c r="Q13" s="34">
+      <c r="Q13" s="25">
         <v>158.50542414469984</v>
       </c>
-      <c r="R13" s="34">
+      <c r="R13" s="25">
         <v>159.4</v>
       </c>
-      <c r="S13" s="34">
+      <c r="S13" s="25">
         <v>160.08073626207064</v>
       </c>
-      <c r="T13" s="34">
+      <c r="T13" s="25">
         <v>160.48824783331963</v>
       </c>
-      <c r="U13" s="96">
+      <c r="U13" s="69">
         <v>162.10516100301598</v>
       </c>
-      <c r="V13" s="35">
+      <c r="V13" s="27">
         <v>162.21808140054824</v>
       </c>
-      <c r="W13" s="35">
+      <c r="W13" s="27">
         <v>162.41257022094879</v>
       </c>
-      <c r="X13" s="35">
+      <c r="X13" s="27">
         <v>162.7021527181563</v>
       </c>
-      <c r="Y13" s="35">
+      <c r="Y13" s="27">
         <v>163.30000000000001</v>
       </c>
-      <c r="Z13" s="35">
+      <c r="Z13" s="27">
         <v>164</v>
       </c>
-      <c r="AA13" s="36">
+      <c r="AA13" s="28">
         <v>164.6</v>
       </c>
-      <c r="AB13" s="36">
+      <c r="AB13" s="28">
         <v>165.2</v>
       </c>
-      <c r="AC13" s="36">
+      <c r="AC13" s="28">
         <v>165.8</v>
       </c>
-      <c r="AD13" s="46">
+      <c r="AD13" s="28">
         <v>166.29869229406199</v>
       </c>
-      <c r="AE13" s="99">
+      <c r="AE13" s="71">
         <v>164.77329241161175</v>
       </c>
-      <c r="AF13" s="35">
+      <c r="AF13" s="27">
         <v>169.3426566025</v>
       </c>
-      <c r="AG13" s="35">
+      <c r="AG13" s="27">
         <v>170.16528750085075</v>
       </c>
-      <c r="AH13" s="36"/>
-      <c r="AI13" s="7"/>
+      <c r="AH13" s="28"/>
     </row>
-    <row r="14" spans="1:35" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="37" t="s">
+    <row r="14" spans="1:34" s="6" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A14" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="26"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="40"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="40"/>
-      <c r="L14" s="40"/>
-      <c r="M14" s="40"/>
-      <c r="N14" s="40"/>
-      <c r="O14" s="41"/>
-      <c r="P14" s="41"/>
-      <c r="Q14" s="41"/>
-      <c r="R14" s="41"/>
-      <c r="S14" s="41"/>
-      <c r="T14" s="41"/>
-      <c r="U14" s="41"/>
-      <c r="V14" s="41"/>
-      <c r="W14" s="41"/>
-      <c r="X14" s="41"/>
-      <c r="Y14" s="41"/>
-      <c r="Z14" s="41"/>
-      <c r="AA14" s="42"/>
-      <c r="AB14" s="42"/>
-      <c r="AC14" s="42"/>
-      <c r="AD14" s="42"/>
-      <c r="AE14" s="42"/>
-      <c r="AF14" s="41"/>
-      <c r="AG14" s="23"/>
-      <c r="AH14" s="7"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="32"/>
+      <c r="L14" s="32"/>
+      <c r="M14" s="32"/>
+      <c r="N14" s="32"/>
+      <c r="O14" s="30"/>
+      <c r="P14" s="30"/>
+      <c r="Q14" s="30"/>
+      <c r="R14" s="30"/>
+      <c r="S14" s="30"/>
+      <c r="T14" s="30"/>
+      <c r="U14" s="30"/>
+      <c r="V14" s="30"/>
+      <c r="W14" s="30"/>
+      <c r="X14" s="30"/>
+      <c r="Y14" s="30"/>
+      <c r="Z14" s="30"/>
+      <c r="AA14" s="33"/>
+      <c r="AB14" s="33"/>
+      <c r="AC14" s="33"/>
+      <c r="AD14" s="33"/>
+      <c r="AE14" s="33"/>
+      <c r="AF14" s="30"/>
+      <c r="AG14" s="16"/>
     </row>
-    <row r="15" spans="1:35" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="77" t="s">
+    <row r="15" spans="1:34" s="6" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A15" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="26"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="40"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="40"/>
-      <c r="L15" s="40"/>
-      <c r="M15" s="40"/>
-      <c r="N15" s="40"/>
-      <c r="O15" s="41"/>
-      <c r="P15" s="41"/>
-      <c r="Q15" s="41"/>
-      <c r="R15" s="41"/>
-      <c r="S15" s="41"/>
-      <c r="T15" s="41"/>
-      <c r="U15" s="41"/>
-      <c r="V15" s="41"/>
-      <c r="W15" s="41"/>
-      <c r="X15" s="41"/>
-      <c r="Y15" s="41"/>
-      <c r="Z15" s="41"/>
-      <c r="AA15" s="42"/>
-      <c r="AB15" s="42"/>
-      <c r="AC15" s="42"/>
-      <c r="AD15" s="42"/>
-      <c r="AE15" s="42"/>
-      <c r="AF15" s="41"/>
-      <c r="AG15" s="23"/>
-      <c r="AH15" s="7"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="32"/>
+      <c r="L15" s="32"/>
+      <c r="M15" s="32"/>
+      <c r="N15" s="32"/>
+      <c r="O15" s="30"/>
+      <c r="P15" s="30"/>
+      <c r="Q15" s="30"/>
+      <c r="R15" s="30"/>
+      <c r="S15" s="30"/>
+      <c r="T15" s="30"/>
+      <c r="U15" s="30"/>
+      <c r="V15" s="30"/>
+      <c r="W15" s="30"/>
+      <c r="X15" s="30"/>
+      <c r="Y15" s="30"/>
+      <c r="Z15" s="30"/>
+      <c r="AA15" s="33"/>
+      <c r="AB15" s="33"/>
+      <c r="AC15" s="33"/>
+      <c r="AD15" s="33"/>
+      <c r="AE15" s="33"/>
+      <c r="AF15" s="30"/>
+      <c r="AG15" s="16"/>
     </row>
-    <row r="16" spans="1:35" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="43" t="s">
+    <row r="16" spans="1:34" s="6" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A16" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="44" t="s">
+      <c r="C16" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="44" t="s">
+      <c r="D16" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="44" t="s">
+      <c r="E16" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="F16" s="44" t="s">
+      <c r="F16" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="G16" s="44" t="s">
+      <c r="G16" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="H16" s="44" t="s">
+      <c r="H16" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="I16" s="44" t="s">
+      <c r="I16" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="J16" s="44" t="s">
+      <c r="J16" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="K16" s="44" t="s">
+      <c r="K16" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="L16" s="44" t="s">
+      <c r="L16" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="M16" s="44" t="s">
+      <c r="M16" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="N16" s="44" t="s">
+      <c r="N16" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="O16" s="44" t="s">
+      <c r="O16" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="P16" s="44" t="s">
+      <c r="P16" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="Q16" s="44" t="s">
+      <c r="Q16" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="R16" s="45">
+      <c r="R16" s="36">
         <v>0.68298438143594531</v>
       </c>
-      <c r="S16" s="45">
+      <c r="S16" s="36">
         <v>0.64316782055187183</v>
       </c>
-      <c r="T16" s="45">
+      <c r="T16" s="36">
         <v>0.65513271281569652</v>
       </c>
-      <c r="U16" s="45">
+      <c r="U16" s="36">
         <v>0.63366660734381608</v>
       </c>
-      <c r="V16" s="117">
+      <c r="V16" s="67">
         <v>0.61264158309501693</v>
       </c>
-      <c r="W16" s="118">
+      <c r="W16" s="82">
         <v>0.61619732148628159</v>
       </c>
-      <c r="X16" s="45">
+      <c r="X16" s="36">
         <v>0.58007165834849717</v>
       </c>
-      <c r="Y16" s="45">
+      <c r="Y16" s="36">
         <v>0.59815541476603262</v>
       </c>
-      <c r="Z16" s="45">
+      <c r="Z16" s="36">
         <v>0.60329965447428457</v>
       </c>
-      <c r="AA16" s="89">
+      <c r="AA16" s="36">
         <v>0.60189818837568587</v>
       </c>
-      <c r="AB16" s="90">
+      <c r="AB16" s="67">
         <v>0.57189579053299366</v>
       </c>
-      <c r="AC16" s="116">
+      <c r="AC16" s="82">
         <v>0.5231324784982132</v>
       </c>
-      <c r="AD16" s="90">
+      <c r="AD16" s="67">
         <v>0.48240404080713623</v>
       </c>
-      <c r="AE16" s="116">
+      <c r="AE16" s="82">
         <v>0.57492600966902196</v>
       </c>
-      <c r="AF16" s="90">
+      <c r="AF16" s="67">
         <v>0.61374838783293217</v>
       </c>
-      <c r="AG16" s="90">
+      <c r="AG16" s="67">
         <v>0.55246446783998648</v>
       </c>
-      <c r="AH16" s="106"/>
-      <c r="AI16" s="119"/>
+      <c r="AH16" s="77"/>
     </row>
-    <row r="17" spans="1:34" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="25" t="s">
+    <row r="17" spans="1:34" s="6" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A17" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="44" t="s">
+      <c r="C17" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="44" t="s">
+      <c r="D17" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="E17" s="44" t="s">
+      <c r="E17" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="F17" s="44" t="s">
+      <c r="F17" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="G17" s="44" t="s">
+      <c r="G17" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="H17" s="44" t="s">
+      <c r="H17" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="I17" s="44" t="s">
+      <c r="I17" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="J17" s="44" t="s">
+      <c r="J17" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="K17" s="44" t="s">
+      <c r="K17" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="L17" s="44" t="s">
+      <c r="L17" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="M17" s="44" t="s">
+      <c r="M17" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="N17" s="44" t="s">
+      <c r="N17" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="O17" s="44" t="s">
+      <c r="O17" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="P17" s="44" t="s">
+      <c r="P17" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="Q17" s="44" t="s">
+      <c r="Q17" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="R17" s="45">
+      <c r="R17" s="36">
         <v>0.52895445347646386</v>
       </c>
-      <c r="S17" s="45">
+      <c r="S17" s="36">
         <v>0.48731908052330725</v>
       </c>
-      <c r="T17" s="45">
+      <c r="T17" s="36">
         <v>0.42268067311586038</v>
       </c>
-      <c r="U17" s="45">
+      <c r="U17" s="36">
         <v>0.38469348333268377</v>
       </c>
-      <c r="V17" s="117">
+      <c r="V17" s="67">
         <v>0.30634817918157858</v>
       </c>
-      <c r="W17" s="118">
+      <c r="W17" s="82">
         <v>0.26803695197338939</v>
       </c>
-      <c r="X17" s="45">
+      <c r="X17" s="36">
         <v>0.22292714088430082</v>
       </c>
-      <c r="Y17" s="45">
+      <c r="Y17" s="36">
         <v>0.25857737216412907</v>
       </c>
-      <c r="Z17" s="45">
+      <c r="Z17" s="36">
         <v>0.20450009851176162</v>
       </c>
-      <c r="AA17" s="89">
+      <c r="AA17" s="36">
         <v>0.19698237304633395</v>
       </c>
-      <c r="AB17" s="90">
+      <c r="AB17" s="67">
         <v>0.17837112404478017</v>
       </c>
-      <c r="AC17" s="90">
+      <c r="AC17" s="67">
         <v>0.18360583907293573</v>
       </c>
-      <c r="AD17" s="90">
+      <c r="AD17" s="67">
         <v>0.14263240410478875</v>
       </c>
-      <c r="AE17" s="116">
+      <c r="AE17" s="82">
         <v>0.12430902094791435</v>
       </c>
-      <c r="AF17" s="90">
+      <c r="AF17" s="67">
         <v>0.11623100182350556</v>
       </c>
-      <c r="AG17" s="90">
+      <c r="AG17" s="67">
         <v>0.11844013785928365</v>
       </c>
-      <c r="AH17" s="106"/>
+      <c r="AH17" s="77"/>
     </row>
-    <row r="18" spans="1:34" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="25" t="s">
+    <row r="18" spans="1:34" s="6" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A18" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="44" t="s">
+      <c r="C18" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="44" t="s">
+      <c r="D18" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="E18" s="44" t="s">
+      <c r="E18" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="F18" s="44" t="s">
+      <c r="F18" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="G18" s="44" t="s">
+      <c r="G18" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="H18" s="44" t="s">
+      <c r="H18" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="I18" s="44" t="s">
+      <c r="I18" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="J18" s="44" t="s">
+      <c r="J18" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="K18" s="44" t="s">
+      <c r="K18" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="L18" s="44" t="s">
+      <c r="L18" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="M18" s="44" t="s">
+      <c r="M18" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="N18" s="44" t="s">
+      <c r="N18" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="O18" s="44" t="s">
+      <c r="O18" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="P18" s="44" t="s">
+      <c r="P18" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="Q18" s="44" t="s">
+      <c r="Q18" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="R18" s="45">
+      <c r="R18" s="36">
         <v>2.4638926200783335</v>
       </c>
-      <c r="S18" s="45">
+      <c r="S18" s="36">
         <v>2.3142587638490837</v>
       </c>
-      <c r="T18" s="45">
+      <c r="T18" s="36">
         <v>2.2761685267189717</v>
       </c>
-      <c r="U18" s="45">
+      <c r="U18" s="36">
         <v>2.1885187546700693</v>
       </c>
-      <c r="V18" s="117">
+      <c r="V18" s="67">
         <v>2.0645708465518862</v>
       </c>
-      <c r="W18" s="118">
+      <c r="W18" s="82">
         <v>2.0187451825468585</v>
       </c>
-      <c r="X18" s="45">
+      <c r="X18" s="36">
         <v>2.0089655341119705</v>
       </c>
-      <c r="Y18" s="45">
+      <c r="Y18" s="36">
         <v>2.0213360047593323</v>
       </c>
-      <c r="Z18" s="45">
+      <c r="Z18" s="36">
         <v>1.9245649689604016</v>
       </c>
-      <c r="AA18" s="89">
+      <c r="AA18" s="36">
         <v>1.9097001725306224</v>
       </c>
-      <c r="AB18" s="90">
+      <c r="AB18" s="67">
         <v>1.8322734623398582</v>
       </c>
-      <c r="AC18" s="90">
+      <c r="AC18" s="67">
         <v>1.9265066333515897</v>
       </c>
-      <c r="AD18" s="90">
+      <c r="AD18" s="67">
         <v>1.7596331998387251</v>
       </c>
-      <c r="AE18" s="116">
+      <c r="AE18" s="82">
         <v>1.6879457332143279</v>
       </c>
-      <c r="AF18" s="90">
+      <c r="AF18" s="67">
         <v>1.6336482239814123</v>
       </c>
-      <c r="AG18" s="90">
+      <c r="AG18" s="67">
         <v>1.5455567833037789</v>
       </c>
-      <c r="AH18" s="106"/>
+      <c r="AH18" s="77"/>
     </row>
-    <row r="19" spans="1:34" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="25" t="s">
+    <row r="19" spans="1:34" s="6" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A19" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="26" t="s">
+      <c r="B19" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="44" t="s">
+      <c r="C19" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="44" t="s">
+      <c r="D19" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="E19" s="44" t="s">
+      <c r="E19" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="F19" s="44" t="s">
+      <c r="F19" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="G19" s="44" t="s">
+      <c r="G19" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="H19" s="44" t="s">
+      <c r="H19" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="I19" s="44" t="s">
+      <c r="I19" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="J19" s="44" t="s">
+      <c r="J19" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="K19" s="44" t="s">
+      <c r="K19" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="L19" s="44" t="s">
+      <c r="L19" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="M19" s="44" t="s">
+      <c r="M19" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="N19" s="44" t="s">
+      <c r="N19" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="O19" s="44" t="s">
+      <c r="O19" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="P19" s="44" t="s">
+      <c r="P19" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="Q19" s="44" t="s">
+      <c r="Q19" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="R19" s="45">
+      <c r="R19" s="36">
         <v>8.6813781054853809</v>
       </c>
-      <c r="S19" s="45">
+      <c r="S19" s="36">
         <v>8.6163364046977442</v>
       </c>
-      <c r="T19" s="45">
+      <c r="T19" s="36">
         <v>9.2233653693365145</v>
       </c>
-      <c r="U19" s="45">
+      <c r="U19" s="36">
         <v>8.9764241006204788</v>
       </c>
-      <c r="V19" s="117">
+      <c r="V19" s="67">
         <v>8.6976664418924869</v>
       </c>
-      <c r="W19" s="118">
+      <c r="W19" s="82">
         <v>8.6852006818773688</v>
       </c>
-      <c r="X19" s="45">
+      <c r="X19" s="36">
         <v>7.4537636331217252</v>
       </c>
-      <c r="Y19" s="45">
+      <c r="Y19" s="36">
         <v>8.121109374039305</v>
       </c>
-      <c r="Z19" s="45">
+      <c r="Z19" s="36">
         <v>8.1966132146003101</v>
       </c>
-      <c r="AA19" s="89">
+      <c r="AA19" s="36">
         <v>8.1773574569983154</v>
       </c>
-      <c r="AB19" s="90">
+      <c r="AB19" s="67">
         <v>7.4784883307649288</v>
       </c>
-      <c r="AC19" s="90">
+      <c r="AC19" s="67">
         <v>6.7985890930245541</v>
       </c>
-      <c r="AD19" s="90">
+      <c r="AD19" s="67">
         <v>6.651471317382331</v>
       </c>
-      <c r="AE19" s="116">
+      <c r="AE19" s="82">
         <v>7.3543393701811706</v>
       </c>
-      <c r="AF19" s="90">
+      <c r="AF19" s="67">
         <v>6.4994740104142368</v>
       </c>
-      <c r="AG19" s="90">
+      <c r="AG19" s="67">
         <v>5.6786467087978965</v>
       </c>
-      <c r="AH19" s="106"/>
+      <c r="AH19" s="77"/>
     </row>
-    <row r="20" spans="1:34" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:34" s="6" customFormat="1" ht="12.75" customHeight="1">
       <c r="A20" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="44" t="s">
+      <c r="C20" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="44" t="s">
+      <c r="D20" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="E20" s="34">
+      <c r="E20" s="25">
         <v>2180.0680000000002</v>
       </c>
-      <c r="F20" s="34">
+      <c r="F20" s="25">
         <v>2629.0149999999999</v>
       </c>
-      <c r="G20" s="34">
+      <c r="G20" s="25">
         <v>2515.0230000000001</v>
       </c>
-      <c r="H20" s="34">
+      <c r="H20" s="25">
         <v>1986.2809999999999</v>
       </c>
-      <c r="I20" s="34">
+      <c r="I20" s="25">
         <v>2220.13</v>
       </c>
-      <c r="J20" s="34">
+      <c r="J20" s="25">
         <v>1286.9280000000001</v>
       </c>
-      <c r="K20" s="34">
+      <c r="K20" s="25">
         <v>1284.5129999999999</v>
       </c>
-      <c r="L20" s="34">
+      <c r="L20" s="25">
         <v>2281.58</v>
       </c>
-      <c r="M20" s="34">
+      <c r="M20" s="25">
         <v>4150.6930000000002</v>
       </c>
-      <c r="N20" s="34">
+      <c r="N20" s="25">
         <v>2839.616</v>
       </c>
-      <c r="O20" s="34">
+      <c r="O20" s="25">
         <v>2520.002</v>
       </c>
-      <c r="P20" s="34">
+      <c r="P20" s="25">
         <v>2094.8049999999998</v>
       </c>
-      <c r="Q20" s="34">
+      <c r="Q20" s="25">
         <v>1362.4280000000001</v>
       </c>
-      <c r="R20" s="34">
+      <c r="R20" s="25">
         <v>2390.5949999999998</v>
       </c>
-      <c r="S20" s="35">
+      <c r="S20" s="27">
         <v>3289.2060000000001</v>
       </c>
-      <c r="T20" s="35">
+      <c r="T20" s="27">
         <v>3122.8240000000001</v>
       </c>
-      <c r="U20" s="35">
+      <c r="U20" s="27">
         <v>1871.9549999999999</v>
       </c>
-      <c r="V20" s="83">
+      <c r="V20" s="27">
         <v>3027.2809999999999</v>
       </c>
-      <c r="W20" s="83">
+      <c r="W20" s="27">
         <v>2539.9110000000001</v>
       </c>
-      <c r="X20" s="83">
+      <c r="X20" s="27">
         <v>3119.8679999999999</v>
       </c>
-      <c r="Y20" s="83">
+      <c r="Y20" s="27">
         <v>6203.7209999999995</v>
       </c>
-      <c r="Z20" s="83">
+      <c r="Z20" s="27">
         <v>2231.8440000000001</v>
       </c>
-      <c r="AA20" s="46">
+      <c r="AA20" s="28">
         <v>1903.047</v>
       </c>
-      <c r="AB20" s="46">
+      <c r="AB20" s="28">
         <v>1794.4290000000001</v>
       </c>
-      <c r="AC20" s="46">
+      <c r="AC20" s="28">
         <v>2672.5970000000002</v>
       </c>
-      <c r="AD20" s="56">
+      <c r="AD20" s="45">
         <v>2741.4749999999999</v>
       </c>
-      <c r="AE20" s="56">
+      <c r="AE20" s="45">
         <v>2747.2669999999998</v>
       </c>
-      <c r="AF20" s="34">
+      <c r="AF20" s="25">
         <v>3442.5279999999998</v>
       </c>
-      <c r="AG20" s="56">
+      <c r="AG20" s="45">
         <v>3483.5909999999999</v>
       </c>
-      <c r="AH20" s="56"/>
+      <c r="AH20" s="45"/>
     </row>
-    <row r="21" spans="1:34" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="47" t="s">
+    <row r="21" spans="1:34" s="6" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A21" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="26"/>
-      <c r="C21" s="48"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="49"/>
-      <c r="F21" s="49"/>
-      <c r="G21" s="49"/>
-      <c r="H21" s="49"/>
-      <c r="I21" s="50"/>
-      <c r="J21" s="50"/>
-      <c r="K21" s="50"/>
-      <c r="L21" s="50"/>
-      <c r="M21" s="50"/>
-      <c r="N21" s="50"/>
-      <c r="O21" s="23"/>
-      <c r="P21" s="23"/>
-      <c r="Q21" s="23"/>
-      <c r="R21" s="23"/>
-      <c r="S21" s="23"/>
-      <c r="T21" s="23"/>
-      <c r="U21" s="23"/>
-      <c r="V21" s="23"/>
-      <c r="W21" s="23"/>
-      <c r="X21" s="23"/>
-      <c r="Y21" s="23"/>
-      <c r="Z21" s="23"/>
-      <c r="AA21" s="24"/>
-      <c r="AB21" s="24"/>
-      <c r="AC21" s="24"/>
-      <c r="AD21" s="24"/>
-      <c r="AE21" s="24"/>
-      <c r="AF21" s="23"/>
-      <c r="AG21" s="23"/>
-      <c r="AH21" s="7"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="38"/>
+      <c r="K21" s="38"/>
+      <c r="L21" s="38"/>
+      <c r="M21" s="38"/>
+      <c r="N21" s="38"/>
+      <c r="O21" s="16"/>
+      <c r="P21" s="16"/>
+      <c r="Q21" s="16"/>
+      <c r="R21" s="16"/>
+      <c r="S21" s="16"/>
+      <c r="T21" s="16"/>
+      <c r="U21" s="16"/>
+      <c r="V21" s="16"/>
+      <c r="W21" s="16"/>
+      <c r="X21" s="16"/>
+      <c r="Y21" s="16"/>
+      <c r="Z21" s="16"/>
+      <c r="AA21" s="18"/>
+      <c r="AB21" s="18"/>
+      <c r="AC21" s="18"/>
+      <c r="AD21" s="18"/>
+      <c r="AE21" s="18"/>
+      <c r="AF21" s="16"/>
+      <c r="AG21" s="16"/>
     </row>
-    <row r="22" spans="1:34" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="25" t="s">
+    <row r="22" spans="1:34" s="6" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A22" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="B22" s="26" t="s">
+      <c r="B22" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C22" s="27">
+      <c r="C22" s="21">
         <v>1140759</v>
       </c>
-      <c r="D22" s="27">
+      <c r="D22" s="21">
         <v>1141910</v>
       </c>
-      <c r="E22" s="28">
+      <c r="E22" s="22">
         <v>1141888</v>
       </c>
-      <c r="F22" s="28">
+      <c r="F22" s="22">
         <v>1140427</v>
       </c>
-      <c r="G22" s="28">
+      <c r="G22" s="22">
         <v>1139068</v>
       </c>
-      <c r="H22" s="28">
+      <c r="H22" s="22">
         <v>1138464</v>
       </c>
-      <c r="I22" s="29">
+      <c r="I22" s="21">
         <v>1137589</v>
       </c>
-      <c r="J22" s="29">
+      <c r="J22" s="21">
         <v>1136689</v>
       </c>
-      <c r="K22" s="29">
+      <c r="K22" s="21">
         <v>1126962</v>
       </c>
-      <c r="L22" s="29">
+      <c r="L22" s="21">
         <v>1122759</v>
       </c>
-      <c r="M22" s="29">
+      <c r="M22" s="21">
         <v>1121669</v>
       </c>
-      <c r="N22" s="29">
+      <c r="N22" s="21">
         <v>1122391</v>
       </c>
-      <c r="O22" s="29">
+      <c r="O22" s="21">
         <v>1130282</v>
       </c>
-      <c r="P22" s="29">
+      <c r="P22" s="21">
         <v>1130990</v>
       </c>
-      <c r="Q22" s="29">
+      <c r="Q22" s="21">
         <v>1135421</v>
       </c>
-      <c r="R22" s="29">
+      <c r="R22" s="21">
         <v>1143615</v>
       </c>
-      <c r="S22" s="29">
+      <c r="S22" s="21">
         <v>1150009</v>
       </c>
-      <c r="T22" s="29">
+      <c r="T22" s="21">
         <v>1152765</v>
       </c>
-      <c r="U22" s="97">
+      <c r="U22" s="70">
         <v>1164633</v>
       </c>
-      <c r="V22" s="51">
+      <c r="V22" s="40">
         <v>1167142</v>
       </c>
-      <c r="W22" s="51">
+      <c r="W22" s="40">
         <v>1168577</v>
       </c>
-      <c r="X22" s="51">
+      <c r="X22" s="40">
         <v>1170678</v>
       </c>
-      <c r="Y22" s="51">
+      <c r="Y22" s="40">
         <v>1173563</v>
       </c>
-      <c r="Z22" s="51">
+      <c r="Z22" s="40">
         <v>1176972</v>
       </c>
-      <c r="AA22" s="52">
+      <c r="AA22" s="41">
         <v>1180477</v>
       </c>
-      <c r="AB22" s="52">
+      <c r="AB22" s="41">
         <v>1184729</v>
       </c>
-      <c r="AC22" s="52">
+      <c r="AC22" s="41">
         <v>1189530</v>
       </c>
-      <c r="AD22" s="94">
+      <c r="AD22" s="41">
         <v>1193984</v>
       </c>
-      <c r="AE22" s="100">
+      <c r="AE22" s="72">
         <v>1182488</v>
       </c>
-      <c r="AF22" s="51">
+      <c r="AF22" s="40">
         <v>1209381</v>
       </c>
-      <c r="AG22" s="51">
+      <c r="AG22" s="40">
         <v>1223124</v>
       </c>
-      <c r="AH22" s="105">
+      <c r="AH22" s="76">
         <v>1225888</v>
       </c>
     </row>
-    <row r="23" spans="1:34" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="31" t="s">
+    <row r="23" spans="1:34" s="6" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A23" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="26"/>
-      <c r="C23" s="27">
+      <c r="B23" s="20"/>
+      <c r="C23" s="21">
         <v>589378</v>
       </c>
-      <c r="D23" s="27">
+      <c r="D23" s="21">
         <v>589688</v>
       </c>
-      <c r="E23" s="28">
+      <c r="E23" s="22">
         <v>589545</v>
       </c>
-      <c r="F23" s="28">
+      <c r="F23" s="22">
         <v>588467</v>
       </c>
-      <c r="G23" s="28">
+      <c r="G23" s="22">
         <v>587568</v>
       </c>
-      <c r="H23" s="28">
+      <c r="H23" s="22">
         <v>587191</v>
       </c>
-      <c r="I23" s="29">
+      <c r="I23" s="21">
         <v>586480</v>
       </c>
-      <c r="J23" s="29">
+      <c r="J23" s="21">
         <v>585690</v>
       </c>
-      <c r="K23" s="29">
+      <c r="K23" s="21">
         <v>580543</v>
       </c>
-      <c r="L23" s="29">
+      <c r="L23" s="21">
         <v>578774</v>
       </c>
-      <c r="M23" s="29">
+      <c r="M23" s="21">
         <v>577933</v>
       </c>
-      <c r="N23" s="29">
+      <c r="N23" s="21">
         <v>578255</v>
       </c>
-      <c r="O23" s="29">
+      <c r="O23" s="21">
         <v>581762</v>
       </c>
-      <c r="P23" s="29">
+      <c r="P23" s="21">
         <v>581777</v>
       </c>
-      <c r="Q23" s="29">
+      <c r="Q23" s="21">
         <v>583130</v>
       </c>
-      <c r="R23" s="29">
+      <c r="R23" s="21">
         <v>586457</v>
       </c>
-      <c r="S23" s="29">
+      <c r="S23" s="21">
         <v>588847</v>
       </c>
-      <c r="T23" s="29">
+      <c r="T23" s="21">
         <v>590324</v>
       </c>
-      <c r="U23" s="98">
+      <c r="U23" s="70">
         <v>594770</v>
       </c>
-      <c r="V23" s="51">
+      <c r="V23" s="40">
         <v>595903</v>
       </c>
-      <c r="W23" s="51">
+      <c r="W23" s="40">
         <v>596713</v>
       </c>
-      <c r="X23" s="51">
+      <c r="X23" s="40">
         <v>597786</v>
       </c>
-      <c r="Y23" s="51">
+      <c r="Y23" s="40">
         <v>598848</v>
       </c>
-      <c r="Z23" s="51">
+      <c r="Z23" s="40">
         <v>600318</v>
       </c>
-      <c r="AA23" s="52">
+      <c r="AA23" s="41">
         <v>601755</v>
       </c>
-      <c r="AB23" s="52">
+      <c r="AB23" s="41">
         <v>603762</v>
       </c>
-      <c r="AC23" s="52">
+      <c r="AC23" s="41">
         <v>605744</v>
       </c>
-      <c r="AD23" s="94">
+      <c r="AD23" s="41">
         <v>607471</v>
       </c>
-      <c r="AE23" s="100">
+      <c r="AE23" s="72">
         <v>601036</v>
       </c>
-      <c r="AF23" s="51">
+      <c r="AF23" s="40">
         <v>616587</v>
       </c>
-      <c r="AG23" s="51">
+      <c r="AG23" s="40">
         <v>624212</v>
       </c>
-      <c r="AH23" s="105">
+      <c r="AH23" s="76">
         <v>624962</v>
       </c>
     </row>
-    <row r="24" spans="1:34" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="53" t="s">
+    <row r="24" spans="1:34" s="6" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A24" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="B24" s="26" t="s">
+      <c r="B24" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C24" s="27">
+      <c r="C24" s="21">
         <v>1141313</v>
       </c>
-      <c r="D24" s="27">
+      <c r="D24" s="21">
         <v>1141953</v>
       </c>
-      <c r="E24" s="28">
+      <c r="E24" s="22">
         <v>1141172</v>
       </c>
-      <c r="F24" s="28">
+      <c r="F24" s="22">
         <v>1139795</v>
       </c>
-      <c r="G24" s="28">
+      <c r="G24" s="22">
         <v>1138725</v>
       </c>
-      <c r="H24" s="28">
+      <c r="H24" s="22">
         <v>1138174</v>
       </c>
-      <c r="I24" s="29">
+      <c r="I24" s="21">
         <v>1137289</v>
       </c>
-      <c r="J24" s="29">
+      <c r="J24" s="21">
         <v>1127987</v>
       </c>
-      <c r="K24" s="29">
+      <c r="K24" s="21">
         <v>1124493</v>
       </c>
-      <c r="L24" s="29">
+      <c r="L24" s="21">
         <v>1121792</v>
       </c>
-      <c r="M24" s="29">
+      <c r="M24" s="21">
         <v>1122570</v>
       </c>
-      <c r="N24" s="29">
+      <c r="N24" s="21">
         <v>1123201</v>
       </c>
-      <c r="O24" s="29">
+      <c r="O24" s="21">
         <v>1130358</v>
       </c>
-      <c r="P24" s="29">
+      <c r="P24" s="21">
         <v>1132563</v>
       </c>
-      <c r="Q24" s="29">
+      <c r="Q24" s="21">
         <v>1140534</v>
       </c>
-      <c r="R24" s="29">
+      <c r="R24" s="21">
         <v>1147146</v>
       </c>
-      <c r="S24" s="29">
+      <c r="S24" s="21">
         <v>1151708</v>
       </c>
-      <c r="T24" s="29">
+      <c r="T24" s="21">
         <v>1163627</v>
       </c>
-      <c r="U24" s="97">
+      <c r="U24" s="70">
         <v>1166313</v>
       </c>
-      <c r="V24" s="51">
+      <c r="V24" s="40">
         <v>1168650</v>
       </c>
-      <c r="W24" s="51">
+      <c r="W24" s="40">
         <v>1170078</v>
       </c>
-      <c r="X24" s="51">
+      <c r="X24" s="40">
         <v>1172853</v>
       </c>
-      <c r="Y24" s="51">
+      <c r="Y24" s="40">
         <v>1175025</v>
       </c>
-      <c r="Z24" s="51">
+      <c r="Z24" s="40">
         <v>1178812</v>
       </c>
-      <c r="AA24" s="52">
+      <c r="AA24" s="41">
         <v>1183207</v>
       </c>
-      <c r="AB24" s="52">
+      <c r="AB24" s="41">
         <v>1187667</v>
       </c>
-      <c r="AC24" s="52">
+      <c r="AC24" s="41">
         <v>1191989</v>
       </c>
-      <c r="AD24" s="94">
+      <c r="AD24" s="41">
         <v>1195327</v>
       </c>
-      <c r="AE24" s="100">
+      <c r="AE24" s="72">
         <v>1184568</v>
       </c>
-      <c r="AF24" s="51">
+      <c r="AF24" s="40">
         <v>1217200</v>
       </c>
-      <c r="AG24" s="51">
+      <c r="AG24" s="40">
         <v>1226749</v>
       </c>
-      <c r="AH24" s="105">
+      <c r="AH24" s="76">
         <v>1229343</v>
       </c>
     </row>
-    <row r="25" spans="1:34" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="31" t="s">
+    <row r="25" spans="1:34" s="6" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A25" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="26"/>
-      <c r="C25" s="27">
+      <c r="B25" s="20"/>
+      <c r="C25" s="21">
         <v>593228</v>
       </c>
-      <c r="D25" s="27">
+      <c r="D25" s="21">
         <v>589569</v>
       </c>
-      <c r="E25" s="28">
+      <c r="E25" s="22">
         <v>589044</v>
       </c>
-      <c r="F25" s="28">
+      <c r="F25" s="22">
         <v>588115</v>
       </c>
-      <c r="G25" s="28">
+      <c r="G25" s="22">
         <v>587382</v>
       </c>
-      <c r="H25" s="28">
+      <c r="H25" s="22">
         <v>586840</v>
       </c>
-      <c r="I25" s="29">
+      <c r="I25" s="21">
         <v>586093</v>
       </c>
-      <c r="J25" s="29">
+      <c r="J25" s="21">
         <v>581136</v>
       </c>
-      <c r="K25" s="29">
+      <c r="K25" s="21">
         <v>579531</v>
       </c>
-      <c r="L25" s="29">
+      <c r="L25" s="21">
         <v>578365</v>
       </c>
-      <c r="M25" s="29">
+      <c r="M25" s="21">
         <v>578145</v>
       </c>
-      <c r="N25" s="29">
+      <c r="N25" s="21">
         <v>578323</v>
       </c>
-      <c r="O25" s="29">
+      <c r="O25" s="21">
         <v>581559</v>
       </c>
-      <c r="P25" s="29">
+      <c r="P25" s="21">
         <v>582161</v>
       </c>
-      <c r="Q25" s="29">
+      <c r="Q25" s="21">
         <v>585196</v>
       </c>
-      <c r="R25" s="29">
+      <c r="R25" s="21">
         <v>587935</v>
       </c>
-      <c r="S25" s="29">
+      <c r="S25" s="21">
         <v>589691</v>
       </c>
-      <c r="T25" s="29">
+      <c r="T25" s="21">
         <v>594360</v>
       </c>
-      <c r="U25" s="98">
+      <c r="U25" s="70">
         <v>595518</v>
       </c>
-      <c r="V25" s="51">
+      <c r="V25" s="40">
         <v>596668</v>
       </c>
-      <c r="W25" s="51">
+      <c r="W25" s="40">
         <v>597545</v>
       </c>
-      <c r="X25" s="51">
+      <c r="X25" s="40">
         <v>598675</v>
       </c>
-      <c r="Y25" s="51">
+      <c r="Y25" s="40">
         <v>599489</v>
       </c>
-      <c r="Z25" s="51">
+      <c r="Z25" s="40">
         <v>601089</v>
       </c>
-      <c r="AA25" s="52">
+      <c r="AA25" s="41">
         <v>603055</v>
       </c>
-      <c r="AB25" s="52">
+      <c r="AB25" s="41">
         <v>605151</v>
       </c>
-      <c r="AC25" s="52">
+      <c r="AC25" s="41">
         <v>606735</v>
       </c>
-      <c r="AD25" s="94">
+      <c r="AD25" s="41">
         <v>607865</v>
       </c>
-      <c r="AE25" s="100">
+      <c r="AE25" s="72">
         <v>601895</v>
       </c>
-      <c r="AF25" s="51">
+      <c r="AF25" s="40">
         <v>620801</v>
       </c>
-      <c r="AG25" s="51">
+      <c r="AG25" s="40">
         <v>626208</v>
       </c>
-      <c r="AH25" s="105">
+      <c r="AH25" s="76">
         <v>626804</v>
       </c>
     </row>
-    <row r="26" spans="1:34" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="120" t="s">
+    <row r="26" spans="1:34" s="6" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A26" s="83" t="s">
         <v>72</v>
       </c>
-      <c r="B26" s="26"/>
-      <c r="C26" s="54" t="s">
+      <c r="B26" s="20"/>
+      <c r="C26" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="D26" s="75" t="s">
+      <c r="D26" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="E26" s="54" t="s">
+      <c r="E26" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="F26" s="28">
+      <c r="F26" s="22">
         <v>14723</v>
       </c>
-      <c r="G26" s="28">
+      <c r="G26" s="22">
         <v>17287</v>
       </c>
-      <c r="H26" s="28">
+      <c r="H26" s="22">
         <v>18764</v>
       </c>
-      <c r="I26" s="29">
+      <c r="I26" s="21">
         <v>18945</v>
       </c>
-      <c r="J26" s="29">
+      <c r="J26" s="21">
         <v>16813</v>
       </c>
-      <c r="K26" s="29">
+      <c r="K26" s="21">
         <v>17756</v>
       </c>
-      <c r="L26" s="29">
+      <c r="L26" s="21">
         <v>20039</v>
       </c>
-      <c r="M26" s="29">
+      <c r="M26" s="21">
         <v>22668</v>
       </c>
-      <c r="N26" s="29">
+      <c r="N26" s="21">
         <v>23913</v>
       </c>
-      <c r="O26" s="29">
+      <c r="O26" s="21">
         <v>24234</v>
       </c>
-      <c r="P26" s="29">
+      <c r="P26" s="21">
         <v>27983</v>
       </c>
-      <c r="Q26" s="29">
+      <c r="Q26" s="21">
         <v>32606</v>
       </c>
-      <c r="R26" s="29">
+      <c r="R26" s="21">
         <v>35619</v>
       </c>
-      <c r="S26" s="29">
+      <c r="S26" s="21">
         <v>36907</v>
       </c>
-      <c r="T26" s="122">
+      <c r="T26" s="85">
         <v>35953</v>
       </c>
-      <c r="U26" s="121">
+      <c r="U26" s="84">
         <v>36386</v>
       </c>
-      <c r="V26" s="29">
+      <c r="V26" s="21">
         <v>36690</v>
       </c>
-      <c r="W26" s="29">
+      <c r="W26" s="21">
         <v>37804</v>
       </c>
-      <c r="X26" s="29">
+      <c r="X26" s="21">
         <v>38588</v>
       </c>
-      <c r="Y26" s="29">
+      <c r="Y26" s="21">
         <v>40366</v>
       </c>
-      <c r="Z26" s="29">
+      <c r="Z26" s="21">
         <v>43447</v>
       </c>
-      <c r="AA26" s="30">
+      <c r="AA26" s="23">
         <v>46574</v>
       </c>
-      <c r="AB26" s="30">
+      <c r="AB26" s="23">
         <v>50351</v>
       </c>
-      <c r="AC26" s="30">
+      <c r="AC26" s="23">
         <v>52741</v>
       </c>
-      <c r="AD26" s="91">
+      <c r="AD26" s="23">
         <v>58549</v>
       </c>
-      <c r="AE26" s="30">
+      <c r="AE26" s="23">
         <v>63841</v>
       </c>
-      <c r="AF26" s="29">
+      <c r="AF26" s="21">
         <v>110879</v>
       </c>
-      <c r="AG26" s="29">
+      <c r="AG26" s="21">
         <v>106338</v>
       </c>
-      <c r="AH26" s="105">
+      <c r="AH26" s="76">
         <v>110034</v>
       </c>
     </row>
-    <row r="27" spans="1:34" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="25" t="s">
+    <row r="27" spans="1:34" s="6" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A27" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="26"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="29"/>
-      <c r="J27" s="29"/>
-      <c r="K27" s="29"/>
-      <c r="L27" s="29"/>
-      <c r="M27" s="29"/>
-      <c r="N27" s="29"/>
-      <c r="O27" s="29"/>
-      <c r="P27" s="29"/>
-      <c r="Q27" s="29"/>
-      <c r="R27" s="29"/>
-      <c r="S27" s="29"/>
-      <c r="T27" s="29"/>
-      <c r="U27" s="29"/>
-      <c r="V27" s="29"/>
-      <c r="W27" s="29"/>
-      <c r="X27" s="29"/>
-      <c r="Y27" s="29"/>
-      <c r="Z27" s="29"/>
-      <c r="AA27" s="30"/>
-      <c r="AB27" s="30"/>
-      <c r="AC27" s="30"/>
-      <c r="AD27" s="91"/>
-      <c r="AE27" s="30"/>
-      <c r="AF27" s="29"/>
-      <c r="AG27" s="24"/>
-      <c r="AH27" s="24"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="21"/>
+      <c r="L27" s="21"/>
+      <c r="M27" s="21"/>
+      <c r="N27" s="21"/>
+      <c r="O27" s="21"/>
+      <c r="P27" s="21"/>
+      <c r="Q27" s="21"/>
+      <c r="R27" s="21"/>
+      <c r="S27" s="21"/>
+      <c r="T27" s="21"/>
+      <c r="U27" s="21"/>
+      <c r="V27" s="21"/>
+      <c r="W27" s="21"/>
+      <c r="X27" s="21"/>
+      <c r="Y27" s="21"/>
+      <c r="Z27" s="21"/>
+      <c r="AA27" s="23"/>
+      <c r="AB27" s="23"/>
+      <c r="AC27" s="23"/>
+      <c r="AD27" s="23"/>
+      <c r="AE27" s="23"/>
+      <c r="AF27" s="21"/>
+      <c r="AG27" s="18"/>
+      <c r="AH27" s="18"/>
     </row>
-    <row r="28" spans="1:34" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="79" t="s">
+    <row r="28" spans="1:34" s="6" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A28" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="B28" s="26" t="s">
+      <c r="B28" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C28" s="27">
+      <c r="C28" s="21">
         <v>222930</v>
       </c>
-      <c r="D28" s="27">
+      <c r="D28" s="21">
         <v>216055</v>
       </c>
-      <c r="E28" s="28">
+      <c r="E28" s="22">
         <v>209734</v>
       </c>
-      <c r="F28" s="28">
+      <c r="F28" s="22">
         <v>203663</v>
       </c>
-      <c r="G28" s="28">
+      <c r="G28" s="22">
         <v>197824</v>
       </c>
-      <c r="H28" s="28">
+      <c r="H28" s="22">
         <v>192613</v>
       </c>
-      <c r="I28" s="29">
+      <c r="I28" s="21">
         <v>187024</v>
       </c>
-      <c r="J28" s="29">
+      <c r="J28" s="21">
         <v>181603</v>
       </c>
-      <c r="K28" s="29">
+      <c r="K28" s="21">
         <v>176141</v>
       </c>
-      <c r="L28" s="29">
+      <c r="L28" s="21">
         <v>172313</v>
       </c>
-      <c r="M28" s="29">
+      <c r="M28" s="21">
         <v>168203</v>
       </c>
-      <c r="N28" s="29">
+      <c r="N28" s="21">
         <v>165175</v>
       </c>
-      <c r="O28" s="29">
+      <c r="O28" s="21">
         <v>163135</v>
       </c>
-      <c r="P28" s="29">
+      <c r="P28" s="21">
         <v>160256</v>
       </c>
-      <c r="Q28" s="29">
+      <c r="Q28" s="21">
         <v>159102</v>
       </c>
-      <c r="R28" s="29">
+      <c r="R28" s="21">
         <v>158728</v>
       </c>
-      <c r="S28" s="29">
+      <c r="S28" s="21">
         <v>160012</v>
       </c>
-      <c r="T28" s="29">
+      <c r="T28" s="21">
         <v>162565</v>
       </c>
-      <c r="U28" s="98">
+      <c r="U28" s="70">
         <v>168031</v>
       </c>
-      <c r="V28" s="51">
+      <c r="V28" s="40">
         <v>170460</v>
       </c>
-      <c r="W28" s="51">
+      <c r="W28" s="40">
         <v>172886</v>
       </c>
-      <c r="X28" s="51">
+      <c r="X28" s="40">
         <v>175874</v>
       </c>
-      <c r="Y28" s="51">
+      <c r="Y28" s="40">
         <v>178921</v>
       </c>
-      <c r="Z28" s="51">
+      <c r="Z28" s="40">
         <v>182280</v>
       </c>
-      <c r="AA28" s="52">
+      <c r="AA28" s="41">
         <v>185660</v>
       </c>
-      <c r="AB28" s="52">
+      <c r="AB28" s="41">
         <v>189153</v>
       </c>
-      <c r="AC28" s="52">
+      <c r="AC28" s="41">
         <v>191600</v>
       </c>
-      <c r="AD28" s="94">
+      <c r="AD28" s="41">
         <v>193420</v>
       </c>
-      <c r="AE28" s="100">
+      <c r="AE28" s="72">
         <v>194070</v>
       </c>
-      <c r="AF28" s="51">
+      <c r="AF28" s="40">
         <v>200404</v>
       </c>
-      <c r="AG28" s="52">
+      <c r="AG28" s="41">
         <v>198417</v>
       </c>
-      <c r="AH28" s="52"/>
+      <c r="AH28" s="41"/>
     </row>
-    <row r="29" spans="1:34" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="55" t="s">
+    <row r="29" spans="1:34" s="6" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A29" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="26"/>
-      <c r="C29" s="27">
+      <c r="B29" s="20"/>
+      <c r="C29" s="21">
         <v>108795</v>
       </c>
-      <c r="D29" s="27">
+      <c r="D29" s="21">
         <v>105405</v>
       </c>
-      <c r="E29" s="28">
+      <c r="E29" s="22">
         <v>102392</v>
       </c>
-      <c r="F29" s="28">
+      <c r="F29" s="22">
         <v>99334</v>
       </c>
-      <c r="G29" s="28">
+      <c r="G29" s="22">
         <v>96517</v>
       </c>
-      <c r="H29" s="28">
+      <c r="H29" s="22">
         <v>94016</v>
       </c>
-      <c r="I29" s="29">
+      <c r="I29" s="21">
         <v>91290</v>
       </c>
-      <c r="J29" s="29">
+      <c r="J29" s="21">
         <v>88709</v>
       </c>
-      <c r="K29" s="29">
+      <c r="K29" s="21">
         <v>85888</v>
       </c>
-      <c r="L29" s="29">
+      <c r="L29" s="21">
         <v>84005</v>
       </c>
-      <c r="M29" s="29">
+      <c r="M29" s="21">
         <v>81990</v>
       </c>
-      <c r="N29" s="29">
+      <c r="N29" s="21">
         <v>80421</v>
       </c>
-      <c r="O29" s="29">
+      <c r="O29" s="21">
         <v>79445</v>
       </c>
-      <c r="P29" s="29">
+      <c r="P29" s="21">
         <v>78114</v>
       </c>
-      <c r="Q29" s="29">
+      <c r="Q29" s="21">
         <v>77564</v>
       </c>
-      <c r="R29" s="29">
+      <c r="R29" s="21">
         <v>77346</v>
       </c>
-      <c r="S29" s="29">
+      <c r="S29" s="21">
         <v>77982</v>
       </c>
-      <c r="T29" s="29">
+      <c r="T29" s="21">
         <v>79111</v>
       </c>
-      <c r="U29" s="98">
+      <c r="U29" s="70">
         <v>81833</v>
       </c>
-      <c r="V29" s="51">
+      <c r="V29" s="40">
         <v>83037</v>
       </c>
-      <c r="W29" s="51">
+      <c r="W29" s="40">
         <v>84296</v>
       </c>
-      <c r="X29" s="51">
+      <c r="X29" s="40">
         <v>85774</v>
       </c>
-      <c r="Y29" s="51">
+      <c r="Y29" s="40">
         <v>87336</v>
       </c>
-      <c r="Z29" s="51">
+      <c r="Z29" s="40">
         <v>88947</v>
       </c>
-      <c r="AA29" s="52">
+      <c r="AA29" s="41">
         <v>90627</v>
       </c>
-      <c r="AB29" s="52">
+      <c r="AB29" s="41">
         <v>92418</v>
       </c>
-      <c r="AC29" s="52">
+      <c r="AC29" s="41">
         <v>93685</v>
       </c>
-      <c r="AD29" s="94">
+      <c r="AD29" s="41">
         <v>94442</v>
       </c>
-      <c r="AE29" s="100">
+      <c r="AE29" s="72">
         <v>94823</v>
       </c>
-      <c r="AF29" s="51">
+      <c r="AF29" s="40">
         <v>97839</v>
       </c>
-      <c r="AG29" s="52">
+      <c r="AG29" s="41">
         <v>96837</v>
       </c>
-      <c r="AH29" s="52"/>
+      <c r="AH29" s="41"/>
     </row>
-    <row r="30" spans="1:34" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="31" t="s">
+    <row r="30" spans="1:34" s="6" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A30" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="B30" s="26" t="s">
+      <c r="B30" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C30" s="27">
+      <c r="C30" s="21">
         <v>762926</v>
       </c>
-      <c r="D30" s="27">
+      <c r="D30" s="21">
         <v>769158</v>
       </c>
-      <c r="E30" s="28">
+      <c r="E30" s="22">
         <v>773025</v>
       </c>
-      <c r="F30" s="28">
+      <c r="F30" s="22">
         <v>776369</v>
       </c>
-      <c r="G30" s="28">
+      <c r="G30" s="22">
         <v>779817</v>
       </c>
-      <c r="H30" s="28">
+      <c r="H30" s="22">
         <v>783473</v>
       </c>
-      <c r="I30" s="29">
+      <c r="I30" s="21">
         <v>787712</v>
       </c>
-      <c r="J30" s="29">
+      <c r="J30" s="21">
         <v>791151</v>
       </c>
-      <c r="K30" s="29">
+      <c r="K30" s="21">
         <v>786620</v>
       </c>
-      <c r="L30" s="29">
+      <c r="L30" s="21">
         <v>787444</v>
       </c>
-      <c r="M30" s="29">
+      <c r="M30" s="21">
         <v>791724</v>
       </c>
-      <c r="N30" s="29">
+      <c r="N30" s="21">
         <v>794359</v>
       </c>
-      <c r="O30" s="29">
+      <c r="O30" s="21">
         <v>800187</v>
       </c>
-      <c r="P30" s="29">
+      <c r="P30" s="21">
         <v>802230</v>
       </c>
-      <c r="Q30" s="29">
+      <c r="Q30" s="21">
         <v>808105</v>
       </c>
-      <c r="R30" s="29">
+      <c r="R30" s="21">
         <v>810220</v>
       </c>
-      <c r="S30" s="29">
+      <c r="S30" s="21">
         <v>808981</v>
       </c>
-      <c r="T30" s="29">
+      <c r="T30" s="21">
         <v>805399</v>
       </c>
-      <c r="U30" s="98">
+      <c r="U30" s="70">
         <v>803165</v>
       </c>
-      <c r="V30" s="51">
+      <c r="V30" s="40">
         <v>796449</v>
       </c>
-      <c r="W30" s="51">
+      <c r="W30" s="40">
         <v>789416</v>
       </c>
-      <c r="X30" s="51">
+      <c r="X30" s="40">
         <v>783751</v>
       </c>
-      <c r="Y30" s="51">
+      <c r="Y30" s="40">
         <v>777833</v>
       </c>
-      <c r="Z30" s="51">
+      <c r="Z30" s="40">
         <v>772448</v>
       </c>
-      <c r="AA30" s="52">
+      <c r="AA30" s="41">
         <v>768319</v>
       </c>
-      <c r="AB30" s="52">
+      <c r="AB30" s="41">
         <v>764698</v>
       </c>
-      <c r="AC30" s="52">
+      <c r="AC30" s="41">
         <v>761769</v>
       </c>
-      <c r="AD30" s="94">
+      <c r="AD30" s="41">
         <v>760010</v>
       </c>
-      <c r="AE30" s="100">
+      <c r="AE30" s="72">
         <v>746911</v>
       </c>
-      <c r="AF30" s="51">
+      <c r="AF30" s="40">
         <v>769154</v>
       </c>
-      <c r="AG30" s="52">
+      <c r="AG30" s="41">
         <v>777424</v>
       </c>
-      <c r="AH30" s="52"/>
+      <c r="AH30" s="41"/>
     </row>
-    <row r="31" spans="1:34" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="55" t="s">
+    <row r="31" spans="1:34" s="6" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A31" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="B31" s="26"/>
-      <c r="C31" s="27">
+      <c r="B31" s="20"/>
+      <c r="C31" s="21">
         <v>383361</v>
       </c>
-      <c r="D31" s="27">
+      <c r="D31" s="21">
         <v>385956</v>
       </c>
-      <c r="E31" s="28">
+      <c r="E31" s="22">
         <v>387585</v>
       </c>
-      <c r="F31" s="28">
+      <c r="F31" s="22">
         <v>389003</v>
       </c>
-      <c r="G31" s="28">
+      <c r="G31" s="22">
         <v>390407</v>
       </c>
-      <c r="H31" s="28">
+      <c r="H31" s="22">
         <v>391929</v>
       </c>
-      <c r="I31" s="29">
+      <c r="I31" s="21">
         <v>393736</v>
       </c>
-      <c r="J31" s="29">
+      <c r="J31" s="21">
         <v>395183</v>
       </c>
-      <c r="K31" s="29">
+      <c r="K31" s="21">
         <v>393165</v>
       </c>
-      <c r="L31" s="29">
+      <c r="L31" s="21">
         <v>393825</v>
       </c>
-      <c r="M31" s="29">
+      <c r="M31" s="21">
         <v>395402</v>
       </c>
-      <c r="N31" s="29">
+      <c r="N31" s="21">
         <v>396681</v>
       </c>
-      <c r="O31" s="29">
+      <c r="O31" s="21">
         <v>399227</v>
       </c>
-      <c r="P31" s="29">
+      <c r="P31" s="21">
         <v>399592</v>
       </c>
-      <c r="Q31" s="29">
+      <c r="Q31" s="21">
         <v>401668</v>
       </c>
-      <c r="R31" s="29">
+      <c r="R31" s="21">
         <v>402234</v>
       </c>
-      <c r="S31" s="29">
+      <c r="S31" s="21">
         <v>401098</v>
       </c>
-      <c r="T31" s="29">
+      <c r="T31" s="21">
         <v>399251</v>
       </c>
-      <c r="U31" s="98">
+      <c r="U31" s="70">
         <v>396916</v>
       </c>
-      <c r="V31" s="51">
+      <c r="V31" s="40">
         <v>393232</v>
       </c>
-      <c r="W31" s="51">
+      <c r="W31" s="40">
         <v>389754</v>
       </c>
-      <c r="X31" s="51">
+      <c r="X31" s="40">
         <v>386519</v>
       </c>
-      <c r="Y31" s="51">
+      <c r="Y31" s="40">
         <v>383217</v>
       </c>
-      <c r="Z31" s="51">
+      <c r="Z31" s="40">
         <v>380104</v>
       </c>
-      <c r="AA31" s="52">
+      <c r="AA31" s="41">
         <v>377719</v>
       </c>
-      <c r="AB31" s="52">
+      <c r="AB31" s="41">
         <v>375736</v>
       </c>
-      <c r="AC31" s="52">
+      <c r="AC31" s="41">
         <v>373522</v>
       </c>
-      <c r="AD31" s="94">
+      <c r="AD31" s="41">
         <v>372159</v>
       </c>
-      <c r="AE31" s="100">
+      <c r="AE31" s="72">
         <v>364847</v>
       </c>
-      <c r="AF31" s="51">
+      <c r="AF31" s="40">
         <v>378479</v>
       </c>
-      <c r="AG31" s="52">
+      <c r="AG31" s="41">
         <v>383298</v>
       </c>
-      <c r="AH31" s="52"/>
+      <c r="AH31" s="41"/>
     </row>
-    <row r="32" spans="1:34" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="31" t="s">
+    <row r="32" spans="1:34" s="6" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A32" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="B32" s="26" t="s">
+      <c r="B32" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C32" s="27">
+      <c r="C32" s="21">
         <v>155457</v>
       </c>
-      <c r="D32" s="27">
+      <c r="D32" s="21">
         <v>156740</v>
       </c>
-      <c r="E32" s="28">
+      <c r="E32" s="22">
         <v>158413</v>
       </c>
-      <c r="F32" s="28">
+      <c r="F32" s="22">
         <v>159763</v>
       </c>
-      <c r="G32" s="28">
+      <c r="G32" s="22">
         <v>161084</v>
       </c>
-      <c r="H32" s="28">
+      <c r="H32" s="22">
         <v>162088</v>
       </c>
-      <c r="I32" s="29">
+      <c r="I32" s="21">
         <v>162553</v>
       </c>
-      <c r="J32" s="29">
+      <c r="J32" s="21">
         <v>162832</v>
       </c>
-      <c r="K32" s="29">
+      <c r="K32" s="21">
         <v>161732</v>
       </c>
-      <c r="L32" s="29">
+      <c r="L32" s="21">
         <v>162035</v>
       </c>
-      <c r="M32" s="29">
+      <c r="M32" s="21">
         <v>162643</v>
       </c>
-      <c r="N32" s="29">
+      <c r="N32" s="21">
         <v>163667</v>
       </c>
-      <c r="O32" s="29">
+      <c r="O32" s="21">
         <v>167036</v>
       </c>
-      <c r="P32" s="29">
+      <c r="P32" s="21">
         <v>170077</v>
       </c>
-      <c r="Q32" s="29">
+      <c r="Q32" s="21">
         <v>173327</v>
       </c>
-      <c r="R32" s="29">
+      <c r="R32" s="21">
         <v>178198</v>
       </c>
-      <c r="S32" s="29">
+      <c r="S32" s="21">
         <v>182715</v>
       </c>
-      <c r="T32" s="29">
+      <c r="T32" s="21">
         <v>186690</v>
       </c>
-      <c r="U32" s="98">
+      <c r="U32" s="70">
         <v>195117</v>
       </c>
-      <c r="V32" s="51">
+      <c r="V32" s="40">
         <v>201741</v>
       </c>
-      <c r="W32" s="51">
+      <c r="W32" s="40">
         <v>207776</v>
       </c>
-      <c r="X32" s="51">
+      <c r="X32" s="40">
         <v>213228</v>
       </c>
-      <c r="Y32" s="51">
+      <c r="Y32" s="40">
         <v>218271</v>
       </c>
-      <c r="Z32" s="51">
+      <c r="Z32" s="40">
         <v>224044</v>
       </c>
-      <c r="AA32" s="52">
+      <c r="AA32" s="41">
         <v>229228</v>
       </c>
-      <c r="AB32" s="52">
+      <c r="AB32" s="41">
         <v>233816</v>
       </c>
-      <c r="AC32" s="52">
+      <c r="AC32" s="41">
         <v>238620</v>
       </c>
-      <c r="AD32" s="94">
+      <c r="AD32" s="41">
         <v>241897</v>
       </c>
-      <c r="AE32" s="100">
+      <c r="AE32" s="72">
         <v>243587</v>
       </c>
-      <c r="AF32" s="51">
+      <c r="AF32" s="40">
         <v>247642</v>
       </c>
-      <c r="AG32" s="52">
+      <c r="AG32" s="41">
         <v>250908</v>
       </c>
-      <c r="AH32" s="52"/>
+      <c r="AH32" s="41"/>
     </row>
-    <row r="33" spans="1:35" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="76" t="s">
+    <row r="33" spans="1:34" s="6" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A33" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="B33" s="26"/>
-      <c r="C33" s="27">
+      <c r="B33" s="20"/>
+      <c r="C33" s="21">
         <v>97388</v>
       </c>
-      <c r="D33" s="27">
+      <c r="D33" s="21">
         <v>98208</v>
       </c>
-      <c r="E33" s="28">
+      <c r="E33" s="22">
         <v>99067</v>
       </c>
-      <c r="F33" s="28">
+      <c r="F33" s="22">
         <v>99778</v>
       </c>
-      <c r="G33" s="28">
+      <c r="G33" s="22">
         <v>100458</v>
       </c>
-      <c r="H33" s="28">
+      <c r="H33" s="22">
         <v>100895</v>
       </c>
-      <c r="I33" s="29">
+      <c r="I33" s="21">
         <v>101067</v>
       </c>
-      <c r="J33" s="29">
+      <c r="J33" s="21">
         <v>101218</v>
       </c>
-      <c r="K33" s="29">
+      <c r="K33" s="21">
         <v>100478</v>
       </c>
-      <c r="L33" s="29">
+      <c r="L33" s="21">
         <v>100535</v>
       </c>
-      <c r="M33" s="29">
+      <c r="M33" s="21">
         <v>100753</v>
       </c>
-      <c r="N33" s="29">
+      <c r="N33" s="21">
         <v>101221</v>
       </c>
-      <c r="O33" s="29">
+      <c r="O33" s="21">
         <v>102887</v>
       </c>
-      <c r="P33" s="29">
+      <c r="P33" s="21">
         <v>104455</v>
       </c>
-      <c r="Q33" s="29">
+      <c r="Q33" s="21">
         <v>105964</v>
       </c>
-      <c r="R33" s="29">
+      <c r="R33" s="21">
         <v>108355</v>
       </c>
-      <c r="S33" s="29">
+      <c r="S33" s="21">
         <v>110611</v>
       </c>
-      <c r="T33" s="29">
+      <c r="T33" s="21">
         <v>112665</v>
       </c>
-      <c r="U33" s="98">
+      <c r="U33" s="70">
         <v>116769</v>
       </c>
-      <c r="V33" s="51">
+      <c r="V33" s="40">
         <v>120399</v>
       </c>
-      <c r="W33" s="51">
+      <c r="W33" s="40">
         <v>123495</v>
       </c>
-      <c r="X33" s="51">
+      <c r="X33" s="40">
         <v>126382</v>
       </c>
-      <c r="Y33" s="51">
+      <c r="Y33" s="40">
         <v>128936</v>
       </c>
-      <c r="Z33" s="51">
+      <c r="Z33" s="40">
         <v>132036</v>
       </c>
-      <c r="AA33" s="52">
+      <c r="AA33" s="41">
         <v>134709</v>
       </c>
-      <c r="AB33" s="52">
+      <c r="AB33" s="41">
         <v>136997</v>
       </c>
-      <c r="AC33" s="52">
+      <c r="AC33" s="41">
         <v>139528</v>
       </c>
-      <c r="AD33" s="94">
+      <c r="AD33" s="41">
         <v>141264</v>
       </c>
-      <c r="AE33" s="100">
+      <c r="AE33" s="72">
         <v>142225</v>
       </c>
-      <c r="AF33" s="51">
+      <c r="AF33" s="40">
         <v>144483</v>
       </c>
-      <c r="AG33" s="52">
+      <c r="AG33" s="41">
         <v>146073</v>
       </c>
-      <c r="AH33" s="52"/>
+      <c r="AH33" s="41"/>
     </row>
-    <row r="34" spans="1:35" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="84" t="s">
+    <row r="34" spans="1:34" s="6" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A34" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="B34" s="26" t="s">
+      <c r="B34" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C34" s="35">
+      <c r="C34" s="27">
         <v>37.046995420432182</v>
       </c>
-      <c r="D34" s="35">
+      <c r="D34" s="27">
         <v>37.299999999999997</v>
       </c>
-      <c r="E34" s="35">
+      <c r="E34" s="27">
         <v>37.50397765269728</v>
       </c>
-      <c r="F34" s="35">
+      <c r="F34" s="27">
         <v>37.799999999999997</v>
       </c>
-      <c r="G34" s="35">
+      <c r="G34" s="27">
         <v>38.1</v>
       </c>
-      <c r="H34" s="35">
+      <c r="H34" s="27">
         <v>38.4</v>
       </c>
-      <c r="I34" s="35">
+      <c r="I34" s="27">
         <v>38.700000000000003</v>
       </c>
-      <c r="J34" s="34">
+      <c r="J34" s="25">
         <v>39</v>
       </c>
-      <c r="K34" s="34">
+      <c r="K34" s="25">
         <v>39.242772075948892</v>
       </c>
-      <c r="L34" s="34">
+      <c r="L34" s="25">
         <v>39.512069082325425</v>
       </c>
-      <c r="M34" s="34">
+      <c r="M34" s="25">
         <v>39.761656734101216</v>
       </c>
-      <c r="N34" s="35">
+      <c r="N34" s="27">
         <v>40.0173597601854</v>
       </c>
-      <c r="O34" s="35">
+      <c r="O34" s="27">
         <v>40.25574464019364</v>
       </c>
-      <c r="P34" s="34">
+      <c r="P34" s="25">
         <v>40.478923026798512</v>
       </c>
-      <c r="Q34" s="34">
+      <c r="Q34" s="25">
         <v>40.625663943380907</v>
       </c>
-      <c r="R34" s="34">
+      <c r="R34" s="25">
         <v>40.773035864658901</v>
       </c>
-      <c r="S34" s="34">
+      <c r="S34" s="25">
         <v>40.9</v>
       </c>
-      <c r="T34" s="34">
+      <c r="T34" s="25">
         <v>41.095877206505151</v>
       </c>
-      <c r="U34" s="96">
+      <c r="U34" s="69">
         <v>41.27262621611866</v>
       </c>
-      <c r="V34" s="35">
+      <c r="V34" s="27">
         <v>41.467708039190519</v>
       </c>
-      <c r="W34" s="35">
+      <c r="W34" s="27">
         <v>41.664551423067522</v>
       </c>
-      <c r="X34" s="35">
+      <c r="X34" s="27">
         <v>41.850135950541116</v>
       </c>
-      <c r="Y34" s="35">
+      <c r="Y34" s="27">
         <v>42</v>
       </c>
-      <c r="Z34" s="35">
+      <c r="Z34" s="27">
         <v>42.2</v>
       </c>
-      <c r="AA34" s="36">
+      <c r="AA34" s="28">
         <v>42.3</v>
       </c>
-      <c r="AB34" s="36">
+      <c r="AB34" s="28">
         <v>42.4</v>
       </c>
-      <c r="AC34" s="36">
+      <c r="AC34" s="28">
         <v>42.5</v>
       </c>
-      <c r="AD34" s="46">
+      <c r="AD34" s="28">
         <v>42.59222078979225</v>
       </c>
-      <c r="AE34" s="99">
+      <c r="AE34" s="71">
         <v>42.7</v>
       </c>
-      <c r="AF34" s="35">
+      <c r="AF34" s="27">
         <v>42.497134406800001</v>
       </c>
-      <c r="AG34" s="36">
+      <c r="AG34" s="28">
         <v>42.681788609999998</v>
       </c>
-      <c r="AH34" s="36"/>
+      <c r="AH34" s="28"/>
     </row>
-    <row r="35" spans="1:35" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="25" t="s">
+    <row r="35" spans="1:34" s="6" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A35" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B35" s="26"/>
-      <c r="C35" s="32"/>
-      <c r="D35" s="32"/>
-      <c r="E35" s="32"/>
-      <c r="F35" s="32"/>
-      <c r="G35" s="32"/>
-      <c r="H35" s="32"/>
-      <c r="I35" s="34"/>
-      <c r="J35" s="34"/>
-      <c r="K35" s="34"/>
-      <c r="L35" s="34"/>
-      <c r="M35" s="34"/>
-      <c r="N35" s="34"/>
-      <c r="O35" s="34"/>
-      <c r="P35" s="34"/>
-      <c r="Q35" s="34"/>
-      <c r="R35" s="34"/>
-      <c r="S35" s="34"/>
-      <c r="T35" s="34"/>
-      <c r="U35" s="34"/>
-      <c r="V35" s="34"/>
-      <c r="W35" s="34"/>
-      <c r="X35" s="34"/>
-      <c r="Y35" s="34"/>
-      <c r="Z35" s="34"/>
-      <c r="AA35" s="56"/>
-      <c r="AB35" s="56"/>
-      <c r="AC35" s="56"/>
-      <c r="AD35" s="92"/>
-      <c r="AE35" s="92"/>
-      <c r="AF35" s="58"/>
-      <c r="AG35" s="23"/>
-      <c r="AH35" s="7"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="25"/>
+      <c r="I35" s="25"/>
+      <c r="J35" s="25"/>
+      <c r="K35" s="25"/>
+      <c r="L35" s="25"/>
+      <c r="M35" s="25"/>
+      <c r="N35" s="25"/>
+      <c r="O35" s="25"/>
+      <c r="P35" s="25"/>
+      <c r="Q35" s="25"/>
+      <c r="R35" s="25"/>
+      <c r="S35" s="25"/>
+      <c r="T35" s="25"/>
+      <c r="U35" s="25"/>
+      <c r="V35" s="25"/>
+      <c r="W35" s="25"/>
+      <c r="X35" s="25"/>
+      <c r="Y35" s="25"/>
+      <c r="Z35" s="25"/>
+      <c r="AA35" s="45"/>
+      <c r="AB35" s="45"/>
+      <c r="AC35" s="45"/>
+      <c r="AD35" s="45"/>
+      <c r="AE35" s="45"/>
+      <c r="AF35" s="25"/>
+      <c r="AG35" s="16"/>
     </row>
-    <row r="36" spans="1:35" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="31" t="s">
+    <row r="36" spans="1:34" s="6" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A36" s="24" t="s">
         <v>4</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C36" s="34">
+      <c r="C36" s="25">
         <v>11.88331628328157</v>
       </c>
-      <c r="D36" s="34">
+      <c r="D36" s="25">
         <v>10.199999999999999</v>
       </c>
-      <c r="E36" s="33">
+      <c r="E36" s="26">
         <v>9.0289065127227897</v>
       </c>
-      <c r="F36" s="33">
+      <c r="F36" s="26">
         <v>8.580996416254612</v>
       </c>
-      <c r="G36" s="33">
+      <c r="G36" s="26">
         <v>8.4920303265476687</v>
       </c>
-      <c r="H36" s="33">
+      <c r="H36" s="26">
         <v>8.5343058717710889</v>
       </c>
-      <c r="I36" s="34">
+      <c r="I36" s="25">
         <v>8.3923104038453253</v>
       </c>
-      <c r="J36" s="34">
+      <c r="J36" s="25">
         <v>8.4165501733543664</v>
       </c>
-      <c r="K36" s="34">
+      <c r="K36" s="25">
         <v>8.5415479847590241</v>
       </c>
-      <c r="L36" s="34">
+      <c r="L36" s="25">
         <v>8.9663053246511488</v>
       </c>
-      <c r="M36" s="34">
+      <c r="M36" s="25">
         <v>8.921526760568403</v>
       </c>
-      <c r="N36" s="34">
+      <c r="N36" s="25">
         <v>9.4975815023463301</v>
       </c>
-      <c r="O36" s="34">
+      <c r="O36" s="25">
         <v>9.8639100684607914</v>
       </c>
-      <c r="P36" s="34">
+      <c r="P36" s="25">
         <v>10.178693003474832</v>
       </c>
-      <c r="Q36" s="34">
+      <c r="Q36" s="25">
         <v>10.895518050132946</v>
       </c>
-      <c r="R36" s="34">
+      <c r="R36" s="25">
         <v>11.538848301220252</v>
       </c>
-      <c r="S36" s="34">
+      <c r="S36" s="25">
         <v>11.430345327732217</v>
       </c>
-      <c r="T36" s="34">
+      <c r="T36" s="25">
         <v>11.311932614192832</v>
       </c>
-      <c r="U36" s="34">
+      <c r="U36" s="25">
         <v>10.651791027729521</v>
       </c>
-      <c r="V36" s="34">
+      <c r="V36" s="25">
         <v>10.571978388233823</v>
       </c>
-      <c r="W36" s="34">
+      <c r="W36" s="25">
         <v>10.613763577410817</v>
       </c>
-      <c r="X36" s="34">
+      <c r="X36" s="25">
         <v>10.935543334717147</v>
       </c>
-      <c r="Y36" s="34">
+      <c r="Y36" s="25">
         <v>10.9</v>
       </c>
-      <c r="Z36" s="34">
+      <c r="Z36" s="25">
         <v>11.2</v>
       </c>
-      <c r="AA36" s="56">
+      <c r="AA36" s="45">
         <v>11.4</v>
       </c>
-      <c r="AB36" s="56">
+      <c r="AB36" s="45">
         <v>11.489113908217243</v>
       </c>
-      <c r="AC36" s="56">
+      <c r="AC36" s="45">
         <v>11.204425277210326</v>
       </c>
-      <c r="AD36" s="92">
+      <c r="AD36" s="45">
         <v>10.769826061320755</v>
       </c>
-      <c r="AE36" s="92">
+      <c r="AE36" s="45">
         <v>11.065651406187632</v>
       </c>
-      <c r="AF36" s="58">
+      <c r="AF36" s="25">
         <v>9.9869271966402646</v>
       </c>
-      <c r="AG36" s="34">
+      <c r="AG36" s="25">
         <v>8.7227460175746696</v>
       </c>
-      <c r="AH36" s="64">
+      <c r="AH36" s="52">
         <v>8.0496750109999997</v>
       </c>
     </row>
-    <row r="37" spans="1:35" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="31" t="s">
+    <row r="37" spans="1:34" s="6" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A37" s="24" t="s">
         <v>6</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C37" s="32">
+      <c r="C37" s="25">
         <v>11.545821685386658</v>
       </c>
-      <c r="D37" s="32">
+      <c r="D37" s="25">
         <v>11.5</v>
       </c>
-      <c r="E37" s="33">
+      <c r="E37" s="26">
         <v>11.164842786683106</v>
       </c>
-      <c r="F37" s="33">
+      <c r="F37" s="26">
         <v>10.873997195787192</v>
       </c>
-      <c r="G37" s="33">
+      <c r="G37" s="26">
         <v>10.77810982311855</v>
       </c>
-      <c r="H37" s="33">
+      <c r="H37" s="26">
         <v>10.440382831604687</v>
       </c>
-      <c r="I37" s="34">
+      <c r="I37" s="25">
         <v>10.517858382948498</v>
       </c>
-      <c r="J37" s="34">
+      <c r="J37" s="25">
         <v>10.618559693988416</v>
       </c>
-      <c r="K37" s="34">
+      <c r="K37" s="25">
         <v>10.342850956820195</v>
       </c>
-      <c r="L37" s="34">
+      <c r="L37" s="25">
         <v>10.631845302509266</v>
       </c>
-      <c r="M37" s="34">
+      <c r="M37" s="25">
         <v>10.770557089480052</v>
       </c>
-      <c r="N37" s="34">
+      <c r="N37" s="25">
         <v>10.327951667467042</v>
       </c>
-      <c r="O37" s="34">
+      <c r="O37" s="25">
         <v>10.669018882013514</v>
       </c>
-      <c r="P37" s="34">
+      <c r="P37" s="25">
         <v>10.315741076402091</v>
       </c>
-      <c r="Q37" s="34">
+      <c r="Q37" s="25">
         <v>10.369721891703605</v>
       </c>
-      <c r="R37" s="34">
+      <c r="R37" s="25">
         <v>9.8477197308534787</v>
       </c>
-      <c r="S37" s="34">
+      <c r="S37" s="25">
         <v>10.070355971127182</v>
       </c>
-      <c r="T37" s="34">
+      <c r="T37" s="25">
         <v>10.033267838631465</v>
       </c>
-      <c r="U37" s="34">
+      <c r="U37" s="25">
         <v>9.8462944150231131</v>
       </c>
-      <c r="V37" s="34">
+      <c r="V37" s="25">
         <v>3.1470035351311152</v>
       </c>
-      <c r="W37" s="34">
+      <c r="W37" s="25">
         <v>9.9514195470217199</v>
       </c>
-      <c r="X37" s="34">
+      <c r="X37" s="25">
         <v>9.7370925224528015</v>
       </c>
-      <c r="Y37" s="34">
+      <c r="Y37" s="25">
         <v>10.3</v>
       </c>
-      <c r="Z37" s="34">
+      <c r="Z37" s="25">
         <v>10</v>
       </c>
-      <c r="AA37" s="56">
+      <c r="AA37" s="45">
         <v>10.5</v>
       </c>
-      <c r="AB37" s="56">
+      <c r="AB37" s="45">
         <v>10.600004901931785</v>
       </c>
-      <c r="AC37" s="56">
+      <c r="AC37" s="45">
         <v>10.247744907652603</v>
       </c>
-      <c r="AD37" s="92">
+      <c r="AD37" s="45">
         <v>11.738013239708405</v>
       </c>
-      <c r="AE37" s="92">
+      <c r="AE37" s="45">
         <v>12.893154095432681</v>
       </c>
-      <c r="AF37" s="58">
+      <c r="AF37" s="25">
         <v>11.033743708558344</v>
       </c>
-      <c r="AG37" s="34">
+      <c r="AG37" s="25">
         <v>10.077473747551352</v>
       </c>
-      <c r="AH37" s="64">
+      <c r="AH37" s="52">
         <v>9.983783184</v>
       </c>
     </row>
-    <row r="38" spans="1:35" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="31" t="s">
+    <row r="38" spans="1:34" s="6" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A38" s="24" t="s">
         <v>19</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C38" s="32">
+      <c r="C38" s="25">
         <v>6.1573040405554549</v>
       </c>
-      <c r="D38" s="32">
+      <c r="D38" s="25">
         <v>5.8</v>
       </c>
-      <c r="E38" s="33">
+      <c r="E38" s="26">
         <v>5.1940295370474159</v>
       </c>
-      <c r="F38" s="33">
+      <c r="F38" s="26">
         <v>4.6394902961785371</v>
       </c>
-      <c r="G38" s="33">
+      <c r="G38" s="26">
         <v>4.9505385104313353</v>
       </c>
-      <c r="H38" s="33">
+      <c r="H38" s="26">
         <v>5.0919484498411896</v>
       </c>
-      <c r="I38" s="34">
+      <c r="I38" s="25">
         <v>4.9402728050288811</v>
       </c>
-      <c r="J38" s="34">
+      <c r="J38" s="25">
         <v>4.3415569254211137</v>
       </c>
-      <c r="K38" s="34">
+      <c r="K38" s="25">
         <v>4.9105471169391688</v>
       </c>
-      <c r="L38" s="34">
+      <c r="L38" s="25">
         <v>7.3889409926796397</v>
       </c>
-      <c r="M38" s="34">
+      <c r="M38" s="25">
         <v>10.102802163561622</v>
       </c>
-      <c r="N38" s="34">
+      <c r="N38" s="25">
         <v>9.5216372903916717</v>
       </c>
-      <c r="O38" s="34">
+      <c r="O38" s="25">
         <v>8.3996737097467715</v>
       </c>
-      <c r="P38" s="34">
+      <c r="P38" s="25">
         <v>9.0336784586954781</v>
       </c>
-      <c r="Q38" s="34">
+      <c r="Q38" s="25">
         <v>14.869374443488361</v>
       </c>
-      <c r="R38" s="34">
+      <c r="R38" s="25">
         <v>10.778977190750382</v>
       </c>
-      <c r="S38" s="34">
+      <c r="S38" s="25">
         <v>9.0364510190789797</v>
       </c>
-      <c r="T38" s="34">
+      <c r="T38" s="25">
         <v>8.243657640542521</v>
       </c>
-      <c r="U38" s="34">
+      <c r="U38" s="25">
         <v>7.4349570072623505</v>
       </c>
-      <c r="V38" s="34">
+      <c r="V38" s="25">
         <v>8.1155506356553015</v>
       </c>
-      <c r="W38" s="34">
+      <c r="W38" s="25">
         <v>7.9652431974957576</v>
       </c>
-      <c r="X38" s="34">
+      <c r="X38" s="25">
         <v>8.5847688262699045</v>
       </c>
-      <c r="Y38" s="34">
+      <c r="Y38" s="25">
         <v>9</v>
       </c>
-      <c r="Z38" s="34">
+      <c r="Z38" s="25">
         <v>9.6999999999999993</v>
       </c>
-      <c r="AA38" s="56">
+      <c r="AA38" s="45">
         <v>10.199999999999999</v>
       </c>
-      <c r="AB38" s="56">
+      <c r="AB38" s="45">
         <v>10.690437091734582</v>
       </c>
-      <c r="AC38" s="56">
+      <c r="AC38" s="45">
         <v>10.924482778912679</v>
       </c>
-      <c r="AD38" s="92">
+      <c r="AD38" s="45">
         <v>11.082225557461406</v>
       </c>
-      <c r="AE38" s="92">
+      <c r="AE38" s="45">
         <v>12.312175683812436</v>
       </c>
-      <c r="AF38" s="58">
+      <c r="AF38" s="25">
         <v>35.724060490449247</v>
       </c>
-      <c r="AG38" s="34">
+      <c r="AG38" s="25">
         <v>21.281570797400754</v>
       </c>
-      <c r="AH38" s="64">
+      <c r="AH38" s="52">
         <v>20.505951604</v>
       </c>
     </row>
-    <row r="39" spans="1:35" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="31" t="s">
+    <row r="39" spans="1:34" s="6" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A39" s="24" t="s">
         <v>20</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C39" s="32">
+      <c r="C39" s="25">
         <v>5.6690326352893115</v>
       </c>
-      <c r="D39" s="32">
+      <c r="D39" s="25">
         <v>4</v>
       </c>
-      <c r="E39" s="33">
+      <c r="E39" s="26">
         <v>3.7420482569218696</v>
       </c>
-      <c r="F39" s="33">
+      <c r="F39" s="26">
         <v>3.5539319921397863</v>
       </c>
-      <c r="G39" s="33">
+      <c r="G39" s="26">
         <v>3.603823476737122</v>
       </c>
-      <c r="H39" s="33">
+      <c r="H39" s="26">
         <v>3.66985693003907</v>
       </c>
-      <c r="I39" s="34">
+      <c r="I39" s="25">
         <v>3.5926859349026756</v>
       </c>
-      <c r="J39" s="34">
+      <c r="J39" s="25">
         <v>3.637758437004317</v>
       </c>
-      <c r="K39" s="34">
+      <c r="K39" s="25">
         <v>6.2096148761005248</v>
       </c>
-      <c r="L39" s="34">
+      <c r="L39" s="25">
         <v>8.1290820202732732</v>
       </c>
-      <c r="M39" s="34">
+      <c r="M39" s="25">
         <v>7.5601625791565965</v>
       </c>
-      <c r="N39" s="34">
+      <c r="N39" s="25">
         <v>8.1290744491001803</v>
       </c>
-      <c r="O39" s="34">
+      <c r="O39" s="25">
         <v>7.4901661709201779</v>
       </c>
-      <c r="P39" s="34">
+      <c r="P39" s="25">
         <v>6.9470110257385125</v>
       </c>
-      <c r="Q39" s="34">
+      <c r="Q39" s="25">
         <v>8.3748671197731941</v>
       </c>
-      <c r="R39" s="34">
+      <c r="R39" s="25">
         <v>6.6884397284051014</v>
       </c>
-      <c r="S39" s="34">
+      <c r="S39" s="25">
         <v>6.4295148994486127</v>
       </c>
-      <c r="T39" s="34">
+      <c r="T39" s="25">
         <v>6.9667278239710608</v>
       </c>
-      <c r="U39" s="34">
+      <c r="U39" s="25">
         <v>5.9338822961634143</v>
       </c>
-      <c r="V39" s="34">
+      <c r="V39" s="25">
         <v>6.6530036619365935</v>
       </c>
-      <c r="W39" s="34">
+      <c r="W39" s="25">
         <v>7.4055881640662102</v>
       </c>
-      <c r="X39" s="34">
+      <c r="X39" s="25">
         <v>7.412798395459725</v>
       </c>
-      <c r="Y39" s="34">
+      <c r="Y39" s="25">
         <v>7.7</v>
       </c>
-      <c r="Z39" s="34">
+      <c r="Z39" s="25">
         <v>7.7</v>
       </c>
-      <c r="AA39" s="56">
+      <c r="AA39" s="45">
         <v>7.5</v>
       </c>
-      <c r="AB39" s="56">
+      <c r="AB39" s="45">
         <v>7.8101295884828268</v>
       </c>
-      <c r="AC39" s="56">
+      <c r="AC39" s="45">
         <v>8.247795347742386</v>
       </c>
-      <c r="AD39" s="92">
+      <c r="AD39" s="45">
         <v>7.3183560248713553</v>
       </c>
-      <c r="AE39" s="92">
+      <c r="AE39" s="45">
         <v>7.6499719236051451</v>
       </c>
-      <c r="AF39" s="58">
+      <c r="AF39" s="25">
         <v>7.6948455449523356</v>
       </c>
-      <c r="AG39" s="34">
+      <c r="AG39" s="25">
         <v>12.119785074939253</v>
       </c>
-      <c r="AH39" s="64">
+      <c r="AH39" s="52">
         <v>16.455826306999999</v>
       </c>
     </row>
-    <row r="40" spans="1:35" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="82" t="s">
+    <row r="40" spans="1:34" s="6" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A40" s="46" t="s">
         <v>51</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C40" s="34">
+      <c r="C40" s="25">
         <v>0.33749459789491032</v>
       </c>
-      <c r="D40" s="34">
+      <c r="D40" s="25">
         <v>-1.2</v>
       </c>
-      <c r="E40" s="33">
+      <c r="E40" s="26">
         <v>-2.135936273960318</v>
       </c>
-      <c r="F40" s="33">
+      <c r="F40" s="26">
         <v>-2.2930007795325786</v>
       </c>
-      <c r="G40" s="33">
+      <c r="G40" s="26">
         <v>-2.2860794965708808</v>
       </c>
-      <c r="H40" s="33">
+      <c r="H40" s="26">
         <v>-1.9060769598336005</v>
       </c>
-      <c r="I40" s="34">
+      <c r="I40" s="25">
         <v>-2.1255479791031733</v>
       </c>
-      <c r="J40" s="34">
+      <c r="J40" s="25">
         <v>-2.2020095206340518</v>
       </c>
-      <c r="K40" s="34">
+      <c r="K40" s="25">
         <v>-1.8013029720611697</v>
       </c>
-      <c r="L40" s="34">
+      <c r="L40" s="25">
         <v>-1.6655399778581157</v>
       </c>
-      <c r="M40" s="34">
+      <c r="M40" s="25">
         <v>-1.8490303289116485</v>
       </c>
-      <c r="N40" s="34">
+      <c r="N40" s="25">
         <v>-0.83037016512071105</v>
       </c>
-      <c r="O40" s="34">
+      <c r="O40" s="25">
         <v>-0.80510881355272401</v>
       </c>
-      <c r="P40" s="34">
+      <c r="P40" s="25">
         <v>-0.1370480729272584</v>
       </c>
-      <c r="Q40" s="34">
+      <c r="Q40" s="25">
         <v>0.52579615842934035</v>
       </c>
-      <c r="R40" s="34">
+      <c r="R40" s="25">
         <v>1.6911285703667756</v>
       </c>
-      <c r="S40" s="34">
+      <c r="S40" s="25">
         <v>1.3599893566050352</v>
       </c>
-      <c r="T40" s="34">
+      <c r="T40" s="25">
         <v>1.2786647755613676</v>
       </c>
-      <c r="U40" s="34">
+      <c r="U40" s="25">
         <v>0.8054966127064086</v>
       </c>
-      <c r="V40" s="34">
+      <c r="V40" s="25">
         <v>0.53978007817386398</v>
       </c>
-      <c r="W40" s="34">
+      <c r="W40" s="25">
         <v>0.66234403038909717</v>
       </c>
-      <c r="X40" s="34">
+      <c r="X40" s="25">
         <v>1.198450812264346</v>
       </c>
-      <c r="Y40" s="34">
+      <c r="Y40" s="25">
         <v>0.6</v>
       </c>
-      <c r="Z40" s="34">
+      <c r="Z40" s="25">
         <v>1.2</v>
       </c>
-      <c r="AA40" s="56">
+      <c r="AA40" s="45">
         <v>1</v>
       </c>
-      <c r="AB40" s="56">
+      <c r="AB40" s="45">
         <v>0.88910900628545975</v>
       </c>
-      <c r="AC40" s="56">
+      <c r="AC40" s="45">
         <v>0.95668036955772451</v>
       </c>
-      <c r="AD40" s="92">
+      <c r="AD40" s="45">
         <v>-0.96818717838765012</v>
       </c>
-      <c r="AE40" s="92">
+      <c r="AE40" s="45">
         <v>-1.8275026892450494</v>
       </c>
-      <c r="AF40" s="58">
+      <c r="AF40" s="25">
         <v>-1.0468165119180803</v>
       </c>
-      <c r="AG40" s="34">
+      <c r="AG40" s="25">
         <v>-1.3547277299766827</v>
       </c>
-      <c r="AH40" s="64">
+      <c r="AH40" s="52">
         <v>-1.934108173</v>
       </c>
     </row>
-    <row r="41" spans="1:35" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="82" t="s">
+    <row r="41" spans="1:34" s="6" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A41" s="46" t="s">
         <v>52</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C41" s="34">
+      <c r="C41" s="25">
         <v>0.48827140526614299</v>
       </c>
-      <c r="D41" s="34">
+      <c r="D41" s="25">
         <v>1.8</v>
       </c>
-      <c r="E41" s="33">
+      <c r="E41" s="26">
         <v>1.4519812801255465</v>
       </c>
-      <c r="F41" s="33">
+      <c r="F41" s="26">
         <v>1.0855583040387504</v>
       </c>
-      <c r="G41" s="33">
+      <c r="G41" s="26">
         <v>1.3467150336942131</v>
       </c>
-      <c r="H41" s="33">
+      <c r="H41" s="26">
         <v>1.4220915198021193</v>
       </c>
-      <c r="I41" s="34">
+      <c r="I41" s="25">
         <v>1.3475868701262055</v>
       </c>
-      <c r="J41" s="34">
+      <c r="J41" s="25">
         <v>0.70379848841679649</v>
       </c>
-      <c r="K41" s="34">
+      <c r="K41" s="25">
         <v>-1.2990677591613558</v>
       </c>
-      <c r="L41" s="34">
+      <c r="L41" s="25">
         <v>-0.74014102759363309</v>
       </c>
-      <c r="M41" s="34">
+      <c r="M41" s="25">
         <v>2.5426395844050251</v>
       </c>
-      <c r="N41" s="34">
+      <c r="N41" s="25">
         <v>1.3925628412914928</v>
       </c>
-      <c r="O41" s="34">
+      <c r="O41" s="25">
         <v>0.90950753882659374</v>
       </c>
-      <c r="P41" s="34">
+      <c r="P41" s="25">
         <v>2.086667432956967</v>
       </c>
-      <c r="Q41" s="34">
+      <c r="Q41" s="25">
         <v>6.494507323715168</v>
       </c>
-      <c r="R41" s="34">
+      <c r="R41" s="25">
         <v>4.0905374623452824</v>
       </c>
-      <c r="S41" s="34">
+      <c r="S41" s="25">
         <v>2.606936119630368</v>
       </c>
-      <c r="T41" s="34">
+      <c r="T41" s="25">
         <v>1.2769298165714609</v>
       </c>
-      <c r="U41" s="34">
+      <c r="U41" s="25">
         <v>1.501074711098936</v>
       </c>
-      <c r="V41" s="34">
+      <c r="V41" s="25">
         <v>1.4625469737187078</v>
       </c>
-      <c r="W41" s="34">
+      <c r="W41" s="25">
         <v>0.55965503342954726</v>
       </c>
-      <c r="X41" s="34">
+      <c r="X41" s="25">
         <v>1.1719704308101802</v>
       </c>
-      <c r="Y41" s="34">
+      <c r="Y41" s="25">
         <v>1.3</v>
       </c>
-      <c r="Z41" s="34">
+      <c r="Z41" s="25">
         <v>2</v>
       </c>
-      <c r="AA41" s="56">
+      <c r="AA41" s="45">
         <v>2.7</v>
       </c>
-      <c r="AB41" s="56">
+      <c r="AB41" s="45">
         <v>2.8803075032517556</v>
       </c>
-      <c r="AC41" s="56">
+      <c r="AC41" s="45">
         <v>2.676687431170294</v>
       </c>
-      <c r="AD41" s="92">
+      <c r="AD41" s="45">
         <v>3.7638695325900513</v>
       </c>
-      <c r="AE41" s="92">
+      <c r="AE41" s="45">
         <v>4.6622037602072917</v>
       </c>
-      <c r="AF41" s="58">
+      <c r="AF41" s="25">
         <v>28.029214945496911</v>
       </c>
-      <c r="AG41" s="34">
+      <c r="AG41" s="25">
         <v>9.1617857224615005</v>
       </c>
-      <c r="AH41" s="64">
+      <c r="AH41" s="52">
         <v>4.0501252970000001</v>
       </c>
     </row>
-    <row r="42" spans="1:35" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="82" t="s">
+    <row r="42" spans="1:34" s="6" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A42" s="46" t="s">
         <v>53</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C42" s="34">
+      <c r="C42" s="25">
         <v>0.82576600316105331</v>
       </c>
-      <c r="D42" s="34">
+      <c r="D42" s="25">
         <v>0.6</v>
       </c>
-      <c r="E42" s="33">
+      <c r="E42" s="26">
         <v>-0.68395499383477198</v>
       </c>
-      <c r="F42" s="33">
+      <c r="F42" s="26">
         <v>-1.207442475493828</v>
       </c>
-      <c r="G42" s="33">
+      <c r="G42" s="26">
         <v>-0.93936446287666764</v>
       </c>
-      <c r="H42" s="33">
+      <c r="H42" s="26">
         <v>-0.48398544003148103</v>
       </c>
-      <c r="I42" s="34">
+      <c r="I42" s="25">
         <v>-0.77796110897696791</v>
       </c>
-      <c r="J42" s="34">
+      <c r="J42" s="25">
         <v>-1.4982110322172555</v>
       </c>
-      <c r="K42" s="34">
+      <c r="K42" s="25">
         <v>-3.1003707312225255</v>
       </c>
-      <c r="L42" s="34">
+      <c r="L42" s="25">
         <v>-2.4056810054517488</v>
       </c>
-      <c r="M42" s="34">
+      <c r="M42" s="25">
         <v>0.69360925549337649</v>
       </c>
-      <c r="N42" s="34">
+      <c r="N42" s="25">
         <v>0.56219267617078184</v>
       </c>
-      <c r="O42" s="34">
+      <c r="O42" s="25">
         <v>0.1043987252738697</v>
       </c>
-      <c r="P42" s="34">
+      <c r="P42" s="25">
         <v>1.9496193600297085</v>
       </c>
-      <c r="Q42" s="34">
+      <c r="Q42" s="25">
         <v>7.0203034821445085</v>
       </c>
-      <c r="R42" s="34">
+      <c r="R42" s="25">
         <v>5.7816660327120575</v>
       </c>
-      <c r="S42" s="34">
+      <c r="S42" s="25">
         <v>3.9669254762354034</v>
       </c>
-      <c r="T42" s="34">
+      <c r="T42" s="25">
         <v>2.5555945921328282</v>
       </c>
-      <c r="U42" s="34">
+      <c r="U42" s="25">
         <v>2.3065713238053447</v>
       </c>
-      <c r="V42" s="34">
+      <c r="V42" s="25">
         <v>2.0023270518925718</v>
       </c>
-      <c r="W42" s="34">
+      <c r="W42" s="25">
         <v>1.2219990638186444</v>
       </c>
-      <c r="X42" s="34">
+      <c r="X42" s="25">
         <v>2.3704212430745257</v>
       </c>
-      <c r="Y42" s="34">
+      <c r="Y42" s="25">
         <v>1.9</v>
       </c>
-      <c r="Z42" s="34">
+      <c r="Z42" s="25">
         <v>3.2</v>
       </c>
-      <c r="AA42" s="56">
+      <c r="AA42" s="45">
         <v>3.7</v>
       </c>
-      <c r="AB42" s="56">
+      <c r="AB42" s="45">
         <v>3.7694165095372152</v>
       </c>
-      <c r="AC42" s="56">
+      <c r="AC42" s="45">
         <v>3.6333678007280188</v>
       </c>
-      <c r="AD42" s="92">
+      <c r="AD42" s="45">
         <v>2.7956823542024014</v>
       </c>
-      <c r="AE42" s="92">
+      <c r="AE42" s="45">
         <v>2.8347010709622422</v>
       </c>
-      <c r="AF42" s="58">
+      <c r="AF42" s="25">
         <v>26.98239843357883</v>
       </c>
-      <c r="AG42" s="34">
+      <c r="AG42" s="25">
         <v>7.8070579924848174</v>
       </c>
-      <c r="AH42" s="64">
+      <c r="AH42" s="52">
         <v>2.1160171239999999</v>
       </c>
     </row>
-    <row r="43" spans="1:35" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="57" t="s">
+    <row r="43" spans="1:34" s="6" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A43" s="46" t="s">
         <v>21</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C43" s="34">
+      <c r="C43" s="25">
         <v>6.2598673339417008</v>
       </c>
-      <c r="D43" s="34">
+      <c r="D43" s="25">
         <v>5.4</v>
       </c>
-      <c r="E43" s="33">
+      <c r="E43" s="26">
         <v>5.2194260733101672</v>
       </c>
-      <c r="F43" s="33">
+      <c r="F43" s="26">
         <v>4.9192100853452256</v>
       </c>
-      <c r="G43" s="33">
+      <c r="G43" s="26">
         <v>5.3052144384707498</v>
       </c>
-      <c r="H43" s="33">
+      <c r="H43" s="26">
         <v>5.0427593670067736</v>
       </c>
-      <c r="I43" s="58">
+      <c r="I43" s="25">
         <v>5.0914697663215804</v>
       </c>
-      <c r="J43" s="34">
+      <c r="J43" s="25">
         <v>5.325115312983586</v>
       </c>
-      <c r="K43" s="34">
+      <c r="K43" s="25">
         <v>4.9708863297963903</v>
       </c>
-      <c r="L43" s="34">
+      <c r="L43" s="25">
         <v>5.0126518691900932</v>
       </c>
-      <c r="M43" s="34">
+      <c r="M43" s="25">
         <v>4.8508071454234711</v>
       </c>
-      <c r="N43" s="34">
+      <c r="N43" s="25">
         <v>5.0312235219277417</v>
       </c>
-      <c r="O43" s="34">
+      <c r="O43" s="25">
         <v>5.0367961269842398</v>
       </c>
-      <c r="P43" s="34">
+      <c r="P43" s="25">
         <v>5.1804171566503685</v>
       </c>
-      <c r="Q43" s="34">
+      <c r="Q43" s="25">
         <v>5.5371531793052977</v>
       </c>
-      <c r="R43" s="34">
+      <c r="R43" s="25">
         <v>5.0733857111003271</v>
       </c>
-      <c r="S43" s="34">
+      <c r="S43" s="25">
         <v>4.5669207806199781</v>
       </c>
-      <c r="T43" s="34">
+      <c r="T43" s="25">
         <v>4.4232779447675812</v>
       </c>
-      <c r="U43" s="34">
+      <c r="U43" s="25">
         <v>4.2026656957197908</v>
       </c>
-      <c r="V43" s="34">
+      <c r="V43" s="25">
         <v>4.2608354424740087</v>
       </c>
-      <c r="W43" s="34">
+      <c r="W43" s="25">
         <v>4.3155050972250866</v>
       </c>
-      <c r="X43" s="34">
+      <c r="X43" s="25">
         <v>4.4017227623650568</v>
       </c>
-      <c r="Y43" s="34">
+      <c r="Y43" s="25">
         <v>4.5999999999999996</v>
       </c>
-      <c r="Z43" s="34">
+      <c r="Z43" s="25">
         <v>5</v>
       </c>
-      <c r="AA43" s="56">
+      <c r="AA43" s="45">
         <v>5.0999999999999996</v>
       </c>
-      <c r="AB43" s="56">
+      <c r="AB43" s="45">
         <v>5.2028089759441922</v>
       </c>
-      <c r="AC43" s="56">
+      <c r="AC43" s="45">
         <v>5.181878557077165</v>
       </c>
-      <c r="AD43" s="92">
+      <c r="AD43" s="45">
         <v>4.4154695540308744</v>
       </c>
-      <c r="AE43" s="92">
+      <c r="AE43" s="45">
         <v>4.5226674604731718</v>
       </c>
-      <c r="AF43" s="58">
+      <c r="AF43" s="25">
         <v>5.102610343638605</v>
       </c>
-      <c r="AG43" s="34">
+      <c r="AG43" s="25">
         <v>4.560453396384994</v>
       </c>
-      <c r="AH43" s="64">
+      <c r="AH43" s="52">
         <v>4.1145683780000004</v>
       </c>
     </row>
-    <row r="44" spans="1:35" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="57" t="s">
+    <row r="44" spans="1:34" s="6" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A44" s="46" t="s">
         <v>22</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C44" s="32">
+      <c r="C44" s="25">
         <v>2.7604428279768118</v>
       </c>
-      <c r="D44" s="32">
+      <c r="D44" s="25">
         <v>2.5499999999999998</v>
       </c>
-      <c r="E44" s="33">
+      <c r="E44" s="26">
         <v>2.662257594440085</v>
       </c>
-      <c r="F44" s="33">
+      <c r="F44" s="26">
         <v>2.7630001744960442</v>
       </c>
-      <c r="G44" s="33">
+      <c r="G44" s="26">
         <v>2.7030870852310835</v>
       </c>
-      <c r="H44" s="33">
+      <c r="H44" s="26">
         <v>2.7493183798521517</v>
       </c>
-      <c r="I44" s="34">
+      <c r="I44" s="25">
         <v>2.03676371694874</v>
       </c>
-      <c r="J44" s="34">
+      <c r="J44" s="25">
         <v>2.5644657421687023</v>
       </c>
-      <c r="K44" s="34">
+      <c r="K44" s="25">
         <v>2.7525329159279548</v>
       </c>
-      <c r="L44" s="34">
+      <c r="L44" s="25">
         <v>2.7699622091651013</v>
       </c>
-      <c r="M44" s="34">
+      <c r="M44" s="25">
         <v>2.8466508390621477</v>
       </c>
-      <c r="N44" s="34">
+      <c r="N44" s="25">
         <v>2.9348061415317837</v>
       </c>
-      <c r="O44" s="34">
+      <c r="O44" s="25">
         <v>2.7904540636761448</v>
       </c>
-      <c r="P44" s="34">
+      <c r="P44" s="25">
         <v>2.7374247340825297</v>
       </c>
-      <c r="Q44" s="34">
+      <c r="Q44" s="25">
         <v>2.967181336262056</v>
       </c>
-      <c r="R44" s="34">
+      <c r="R44" s="25">
         <v>2.9153167805598912</v>
       </c>
-      <c r="S44" s="34">
+      <c r="S44" s="25">
         <v>2.6495444818257945</v>
       </c>
-      <c r="T44" s="34">
+      <c r="T44" s="25">
         <v>3.0778172480947981</v>
       </c>
-      <c r="U44" s="34">
+      <c r="U44" s="25">
         <v>2.5289845676123379</v>
       </c>
-      <c r="V44" s="34">
+      <c r="V44" s="25">
         <v>2.5712381184123267</v>
       </c>
-      <c r="W44" s="34">
+      <c r="W44" s="25">
         <v>2.5672249239887486</v>
       </c>
-      <c r="X44" s="34">
+      <c r="X44" s="25">
         <v>2.4976979152251944</v>
       </c>
-      <c r="Y44" s="34">
+      <c r="Y44" s="25">
         <v>2.4</v>
       </c>
-      <c r="Z44" s="34">
+      <c r="Z44" s="25">
         <v>2.2999999999999998</v>
       </c>
-      <c r="AA44" s="56">
+      <c r="AA44" s="45">
         <v>2.4</v>
       </c>
-      <c r="AB44" s="56">
+      <c r="AB44" s="45">
         <v>2.2675660302888674</v>
       </c>
-      <c r="AC44" s="56">
+      <c r="AC44" s="45">
         <v>2.2117979370003278</v>
       </c>
-      <c r="AD44" s="92">
+      <c r="AD44" s="45">
         <v>1.8978478773584906</v>
       </c>
-      <c r="AE44" s="92">
+      <c r="AE44" s="45">
         <v>2.0228535088728172</v>
       </c>
-      <c r="AF44" s="58">
+      <c r="AF44" s="25">
         <v>1.8000944284720861</v>
       </c>
-      <c r="AG44" s="34">
+      <c r="AG44" s="25">
         <v>1.7030162109483584</v>
       </c>
-      <c r="AH44" s="64">
+      <c r="AH44" s="52">
         <v>1.866402151</v>
       </c>
     </row>
-    <row r="45" spans="1:35" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="57" t="s">
+    <row r="45" spans="1:34" s="6" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A45" s="46" t="s">
         <v>23</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C45" s="34">
+      <c r="C45" s="25">
         <v>7.6256246937346095</v>
       </c>
-      <c r="D45" s="34">
+      <c r="D45" s="25">
         <v>5.5</v>
       </c>
-      <c r="E45" s="33">
+      <c r="E45" s="26">
         <v>5.0442775473601618</v>
       </c>
-      <c r="F45" s="33">
+      <c r="F45" s="26">
         <v>5.1024747747992638</v>
       </c>
-      <c r="G45" s="33">
+      <c r="G45" s="26">
         <v>4.6248336359198925</v>
       </c>
-      <c r="H45" s="33">
+      <c r="H45" s="26">
         <v>4.6132332686848248</v>
       </c>
-      <c r="I45" s="34">
+      <c r="I45" s="25">
         <v>4.3715260959801832</v>
       </c>
-      <c r="J45" s="34">
+      <c r="J45" s="25">
         <v>3.9632652378970854</v>
       </c>
-      <c r="K45" s="34">
+      <c r="K45" s="25">
         <v>3.8129058477570674</v>
       </c>
-      <c r="L45" s="34">
+      <c r="L45" s="25">
         <v>3.6793292238138373</v>
       </c>
-      <c r="M45" s="34">
+      <c r="M45" s="25">
         <v>3.7025183008534603</v>
       </c>
-      <c r="N45" s="34">
+      <c r="N45" s="25">
         <v>3.5067993239432602</v>
       </c>
-      <c r="O45" s="34">
+      <c r="O45" s="25">
         <v>3.4442731990777524</v>
       </c>
-      <c r="P45" s="34">
+      <c r="P45" s="25">
         <v>3.4686425167331278</v>
       </c>
-      <c r="Q45" s="34">
+      <c r="Q45" s="25">
         <v>3.5880963977238398</v>
       </c>
-      <c r="R45" s="34">
+      <c r="R45" s="25">
         <v>3.3192988899236191</v>
       </c>
-      <c r="S45" s="34">
+      <c r="S45" s="25">
         <v>3.2669309544533998</v>
       </c>
-      <c r="T45" s="34">
+      <c r="T45" s="25">
         <v>3.2356985161763236</v>
       </c>
-      <c r="U45" s="34">
+      <c r="U45" s="25">
         <v>3.0905994766848233</v>
       </c>
-      <c r="V45" s="34">
+      <c r="V45" s="25">
         <v>3.1470035351311152</v>
       </c>
-      <c r="W45" s="34">
+      <c r="W45" s="25">
         <v>3.2304246960191754</v>
       </c>
-      <c r="X45" s="34">
+      <c r="X45" s="25">
         <v>3.3032140349438528</v>
       </c>
-      <c r="Y45" s="34">
+      <c r="Y45" s="25">
         <v>3.2</v>
       </c>
-      <c r="Z45" s="34">
+      <c r="Z45" s="25">
         <v>2.9</v>
       </c>
-      <c r="AA45" s="56">
+      <c r="AA45" s="45">
         <v>3</v>
       </c>
-      <c r="AB45" s="56">
+      <c r="AB45" s="45">
         <v>2.7138108547363227</v>
       </c>
-      <c r="AC45" s="56">
+      <c r="AC45" s="45">
         <v>2.7</v>
       </c>
-      <c r="AD45" s="92">
+      <c r="AD45" s="45">
         <v>2.45480676457976</v>
       </c>
-      <c r="AE45" s="92">
+      <c r="AE45" s="45">
         <v>2.3568949536908619</v>
       </c>
-      <c r="AF45" s="58">
+      <c r="AF45" s="25">
         <v>2.2846398281434883</v>
       </c>
-      <c r="AG45" s="34">
+      <c r="AG45" s="25">
         <v>1.9564655750357283</v>
       </c>
-      <c r="AH45" s="123"/>
-      <c r="AI45" s="119"/>
+      <c r="AH45" s="52"/>
     </row>
-    <row r="46" spans="1:35" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="59" t="s">
+    <row r="46" spans="1:34" s="6" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A46" s="47" t="s">
         <v>43</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C46" s="34">
+      <c r="C46" s="25">
         <v>7.8194157568604314</v>
       </c>
-      <c r="D46" s="34">
+      <c r="D46" s="25">
         <v>6.2</v>
       </c>
-      <c r="E46" s="33">
+      <c r="E46" s="26">
         <v>5.2376333656644034</v>
       </c>
-      <c r="F46" s="33">
+      <c r="F46" s="26">
         <v>5.9268342530145102</v>
       </c>
-      <c r="G46" s="33">
+      <c r="G46" s="26">
         <v>4.5487439263930529</v>
       </c>
-      <c r="H46" s="33">
+      <c r="H46" s="26">
         <v>4.3227665706051877</v>
       </c>
-      <c r="I46" s="34">
+      <c r="I46" s="25">
         <v>3.5613281659159943</v>
       </c>
-      <c r="J46" s="34">
+      <c r="J46" s="25">
         <v>3.2403052158461376</v>
       </c>
-      <c r="K46" s="34">
+      <c r="K46" s="25">
         <v>3.0126740078952836</v>
       </c>
-      <c r="L46" s="34">
+      <c r="L46" s="25">
         <v>3.8740439058309324</v>
       </c>
-      <c r="M46" s="34">
+      <c r="M46" s="25">
         <v>3.6974118117317878</v>
       </c>
-      <c r="N46" s="34">
+      <c r="N46" s="25">
         <v>2.3452157598499066</v>
       </c>
-      <c r="O46" s="34">
+      <c r="O46" s="25">
         <v>2.9599067180913088</v>
       </c>
-      <c r="P46" s="34">
+      <c r="P46" s="25">
         <v>3.7352328005559414</v>
       </c>
-      <c r="Q46" s="34">
+      <c r="Q46" s="25">
         <v>3.7183736157141705</v>
       </c>
-      <c r="R46" s="34">
+      <c r="R46" s="25">
         <v>2.8038799636253411</v>
       </c>
-      <c r="S46" s="34">
+      <c r="S46" s="25">
         <v>2.6626093571700262</v>
       </c>
-      <c r="T46" s="34">
+      <c r="T46" s="25">
         <v>1.9938650306748469</v>
       </c>
-      <c r="U46" s="34">
+      <c r="U46" s="25">
         <v>2.4185746533376329</v>
       </c>
-      <c r="V46" s="34">
+      <c r="V46" s="25">
         <v>3.484885322959721</v>
       </c>
-      <c r="W46" s="34">
+      <c r="W46" s="25">
         <v>2.3381439974199791</v>
       </c>
-      <c r="X46" s="34">
+      <c r="X46" s="25">
         <v>3.3588501796594286</v>
       </c>
-      <c r="Y46" s="34">
+      <c r="Y46" s="25">
         <v>1.7</v>
       </c>
-      <c r="Z46" s="34">
+      <c r="Z46" s="25">
         <v>2</v>
       </c>
-      <c r="AA46" s="56">
+      <c r="AA46" s="45">
         <v>2.2999999999999998</v>
       </c>
-      <c r="AB46" s="56">
+      <c r="AB46" s="45">
         <v>2.0597322348094749</v>
       </c>
-      <c r="AC46" s="56">
+      <c r="AC46" s="45">
         <v>2.5510204081632653</v>
       </c>
-      <c r="AD46" s="92">
+      <c r="AD46" s="45">
         <v>2.8773621587992846</v>
       </c>
-      <c r="AE46" s="92">
+      <c r="AE46" s="45">
         <v>1.7577378677875428</v>
       </c>
-      <c r="AF46" s="58">
+      <c r="AF46" s="25">
         <v>1.7386984600099353</v>
       </c>
-      <c r="AG46" s="34">
+      <c r="AG46" s="25">
         <v>1.9683194301246603</v>
       </c>
-      <c r="AH46" s="64">
+      <c r="AH46" s="52">
         <v>2.0267531409999999</v>
       </c>
-      <c r="AI46" s="119"/>
     </row>
-    <row r="47" spans="1:35" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="59" t="s">
+    <row r="47" spans="1:34" s="6" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A47" s="47" t="s">
         <v>44</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C47" s="34">
+      <c r="C47" s="25">
         <v>5.0899970492770725</v>
       </c>
-      <c r="D47" s="34">
+      <c r="D47" s="25">
         <v>3.2</v>
       </c>
-      <c r="E47" s="33">
+      <c r="E47" s="26">
         <v>3.2007759456838021</v>
       </c>
-      <c r="F47" s="33">
+      <c r="F47" s="26">
         <v>3.4743511138360925</v>
       </c>
-      <c r="G47" s="33">
+      <c r="G47" s="26">
         <v>2.8946552258864884</v>
       </c>
-      <c r="H47" s="33">
+      <c r="H47" s="26">
         <v>2.2643062988884317</v>
       </c>
-      <c r="I47" s="34">
+      <c r="I47" s="25">
         <v>1.8854090290143499</v>
       </c>
-      <c r="J47" s="34">
+      <c r="J47" s="25">
         <v>2.4040974182084249</v>
       </c>
-      <c r="K47" s="34">
+      <c r="K47" s="25">
         <v>1.5582796592561812</v>
       </c>
-      <c r="L47" s="34">
+      <c r="L47" s="25">
         <v>3.1787026919638426</v>
       </c>
-      <c r="M47" s="34">
+      <c r="M47" s="25">
         <v>2.6981113220745478</v>
       </c>
-      <c r="N47" s="34">
+      <c r="N47" s="25">
         <v>1.5947467166979361</v>
       </c>
-      <c r="O47" s="34">
+      <c r="O47" s="25">
         <v>2.1526594313391336</v>
       </c>
-      <c r="P47" s="34">
+      <c r="P47" s="25">
         <v>3.0403057678943708</v>
       </c>
-      <c r="Q47" s="34">
+      <c r="Q47" s="25">
         <v>3.0716999434160539</v>
       </c>
-      <c r="R47" s="34">
+      <c r="R47" s="25">
         <v>1.5913913307062746</v>
       </c>
-      <c r="S47" s="34">
+      <c r="S47" s="25">
         <v>1.8257892734880183</v>
       </c>
-      <c r="T47" s="34">
+      <c r="T47" s="25">
         <v>1.2269938650306749</v>
       </c>
-      <c r="U47" s="34">
+      <c r="U47" s="25">
         <v>1.4511447920025797</v>
       </c>
-      <c r="V47" s="34">
+      <c r="V47" s="25">
         <v>2.1071399627198315</v>
       </c>
-      <c r="W47" s="34">
+      <c r="W47" s="25">
         <v>1.5318874465855037</v>
       </c>
-      <c r="X47" s="34">
+      <c r="X47" s="25">
         <v>2.3433838462740195</v>
       </c>
-      <c r="Y47" s="34">
+      <c r="Y47" s="25">
         <v>0.9</v>
       </c>
-      <c r="Z47" s="34">
+      <c r="Z47" s="25">
         <v>1.2</v>
       </c>
-      <c r="AA47" s="56">
+      <c r="AA47" s="45">
         <v>1.5</v>
       </c>
-      <c r="AB47" s="56">
+      <c r="AB47" s="45">
         <v>1.6183610416360159</v>
       </c>
-      <c r="AC47" s="56">
+      <c r="AC47" s="45">
         <v>1.5756302521008403</v>
       </c>
-      <c r="AD47" s="92">
+      <c r="AD47" s="45">
         <v>1.8663970759779145</v>
       </c>
-      <c r="AE47" s="92">
+      <c r="AE47" s="45">
         <v>1.0699273977837218</v>
       </c>
-      <c r="AF47" s="58">
+      <c r="AF47" s="25">
         <v>0.99354197714853454</v>
       </c>
-      <c r="AG47" s="34">
+      <c r="AG47" s="25">
         <v>1.5934014434342487</v>
       </c>
-      <c r="AH47" s="123">
+      <c r="AH47" s="52">
         <v>1.31738954195379</v>
       </c>
-      <c r="AI47" s="119"/>
     </row>
-    <row r="48" spans="1:35" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="80" t="s">
+    <row r="48" spans="1:34" s="6" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A48" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="B48" s="78" t="s">
+      <c r="B48" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C48" s="34">
+      <c r="C48" s="25">
         <v>63.958532460848474</v>
       </c>
-      <c r="D48" s="34">
+      <c r="D48" s="25">
         <v>53.370000000000005</v>
       </c>
-      <c r="E48" s="33">
+      <c r="E48" s="26">
         <v>55.705996131528046</v>
       </c>
-      <c r="F48" s="33">
+      <c r="F48" s="26">
         <v>59.274727513496998</v>
       </c>
-      <c r="G48" s="33">
+      <c r="G48" s="26">
         <v>54.270114350468738</v>
       </c>
-      <c r="H48" s="33">
+      <c r="H48" s="26">
         <v>53.916435684221334</v>
       </c>
-      <c r="I48" s="34">
+      <c r="I48" s="25">
         <v>51.926490550276711</v>
       </c>
-      <c r="J48" s="34">
+      <c r="J48" s="25">
         <v>46.966221851542954</v>
       </c>
-      <c r="K48" s="34">
+      <c r="K48" s="25">
         <v>44.556200746578185</v>
       </c>
-      <c r="L48" s="34">
+      <c r="L48" s="25">
         <v>40.900990099009896</v>
       </c>
-      <c r="M48" s="34">
+      <c r="M48" s="25">
         <v>41.39752791068581</v>
       </c>
-      <c r="N48" s="34">
+      <c r="N48" s="25">
         <v>36.822902048835246</v>
       </c>
-      <c r="O48" s="34">
+      <c r="O48" s="25">
         <v>34.84292490826099</v>
       </c>
-      <c r="P48" s="34">
+      <c r="P48" s="25">
         <v>33.977134938506843</v>
       </c>
-      <c r="Q48" s="34">
+      <c r="Q48" s="25">
         <v>32.852189339569392</v>
       </c>
-      <c r="R48" s="34">
+      <c r="R48" s="25">
         <v>28.720587122645082</v>
       </c>
-      <c r="S48" s="34">
+      <c r="S48" s="25">
         <v>28.496662621359224</v>
       </c>
-      <c r="T48" s="34">
+      <c r="T48" s="25">
         <v>28.543005815733103</v>
       </c>
-      <c r="U48" s="34">
+      <c r="U48" s="25">
         <v>29.014833924540472</v>
       </c>
-      <c r="V48" s="34">
+      <c r="V48" s="25">
         <v>29.656842955187727</v>
       </c>
-      <c r="W48" s="34">
+      <c r="W48" s="25">
         <v>30.352979014231728</v>
       </c>
-      <c r="X48" s="34">
+      <c r="X48" s="25">
         <v>30.119168159513983</v>
       </c>
-      <c r="Y48" s="34">
+      <c r="Y48" s="25">
         <v>29.4</v>
       </c>
-      <c r="Z48" s="34">
+      <c r="Z48" s="25">
         <v>25.8</v>
       </c>
-      <c r="AA48" s="56">
+      <c r="AA48" s="45">
         <v>25.7</v>
       </c>
-      <c r="AB48" s="56">
+      <c r="AB48" s="45">
         <v>23.55487089201878</v>
       </c>
-      <c r="AC48" s="56">
+      <c r="AC48" s="45">
         <v>24.1</v>
       </c>
-      <c r="AD48" s="92">
+      <c r="AD48" s="45">
         <v>22.7</v>
       </c>
-      <c r="AE48" s="92">
+      <c r="AE48" s="45">
         <v>21.229433272394882</v>
       </c>
-      <c r="AF48" s="58">
+      <c r="AF48" s="25">
         <v>22.787628865979382</v>
       </c>
-      <c r="AG48" s="34">
+      <c r="AG48" s="25">
         <v>22.374941561477328</v>
       </c>
-      <c r="AH48" s="124" t="s">
+      <c r="AH48" s="86" t="s">
         <v>32</v>
       </c>
-      <c r="AI48" s="119"/>
     </row>
-    <row r="49" spans="1:35" s="18" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A49" s="37" t="s">
+    <row r="49" spans="1:35" s="6" customFormat="1" ht="11">
+      <c r="A49" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="B49" s="26"/>
-      <c r="C49" s="38"/>
-      <c r="D49" s="38"/>
-      <c r="E49" s="49"/>
-      <c r="F49" s="49"/>
-      <c r="G49" s="49"/>
-      <c r="H49" s="49"/>
-      <c r="I49" s="50"/>
-      <c r="J49" s="50"/>
-      <c r="K49" s="50"/>
-      <c r="L49" s="50"/>
-      <c r="M49" s="50"/>
-      <c r="N49" s="50"/>
-      <c r="O49" s="50"/>
-      <c r="P49" s="50"/>
-      <c r="Q49" s="50"/>
-      <c r="R49" s="23"/>
-      <c r="S49" s="23"/>
-      <c r="T49" s="23"/>
-      <c r="U49" s="23"/>
-      <c r="V49" s="23"/>
-      <c r="W49" s="23"/>
-      <c r="X49" s="23"/>
-      <c r="Y49" s="23"/>
-      <c r="Z49" s="23"/>
-      <c r="AA49" s="24"/>
-      <c r="AB49" s="24"/>
-      <c r="AC49" s="24"/>
-      <c r="AD49" s="95"/>
-      <c r="AE49" s="95"/>
-      <c r="AF49" s="104"/>
-      <c r="AG49" s="23"/>
-      <c r="AH49" s="7"/>
+      <c r="B49" s="20"/>
+      <c r="C49" s="30"/>
+      <c r="D49" s="30"/>
+      <c r="E49" s="39"/>
+      <c r="F49" s="39"/>
+      <c r="G49" s="39"/>
+      <c r="H49" s="39"/>
+      <c r="I49" s="38"/>
+      <c r="J49" s="38"/>
+      <c r="K49" s="38"/>
+      <c r="L49" s="38"/>
+      <c r="M49" s="38"/>
+      <c r="N49" s="38"/>
+      <c r="O49" s="38"/>
+      <c r="P49" s="38"/>
+      <c r="Q49" s="38"/>
+      <c r="R49" s="16"/>
+      <c r="S49" s="16"/>
+      <c r="T49" s="16"/>
+      <c r="U49" s="16"/>
+      <c r="V49" s="16"/>
+      <c r="W49" s="16"/>
+      <c r="X49" s="16"/>
+      <c r="Y49" s="16"/>
+      <c r="Z49" s="16"/>
+      <c r="AA49" s="18"/>
+      <c r="AB49" s="18"/>
+      <c r="AC49" s="18"/>
+      <c r="AD49" s="18"/>
+      <c r="AE49" s="18"/>
+      <c r="AF49" s="16"/>
+      <c r="AG49" s="16"/>
     </row>
-    <row r="50" spans="1:35" s="18" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="80" t="s">
+    <row r="50" spans="1:35" s="6" customFormat="1" ht="12" customHeight="1">
+      <c r="A50" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="B50" s="78" t="s">
+      <c r="B50" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C50" s="54" t="s">
+      <c r="C50" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="D50" s="54" t="s">
+      <c r="D50" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="E50" s="28">
+      <c r="E50" s="22">
         <v>166573</v>
       </c>
-      <c r="F50" s="28">
+      <c r="F50" s="22">
         <v>191707</v>
       </c>
-      <c r="G50" s="28">
+      <c r="G50" s="22">
         <v>204071</v>
       </c>
-      <c r="H50" s="28">
+      <c r="H50" s="22">
         <v>222518</v>
       </c>
-      <c r="I50" s="29">
+      <c r="I50" s="21">
         <v>228849</v>
       </c>
-      <c r="J50" s="29">
+      <c r="J50" s="21">
         <v>241346</v>
       </c>
-      <c r="K50" s="29">
+      <c r="K50" s="21">
         <v>260867</v>
       </c>
-      <c r="L50" s="29">
+      <c r="L50" s="21">
         <v>269934</v>
       </c>
-      <c r="M50" s="29">
+      <c r="M50" s="21">
         <v>285696</v>
       </c>
-      <c r="N50" s="29">
+      <c r="N50" s="21">
         <v>307955</v>
       </c>
-      <c r="O50" s="29">
+      <c r="O50" s="21">
         <v>325321</v>
       </c>
-      <c r="P50" s="29">
+      <c r="P50" s="21">
         <v>349463</v>
       </c>
-      <c r="Q50" s="29">
+      <c r="Q50" s="21">
         <v>391334</v>
       </c>
-      <c r="R50" s="29">
+      <c r="R50" s="21">
         <v>420478</v>
       </c>
-      <c r="S50" s="29">
+      <c r="S50" s="21">
         <v>407121</v>
       </c>
-      <c r="T50" s="29">
+      <c r="T50" s="21">
         <v>417529</v>
       </c>
-      <c r="U50" s="29">
+      <c r="U50" s="21">
         <v>430316</v>
       </c>
-      <c r="V50" s="29">
+      <c r="V50" s="21">
         <v>436501</v>
       </c>
-      <c r="W50" s="29">
+      <c r="W50" s="21">
         <v>453383</v>
       </c>
-      <c r="X50" s="29">
+      <c r="X50" s="21">
         <v>462279</v>
       </c>
-      <c r="Y50" s="29">
+      <c r="Y50" s="21">
         <v>494268</v>
       </c>
-      <c r="Z50" s="29">
+      <c r="Z50" s="21">
         <v>506374</v>
       </c>
-      <c r="AA50" s="30">
+      <c r="AA50" s="23">
         <v>539131</v>
       </c>
-      <c r="AB50" s="30">
+      <c r="AB50" s="23">
         <v>582222</v>
       </c>
-      <c r="AC50" s="30">
+      <c r="AC50" s="23">
         <v>627206</v>
       </c>
-      <c r="AD50" s="30">
+      <c r="AD50" s="23">
         <v>639438</v>
       </c>
-      <c r="AE50" s="30">
+      <c r="AE50" s="23">
         <v>700947</v>
       </c>
-      <c r="AF50" s="30">
+      <c r="AF50" s="23">
         <v>770044</v>
       </c>
-      <c r="AG50" s="30">
+      <c r="AG50" s="23">
         <v>830223</v>
       </c>
-      <c r="AH50" s="30"/>
+      <c r="AH50" s="23"/>
     </row>
-    <row r="51" spans="1:35" s="18" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="82" t="s">
+    <row r="51" spans="1:35" s="6" customFormat="1" ht="12" customHeight="1">
+      <c r="A51" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="B51" s="78" t="s">
+      <c r="B51" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C51" s="54" t="s">
+      <c r="C51" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="D51" s="54" t="s">
+      <c r="D51" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="E51" s="28">
+      <c r="E51" s="22">
         <v>145875.07706535142</v>
       </c>
-      <c r="F51" s="28">
+      <c r="F51" s="22">
         <v>168101.07091466617</v>
       </c>
-      <c r="G51" s="28">
+      <c r="G51" s="22">
         <v>179156.11710626582</v>
       </c>
-      <c r="H51" s="28">
+      <c r="H51" s="22">
         <v>195454.57739550833</v>
       </c>
-      <c r="I51" s="29">
+      <c r="I51" s="21">
         <v>201170.19415623744</v>
       </c>
-      <c r="J51" s="29">
+      <c r="J51" s="21">
         <v>212323.68748180021</v>
       </c>
-      <c r="K51" s="29">
+      <c r="K51" s="21">
         <v>231478.08000624689</v>
       </c>
-      <c r="L51" s="29">
+      <c r="L51" s="21">
         <v>240420.25047227411</v>
       </c>
-      <c r="M51" s="29">
+      <c r="M51" s="21">
         <v>254706.15662909468</v>
       </c>
-      <c r="N51" s="29">
+      <c r="N51" s="21">
         <v>274374.08175938687</v>
       </c>
-      <c r="O51" s="29">
+      <c r="O51" s="21">
         <v>287822.86190525902</v>
       </c>
-      <c r="P51" s="29">
+      <c r="P51" s="21">
         <v>308988.58522179682</v>
       </c>
-      <c r="Q51" s="29">
+      <c r="Q51" s="21">
         <v>344659.82221572439</v>
       </c>
-      <c r="R51" s="29">
+      <c r="R51" s="21">
         <v>367674.43588970066</v>
       </c>
-      <c r="S51" s="29">
+      <c r="S51" s="21">
         <v>354015.49031355407</v>
       </c>
-      <c r="T51" s="29">
+      <c r="T51" s="21">
         <v>362197.84604841407</v>
       </c>
-      <c r="U51" s="29">
+      <c r="U51" s="21">
         <v>369486.35321169841</v>
       </c>
-      <c r="V51" s="29">
+      <c r="V51" s="21">
         <v>374035.8850834145</v>
       </c>
-      <c r="W51" s="29">
+      <c r="W51" s="21">
         <v>388138.47491986956</v>
       </c>
-      <c r="X51" s="29">
+      <c r="X51" s="21">
         <v>395290.33311756549</v>
       </c>
-      <c r="Y51" s="29">
+      <c r="Y51" s="21">
         <v>421902.44826815033</v>
       </c>
-      <c r="Z51" s="29">
+      <c r="Z51" s="21">
         <v>431325.51671855501</v>
       </c>
-      <c r="AA51" s="30">
+      <c r="AA51" s="23">
         <v>458241.71434254042</v>
       </c>
-      <c r="AB51" s="30">
+      <c r="AB51" s="23">
         <v>493654.88366650813</v>
       </c>
-      <c r="AC51" s="30">
+      <c r="AC51" s="23">
         <v>530332.76540694106</v>
       </c>
-      <c r="AD51" s="30">
+      <c r="AD51" s="23">
         <v>540722.14334458287</v>
       </c>
-      <c r="AE51" s="30">
+      <c r="AE51" s="23">
         <v>592773.0344832252</v>
       </c>
-      <c r="AF51" s="30">
+      <c r="AF51" s="23">
         <v>636725.72993953107</v>
       </c>
-      <c r="AG51" s="30">
+      <c r="AG51" s="23">
         <v>678772.55290551088</v>
       </c>
-      <c r="AH51" s="30"/>
+      <c r="AH51" s="23"/>
     </row>
-    <row r="52" spans="1:35" s="18" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="81" t="s">
+    <row r="52" spans="1:35" s="6" customFormat="1" ht="12" customHeight="1">
+      <c r="A52" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="B52" s="78" t="s">
+      <c r="B52" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C52" s="54" t="s">
+      <c r="C52" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="D52" s="54" t="s">
+      <c r="D52" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="E52" s="35">
+      <c r="E52" s="27">
         <v>93.742765745054086</v>
       </c>
-      <c r="F52" s="35">
+      <c r="F52" s="27">
         <v>94.211851536319145</v>
       </c>
-      <c r="G52" s="35">
+      <c r="G52" s="27">
         <v>93.116377926055094</v>
       </c>
-      <c r="H52" s="35">
+      <c r="H52" s="27">
         <v>92.775534946813522</v>
       </c>
-      <c r="I52" s="34">
+      <c r="I52" s="25">
         <v>91.236821900592204</v>
       </c>
-      <c r="J52" s="34">
+      <c r="J52" s="25">
         <v>90.890349486513117</v>
       </c>
-      <c r="K52" s="34">
+      <c r="K52" s="25">
         <v>91.321966255844103</v>
       </c>
-      <c r="L52" s="34">
+      <c r="L52" s="25">
         <v>90.682324721074764</v>
       </c>
-      <c r="M52" s="34">
+      <c r="M52" s="25">
         <v>91.713471300490596</v>
       </c>
-      <c r="N52" s="34">
+      <c r="N52" s="25">
         <v>90.69680633393429</v>
       </c>
-      <c r="O52" s="34">
+      <c r="O52" s="25">
         <v>89.573115966545032</v>
       </c>
-      <c r="P52" s="34">
+      <c r="P52" s="25">
         <v>89.85977268798429</v>
       </c>
-      <c r="Q52" s="34">
+      <c r="Q52" s="25">
         <v>92.251968118484143</v>
       </c>
-      <c r="R52" s="34">
+      <c r="R52" s="25">
         <v>94.976355114205589</v>
       </c>
-      <c r="S52" s="34">
+      <c r="S52" s="25">
         <v>94.136255929234153</v>
       </c>
-      <c r="T52" s="34">
+      <c r="T52" s="25">
         <v>94.454985076914994</v>
       </c>
-      <c r="U52" s="34">
+      <c r="U52" s="25">
         <v>94.701852663306227</v>
       </c>
-      <c r="V52" s="34">
+      <c r="V52" s="25">
         <v>95.424431316209208</v>
       </c>
-      <c r="W52" s="34">
+      <c r="W52" s="25">
         <v>97.77806161623019</v>
       </c>
-      <c r="X52" s="34">
+      <c r="X52" s="25">
         <v>94.839094995565006</v>
       </c>
-      <c r="Y52" s="34">
+      <c r="Y52" s="25">
         <v>95.299640598192653</v>
       </c>
-      <c r="Z52" s="34">
+      <c r="Z52" s="25">
         <v>93.635870162012964</v>
       </c>
-      <c r="AA52" s="56">
+      <c r="AA52" s="45">
         <v>93.083935881237508</v>
       </c>
-      <c r="AB52" s="56">
+      <c r="AB52" s="45">
         <v>94.968730634865722</v>
       </c>
-      <c r="AC52" s="56">
+      <c r="AC52" s="45">
         <v>95.012754897397116</v>
       </c>
-      <c r="AD52" s="56">
+      <c r="AD52" s="45">
         <v>97.433695252188613</v>
       </c>
-      <c r="AE52" s="56">
+      <c r="AE52" s="45">
         <v>98.682030598099885</v>
       </c>
-      <c r="AF52" s="56">
+      <c r="AF52" s="45">
         <v>97.177174414338779</v>
       </c>
-      <c r="AG52" s="56">
+      <c r="AG52" s="45">
         <v>96.917886748639233</v>
       </c>
-      <c r="AH52" s="56"/>
+      <c r="AH52" s="45"/>
     </row>
-    <row r="53" spans="1:35" s="18" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="82" t="s">
+    <row r="53" spans="1:35" s="6" customFormat="1" ht="12" customHeight="1">
+      <c r="A53" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="B53" s="78" t="s">
+      <c r="B53" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C53" s="54" t="s">
+      <c r="C53" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="D53" s="54" t="s">
+      <c r="D53" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="E53" s="86" t="s">
+      <c r="E53" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="F53" s="35">
+      <c r="F53" s="27">
         <v>104.35424708686281</v>
       </c>
-      <c r="G53" s="35">
+      <c r="G53" s="27">
         <v>98.190989374409909</v>
       </c>
-      <c r="H53" s="35">
+      <c r="H53" s="27">
         <v>99.243400581170278</v>
       </c>
-      <c r="I53" s="34">
+      <c r="I53" s="25">
         <v>99.569473031395219</v>
       </c>
-      <c r="J53" s="34">
+      <c r="J53" s="25">
         <v>103.46298214106244</v>
       </c>
-      <c r="K53" s="34">
+      <c r="K53" s="25">
         <v>103.01185849361498</v>
       </c>
-      <c r="L53" s="34">
+      <c r="L53" s="25">
         <v>100.21275209206225</v>
       </c>
-      <c r="M53" s="34">
+      <c r="M53" s="25">
         <v>104.12656427126632</v>
       </c>
-      <c r="N53" s="34">
+      <c r="N53" s="25">
         <v>104.47503640232976</v>
       </c>
-      <c r="O53" s="34">
+      <c r="O53" s="25">
         <v>105.12574889188355</v>
       </c>
-      <c r="P53" s="34">
+      <c r="P53" s="25">
         <v>105.22806704762372</v>
       </c>
-      <c r="Q53" s="34">
+      <c r="Q53" s="25">
         <v>108.14478213716474</v>
       </c>
-      <c r="R53" s="34">
+      <c r="R53" s="25">
         <v>104.44556312510539</v>
       </c>
-      <c r="S53" s="35">
+      <c r="S53" s="27">
         <v>94.215630782109884</v>
       </c>
-      <c r="T53" s="35">
+      <c r="T53" s="27">
         <v>103.26610516283856</v>
       </c>
-      <c r="U53" s="35">
+      <c r="U53" s="27">
         <v>103.11020312361536</v>
       </c>
-      <c r="V53" s="35">
+      <c r="V53" s="27">
         <v>99.931678115617359</v>
       </c>
-      <c r="W53" s="35">
+      <c r="W53" s="27">
         <v>102.43435868417254</v>
       </c>
-      <c r="X53" s="35">
+      <c r="X53" s="27">
         <v>99.860162379268743</v>
       </c>
-      <c r="Y53" s="35">
+      <c r="Y53" s="27">
         <v>105.63836990215864</v>
       </c>
-      <c r="Z53" s="35">
+      <c r="Z53" s="27">
         <v>100.55091569755679</v>
       </c>
-      <c r="AA53" s="36">
+      <c r="AA53" s="28">
         <v>104.21328899193088</v>
       </c>
-      <c r="AB53" s="36">
+      <c r="AB53" s="28">
         <v>104.53693072741133</v>
       </c>
-      <c r="AC53" s="36">
+      <c r="AC53" s="28">
         <v>103.41622267794759</v>
       </c>
-      <c r="AD53" s="36">
+      <c r="AD53" s="28">
         <v>97.163451880243485</v>
       </c>
-      <c r="AE53" s="36">
+      <c r="AE53" s="28">
         <v>105.12825324738286</v>
       </c>
-      <c r="AF53" s="36">
+      <c r="AF53" s="28">
         <v>101.19038957296343</v>
       </c>
-      <c r="AG53" s="36">
+      <c r="AG53" s="28">
         <v>100.11583753655636</v>
       </c>
-      <c r="AH53" s="36"/>
+      <c r="AH53" s="28"/>
     </row>
-    <row r="54" spans="1:35" s="18" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="80" t="s">
+    <row r="54" spans="1:35" s="6" customFormat="1" ht="12" customHeight="1">
+      <c r="A54" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="B54" s="78" t="s">
+      <c r="B54" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C54" s="54" t="s">
+      <c r="C54" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="D54" s="54" t="s">
+      <c r="D54" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="E54" s="28">
+      <c r="E54" s="22">
         <v>55778</v>
       </c>
-      <c r="F54" s="28">
+      <c r="F54" s="22">
         <v>67369</v>
       </c>
-      <c r="G54" s="28">
+      <c r="G54" s="22">
         <v>68286</v>
       </c>
-      <c r="H54" s="28">
+      <c r="H54" s="22">
         <v>72792</v>
       </c>
-      <c r="I54" s="29">
+      <c r="I54" s="21">
         <v>74675</v>
       </c>
-      <c r="J54" s="29">
+      <c r="J54" s="21">
         <v>75672</v>
       </c>
-      <c r="K54" s="29">
+      <c r="K54" s="21">
         <v>76198</v>
       </c>
-      <c r="L54" s="29">
+      <c r="L54" s="21">
         <v>80035</v>
       </c>
-      <c r="M54" s="29">
+      <c r="M54" s="21">
         <v>100217</v>
       </c>
-      <c r="N54" s="29">
+      <c r="N54" s="21">
         <v>90671</v>
       </c>
-      <c r="O54" s="29">
+      <c r="O54" s="21">
         <v>110173</v>
       </c>
-      <c r="P54" s="29">
+      <c r="P54" s="21">
         <v>113334</v>
       </c>
-      <c r="Q54" s="29">
+      <c r="Q54" s="21">
         <v>132876</v>
       </c>
-      <c r="R54" s="51">
+      <c r="R54" s="40">
         <v>136021</v>
       </c>
-      <c r="S54" s="51">
+      <c r="S54" s="40">
         <v>118397</v>
       </c>
-      <c r="T54" s="51">
+      <c r="T54" s="40">
         <v>117891</v>
       </c>
-      <c r="U54" s="29">
+      <c r="U54" s="21">
         <v>118843</v>
       </c>
-      <c r="V54" s="29">
+      <c r="V54" s="21">
         <v>114114</v>
       </c>
-      <c r="W54" s="87">
+      <c r="W54" s="40">
         <v>100267</v>
       </c>
-      <c r="X54" s="87">
+      <c r="X54" s="40">
         <v>115172</v>
       </c>
-      <c r="Y54" s="51">
+      <c r="Y54" s="40">
         <v>121795</v>
       </c>
-      <c r="Z54" s="87">
+      <c r="Z54" s="40">
         <v>123748</v>
       </c>
-      <c r="AA54" s="87">
+      <c r="AA54" s="40">
         <v>118511</v>
       </c>
-      <c r="AB54" s="87">
+      <c r="AB54" s="40">
         <v>128973</v>
       </c>
-      <c r="AC54" s="87">
+      <c r="AC54" s="40">
         <v>156089</v>
       </c>
-      <c r="AD54" s="87">
+      <c r="AD54" s="40">
         <v>147770</v>
       </c>
-      <c r="AE54" s="87">
+      <c r="AE54" s="40">
         <v>168468</v>
       </c>
-      <c r="AF54" s="87">
+      <c r="AF54" s="40">
         <v>197015</v>
       </c>
-      <c r="AG54" s="87">
+      <c r="AG54" s="40">
         <v>202566</v>
       </c>
-      <c r="AH54" s="94"/>
-      <c r="AI54" s="111"/>
+      <c r="AH54" s="41"/>
+      <c r="AI54" s="81"/>
     </row>
-    <row r="55" spans="1:35" s="18" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="82" t="s">
+    <row r="55" spans="1:35" s="6" customFormat="1" ht="12" customHeight="1">
+      <c r="A55" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="B55" s="78" t="s">
+      <c r="B55" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C55" s="54" t="s">
+      <c r="C55" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="D55" s="54" t="s">
+      <c r="D55" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="E55" s="28">
+      <c r="E55" s="22">
         <v>48847.172402197059</v>
       </c>
-      <c r="F55" s="28">
+      <c r="F55" s="22">
         <v>59073.487386741988</v>
       </c>
-      <c r="G55" s="28">
+      <c r="G55" s="22">
         <v>59949.010945790767</v>
       </c>
-      <c r="H55" s="28">
+      <c r="H55" s="22">
         <v>63938.780672906651</v>
       </c>
-      <c r="I55" s="28">
+      <c r="I55" s="22">
         <v>65643.215607745864</v>
       </c>
-      <c r="J55" s="29">
+      <c r="J55" s="21">
         <v>66572.299019344777</v>
       </c>
-      <c r="K55" s="29">
+      <c r="K55" s="21">
         <v>67613.637371978824</v>
       </c>
-      <c r="L55" s="29">
+      <c r="L55" s="21">
         <v>71284.220389237584</v>
       </c>
-      <c r="M55" s="29">
+      <c r="M55" s="21">
         <v>89346.322310770818</v>
       </c>
-      <c r="N55" s="51">
+      <c r="N55" s="40">
         <v>80783.791031824017</v>
       </c>
-      <c r="O55" s="51">
+      <c r="O55" s="40">
         <v>97473.904742356332</v>
       </c>
-      <c r="P55" s="29">
+      <c r="P55" s="21">
         <v>100207.78256218003</v>
       </c>
-      <c r="Q55" s="29">
+      <c r="Q55" s="21">
         <v>117027.95703091628</v>
       </c>
-      <c r="R55" s="51">
+      <c r="R55" s="40">
         <v>118939.50324191269</v>
       </c>
-      <c r="S55" s="51">
+      <c r="S55" s="40">
         <v>102953.10732350791</v>
       </c>
-      <c r="T55" s="51">
+      <c r="T55" s="40">
         <v>102268.02513955577</v>
       </c>
-      <c r="U55" s="29">
+      <c r="U55" s="21">
         <v>102043.30462901188</v>
       </c>
-      <c r="V55" s="29">
+      <c r="V55" s="21">
         <v>97783.810324395046</v>
       </c>
-      <c r="W55" s="87">
+      <c r="W55" s="40">
         <v>85837.97907021342</v>
       </c>
-      <c r="X55" s="87">
+      <c r="X55" s="40">
         <v>98482.471074429632</v>
       </c>
-      <c r="Y55" s="51">
+      <c r="Y55" s="40">
         <v>103963.04977627394</v>
       </c>
-      <c r="Z55" s="87">
+      <c r="Z55" s="40">
         <v>105407.60395061308</v>
       </c>
-      <c r="AA55" s="87">
+      <c r="AA55" s="40">
         <v>100730.03371805519</v>
       </c>
-      <c r="AB55" s="87">
+      <c r="AB55" s="40">
         <v>109353.73673808367</v>
       </c>
-      <c r="AC55" s="87">
+      <c r="AC55" s="40">
         <v>131980.73841704964</v>
       </c>
-      <c r="AD55" s="87">
+      <c r="AD55" s="40">
         <v>124957.40184666694</v>
       </c>
-      <c r="AE55" s="87">
+      <c r="AE55" s="40">
         <v>142469.09905216799</v>
       </c>
-      <c r="AF55" s="87">
+      <c r="AF55" s="40">
         <v>162905.6517342343</v>
       </c>
-      <c r="AG55" s="87">
+      <c r="AG55" s="40">
         <v>165613.62543781332</v>
       </c>
-      <c r="AH55" s="94"/>
-      <c r="AI55" s="111"/>
+      <c r="AH55" s="41"/>
+      <c r="AI55" s="81"/>
     </row>
-    <row r="56" spans="1:35" s="18" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="81" t="s">
+    <row r="56" spans="1:35" s="6" customFormat="1" ht="12" customHeight="1">
+      <c r="A56" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="B56" s="78" t="s">
+      <c r="B56" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C56" s="54" t="s">
+      <c r="C56" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="D56" s="54" t="s">
+      <c r="D56" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="E56" s="35">
+      <c r="E56" s="27">
         <v>93.753876636522364</v>
       </c>
-      <c r="F56" s="35">
+      <c r="F56" s="27">
         <v>96.910092086790257</v>
       </c>
-      <c r="G56" s="35">
+      <c r="G56" s="27">
         <v>96.414072683548483</v>
       </c>
-      <c r="H56" s="35">
+      <c r="H56" s="27">
         <v>98.410193535025059</v>
       </c>
-      <c r="I56" s="35">
+      <c r="I56" s="27">
         <v>99.184769685365865</v>
       </c>
-      <c r="J56" s="34">
+      <c r="J56" s="25">
         <v>91.615900578757277</v>
       </c>
-      <c r="K56" s="34">
+      <c r="K56" s="25">
         <v>86.047226167799806</v>
       </c>
-      <c r="L56" s="34">
+      <c r="L56" s="25">
         <v>90.7293771017182</v>
       </c>
-      <c r="M56" s="34">
+      <c r="M56" s="25">
         <v>109.98184003088942</v>
       </c>
-      <c r="N56" s="35">
+      <c r="N56" s="27">
         <v>93.433767747562698</v>
       </c>
-      <c r="O56" s="35">
+      <c r="O56" s="27">
         <v>106.3450423898084</v>
       </c>
-      <c r="P56" s="35">
+      <c r="P56" s="27">
         <v>103.52120035850885</v>
       </c>
-      <c r="Q56" s="35">
+      <c r="Q56" s="27">
         <v>105.58627608735659</v>
       </c>
-      <c r="R56" s="35">
+      <c r="R56" s="27">
         <v>106.29066310047261</v>
       </c>
-      <c r="S56" s="35">
+      <c r="S56" s="27">
         <v>100.70669784399496</v>
       </c>
-      <c r="T56" s="35">
+      <c r="T56" s="27">
         <v>100.5572158092812</v>
       </c>
-      <c r="U56" s="35">
+      <c r="U56" s="27">
         <v>100.21473199292861</v>
       </c>
-      <c r="V56" s="35">
+      <c r="V56" s="27">
         <v>98.31172659388605</v>
       </c>
-      <c r="W56" s="83">
+      <c r="W56" s="27">
         <v>87.27985613787817</v>
       </c>
-      <c r="X56" s="83">
+      <c r="X56" s="27">
         <v>95.5027778517819</v>
       </c>
-      <c r="Y56" s="35">
+      <c r="Y56" s="27">
         <v>91.458283442495343</v>
       </c>
-      <c r="Z56" s="83">
+      <c r="Z56" s="27">
         <v>94.131664041660628</v>
       </c>
-      <c r="AA56" s="83">
+      <c r="AA56" s="27">
         <v>86.236044440982951</v>
       </c>
-      <c r="AB56" s="83">
+      <c r="AB56" s="27">
         <v>84.672087505363962</v>
       </c>
-      <c r="AC56" s="83">
+      <c r="AC56" s="27">
         <v>91.747684974256671</v>
       </c>
-      <c r="AD56" s="83">
+      <c r="AD56" s="27">
         <v>88.176938427084053</v>
       </c>
-      <c r="AE56" s="83">
+      <c r="AE56" s="27">
         <v>90.397588271276049</v>
       </c>
-      <c r="AF56" s="83">
+      <c r="AF56" s="27">
         <v>89.796646253380572</v>
       </c>
-      <c r="AG56" s="83">
+      <c r="AG56" s="27">
         <v>86.619905285070615</v>
       </c>
-      <c r="AH56" s="46"/>
-      <c r="AI56" s="64"/>
+      <c r="AH56" s="28"/>
+      <c r="AI56" s="52"/>
     </row>
-    <row r="57" spans="1:35" s="18" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="60"/>
-      <c r="B57" s="61"/>
-      <c r="C57" s="62"/>
-      <c r="D57" s="62"/>
-      <c r="E57" s="63"/>
-      <c r="F57" s="63"/>
-      <c r="G57" s="63"/>
-      <c r="H57" s="63"/>
-      <c r="I57" s="63"/>
-      <c r="J57" s="64"/>
-      <c r="K57" s="64"/>
-      <c r="L57" s="64"/>
-      <c r="M57" s="64"/>
-      <c r="N57" s="63"/>
-      <c r="O57" s="63"/>
-      <c r="P57" s="63"/>
-      <c r="Q57" s="63"/>
-      <c r="R57" s="64"/>
-      <c r="S57" s="64"/>
-      <c r="T57" s="64"/>
-      <c r="U57" s="64"/>
-      <c r="V57" s="64"/>
-      <c r="W57" s="64"/>
-      <c r="X57" s="64"/>
-      <c r="Y57" s="64"/>
-      <c r="Z57" s="64"/>
-      <c r="AA57" s="64"/>
-      <c r="AB57" s="64"/>
-      <c r="AC57" s="64"/>
-      <c r="AD57" s="64"/>
-      <c r="AE57" s="64"/>
-      <c r="AF57" s="64"/>
-      <c r="AH57" s="7"/>
-      <c r="AI57" s="63"/>
+    <row r="57" spans="1:35" s="6" customFormat="1" ht="6.75" customHeight="1">
+      <c r="A57" s="48"/>
+      <c r="B57" s="49"/>
+      <c r="C57" s="50"/>
+      <c r="D57" s="50"/>
+      <c r="E57" s="51"/>
+      <c r="F57" s="51"/>
+      <c r="G57" s="51"/>
+      <c r="H57" s="51"/>
+      <c r="I57" s="51"/>
+      <c r="J57" s="52"/>
+      <c r="K57" s="52"/>
+      <c r="L57" s="52"/>
+      <c r="M57" s="52"/>
+      <c r="N57" s="51"/>
+      <c r="O57" s="51"/>
+      <c r="P57" s="51"/>
+      <c r="Q57" s="51"/>
+      <c r="R57" s="52"/>
+      <c r="S57" s="52"/>
+      <c r="T57" s="52"/>
+      <c r="U57" s="52"/>
+      <c r="V57" s="52"/>
+      <c r="W57" s="52"/>
+      <c r="X57" s="52"/>
+      <c r="Y57" s="52"/>
+      <c r="Z57" s="52"/>
+      <c r="AA57" s="52"/>
+      <c r="AB57" s="52"/>
+      <c r="AC57" s="52"/>
+      <c r="AD57" s="52"/>
+      <c r="AE57" s="52"/>
+      <c r="AF57" s="52"/>
+      <c r="AI57" s="51"/>
     </row>
-    <row r="58" spans="1:35" s="18" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="127" t="s">
+    <row r="58" spans="1:35" s="6" customFormat="1" ht="33.75" customHeight="1">
+      <c r="A58" s="89" t="s">
         <v>55</v>
       </c>
-      <c r="B58" s="127"/>
-      <c r="C58" s="62"/>
-      <c r="D58" s="62"/>
-      <c r="E58" s="63"/>
-      <c r="F58" s="63"/>
-      <c r="G58" s="63"/>
-      <c r="H58" s="63"/>
-      <c r="I58" s="63"/>
-      <c r="J58" s="64"/>
-      <c r="K58" s="64"/>
-      <c r="L58" s="64"/>
-      <c r="M58" s="64"/>
-      <c r="N58" s="63"/>
-      <c r="O58" s="63"/>
-      <c r="P58" s="63"/>
-      <c r="Q58" s="63"/>
-      <c r="R58" s="64"/>
-      <c r="S58" s="64"/>
-      <c r="T58" s="64"/>
-      <c r="U58" s="64"/>
-      <c r="V58" s="64"/>
-      <c r="W58" s="64"/>
-      <c r="X58" s="64"/>
-      <c r="Y58" s="64"/>
-      <c r="Z58" s="64"/>
-      <c r="AA58" s="64"/>
-      <c r="AB58" s="64"/>
-      <c r="AC58" s="64"/>
-      <c r="AD58" s="64"/>
-      <c r="AE58" s="64"/>
-      <c r="AF58" s="64"/>
-      <c r="AH58" s="7"/>
-      <c r="AI58" s="114"/>
+      <c r="B58" s="89"/>
+      <c r="C58" s="50"/>
+      <c r="D58" s="50"/>
+      <c r="E58" s="51"/>
+      <c r="F58" s="51"/>
+      <c r="G58" s="51"/>
+      <c r="H58" s="51"/>
+      <c r="I58" s="51"/>
+      <c r="J58" s="52"/>
+      <c r="K58" s="52"/>
+      <c r="L58" s="52"/>
+      <c r="M58" s="52"/>
+      <c r="N58" s="51"/>
+      <c r="O58" s="51"/>
+      <c r="P58" s="51"/>
+      <c r="Q58" s="51"/>
+      <c r="R58" s="52"/>
+      <c r="S58" s="52"/>
+      <c r="T58" s="52"/>
+      <c r="U58" s="52"/>
+      <c r="V58" s="52"/>
+      <c r="W58" s="52"/>
+      <c r="X58" s="52"/>
+      <c r="Y58" s="52"/>
+      <c r="Z58" s="52"/>
+      <c r="AA58" s="52"/>
+      <c r="AB58" s="52"/>
+      <c r="AC58" s="52"/>
+      <c r="AD58" s="52"/>
+      <c r="AE58" s="52"/>
+      <c r="AF58" s="91" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI58" s="50"/>
     </row>
-    <row r="59" spans="1:35" s="18" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:35" s="6" customFormat="1" ht="12" customHeight="1">
       <c r="A59" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B59" s="61"/>
-      <c r="C59" s="62"/>
-      <c r="D59" s="62"/>
-      <c r="E59" s="63"/>
-      <c r="F59" s="63"/>
-      <c r="G59" s="63"/>
-      <c r="H59" s="63"/>
-      <c r="I59" s="63"/>
-      <c r="J59" s="64"/>
-      <c r="K59" s="64"/>
-      <c r="L59" s="64"/>
-      <c r="M59" s="64"/>
-      <c r="N59" s="63"/>
-      <c r="O59" s="63"/>
-      <c r="P59" s="63"/>
-      <c r="Q59" s="63"/>
-      <c r="R59" s="64"/>
-      <c r="S59" s="64"/>
-      <c r="T59" s="64"/>
-      <c r="U59" s="64"/>
-      <c r="V59" s="64"/>
-      <c r="W59" s="64"/>
-      <c r="X59" s="64"/>
-      <c r="Y59" s="64"/>
-      <c r="Z59" s="64"/>
-      <c r="AA59" s="64"/>
-      <c r="AB59" s="64"/>
-      <c r="AC59" s="64"/>
-      <c r="AD59" s="64"/>
-      <c r="AE59" s="64"/>
-      <c r="AF59" s="111"/>
-      <c r="AH59" s="7"/>
-      <c r="AI59" s="114"/>
+      <c r="B59" s="49"/>
+      <c r="C59" s="50"/>
+      <c r="D59" s="50"/>
+      <c r="E59" s="51"/>
+      <c r="F59" s="51"/>
+      <c r="G59" s="51"/>
+      <c r="H59" s="51"/>
+      <c r="I59" s="51"/>
+      <c r="J59" s="52"/>
+      <c r="K59" s="52"/>
+      <c r="L59" s="52"/>
+      <c r="M59" s="52"/>
+      <c r="N59" s="51"/>
+      <c r="O59" s="51"/>
+      <c r="P59" s="51"/>
+      <c r="Q59" s="51"/>
+      <c r="R59" s="52"/>
+      <c r="S59" s="52"/>
+      <c r="T59" s="52"/>
+      <c r="U59" s="52"/>
+      <c r="V59" s="52"/>
+      <c r="W59" s="52"/>
+      <c r="X59" s="52"/>
+      <c r="Y59" s="52"/>
+      <c r="Z59" s="52"/>
+      <c r="AA59" s="52"/>
+      <c r="AB59" s="52"/>
+      <c r="AC59" s="52"/>
+      <c r="AD59" s="52"/>
+      <c r="AE59" s="52"/>
+      <c r="AF59" s="81"/>
+      <c r="AI59" s="50"/>
     </row>
-    <row r="60" spans="1:35" s="65" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:35" s="53" customFormat="1" ht="12" customHeight="1">
       <c r="A60" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B60" s="66"/>
-      <c r="C60" s="66"/>
-      <c r="D60" s="66"/>
-      <c r="E60" s="66"/>
-      <c r="F60" s="66"/>
-      <c r="G60" s="66"/>
-      <c r="H60" s="66"/>
-      <c r="I60" s="66"/>
-      <c r="J60" s="67"/>
-      <c r="K60" s="68"/>
-      <c r="L60" s="69"/>
-      <c r="M60" s="70"/>
-      <c r="N60" s="71"/>
-      <c r="O60" s="66"/>
-      <c r="P60" s="66"/>
-      <c r="Q60" s="66"/>
-      <c r="R60" s="66"/>
-      <c r="S60" s="66"/>
-      <c r="T60" s="66"/>
-      <c r="U60" s="66"/>
-      <c r="V60" s="66"/>
-      <c r="W60" s="66"/>
-      <c r="X60" s="66"/>
-      <c r="Y60" s="66"/>
-      <c r="Z60" s="66"/>
-      <c r="AA60" s="66"/>
-      <c r="AB60" s="66"/>
-      <c r="AC60" s="66"/>
-      <c r="AD60" s="66"/>
-      <c r="AE60" s="67"/>
-      <c r="AF60" s="111"/>
-      <c r="AH60" s="115"/>
-      <c r="AI60" s="109"/>
+      <c r="B60" s="54"/>
+      <c r="C60" s="54"/>
+      <c r="D60" s="54"/>
+      <c r="E60" s="54"/>
+      <c r="F60" s="54"/>
+      <c r="G60" s="54"/>
+      <c r="H60" s="54"/>
+      <c r="I60" s="54"/>
+      <c r="J60" s="54"/>
+      <c r="K60" s="55"/>
+      <c r="L60" s="56"/>
+      <c r="M60" s="57"/>
+      <c r="N60" s="57"/>
+      <c r="O60" s="54"/>
+      <c r="P60" s="54"/>
+      <c r="Q60" s="54"/>
+      <c r="R60" s="54"/>
+      <c r="S60" s="54"/>
+      <c r="T60" s="54"/>
+      <c r="U60" s="54"/>
+      <c r="V60" s="54"/>
+      <c r="W60" s="54"/>
+      <c r="X60" s="54"/>
+      <c r="Y60" s="54"/>
+      <c r="Z60" s="54"/>
+      <c r="AA60" s="54"/>
+      <c r="AB60" s="54"/>
+      <c r="AC60" s="54"/>
+      <c r="AD60" s="54"/>
+      <c r="AE60" s="54"/>
+      <c r="AF60" s="81"/>
+      <c r="AI60" s="51"/>
     </row>
-    <row r="61" spans="1:35" s="65" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:35" s="53" customFormat="1" ht="12" customHeight="1">
       <c r="A61" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B61" s="66"/>
+      <c r="B61" s="54"/>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
-      <c r="E61" s="72"/>
-      <c r="F61" s="72"/>
-      <c r="G61" s="72"/>
-      <c r="H61" s="72"/>
-      <c r="I61" s="72"/>
-      <c r="J61" s="72"/>
-      <c r="K61" s="72"/>
-      <c r="L61" s="72"/>
-      <c r="M61" s="72"/>
-      <c r="N61" s="72"/>
-      <c r="O61" s="72"/>
-      <c r="P61" s="72"/>
-      <c r="Q61" s="72"/>
-      <c r="R61" s="72"/>
-      <c r="S61" s="72"/>
-      <c r="T61" s="72"/>
-      <c r="U61" s="72"/>
-      <c r="V61" s="72"/>
-      <c r="W61" s="66"/>
-      <c r="X61" s="66"/>
-      <c r="Y61" s="66"/>
-      <c r="Z61" s="66"/>
-      <c r="AA61" s="66"/>
-      <c r="AB61" s="66"/>
-      <c r="AC61" s="66"/>
-      <c r="AD61" s="66"/>
-      <c r="AE61" s="67"/>
-      <c r="AF61" s="64"/>
-      <c r="AH61" s="115"/>
-      <c r="AI61" s="115"/>
+      <c r="E61" s="58"/>
+      <c r="F61" s="58"/>
+      <c r="G61" s="58"/>
+      <c r="H61" s="58"/>
+      <c r="I61" s="58"/>
+      <c r="J61" s="58"/>
+      <c r="K61" s="58"/>
+      <c r="L61" s="58"/>
+      <c r="M61" s="58"/>
+      <c r="N61" s="58"/>
+      <c r="O61" s="58"/>
+      <c r="P61" s="58"/>
+      <c r="Q61" s="58"/>
+      <c r="R61" s="58"/>
+      <c r="S61" s="58"/>
+      <c r="T61" s="58"/>
+      <c r="U61" s="58"/>
+      <c r="V61" s="58"/>
+      <c r="W61" s="54"/>
+      <c r="X61" s="54"/>
+      <c r="Y61" s="54"/>
+      <c r="Z61" s="54"/>
+      <c r="AA61" s="54"/>
+      <c r="AB61" s="54"/>
+      <c r="AC61" s="54"/>
+      <c r="AD61" s="54"/>
+      <c r="AE61" s="54"/>
+      <c r="AF61" s="52"/>
     </row>
-    <row r="62" spans="1:35" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="125" t="s">
+    <row r="62" spans="1:35" ht="23.25" customHeight="1">
+      <c r="A62" s="87" t="s">
         <v>54</v>
       </c>
-      <c r="B62" s="125"/>
-      <c r="C62" s="18"/>
-      <c r="D62" s="18"/>
-      <c r="E62" s="18"/>
-      <c r="F62" s="85"/>
-      <c r="G62" s="85"/>
-      <c r="H62" s="85"/>
-      <c r="I62" s="85"/>
-      <c r="J62" s="85"/>
-      <c r="K62" s="85"/>
-      <c r="L62" s="85"/>
-      <c r="M62" s="85"/>
-      <c r="N62" s="85"/>
-      <c r="O62" s="85"/>
-      <c r="P62" s="85"/>
-      <c r="Q62" s="85"/>
-      <c r="R62" s="85"/>
-      <c r="S62" s="85"/>
-      <c r="T62" s="85"/>
-      <c r="U62" s="85"/>
-      <c r="V62" s="85"/>
-      <c r="W62" s="85"/>
-      <c r="X62" s="85"/>
-      <c r="Y62" s="85"/>
-      <c r="Z62" s="85"/>
-      <c r="AA62" s="85"/>
-      <c r="AB62" s="85"/>
-      <c r="AC62" s="85"/>
-      <c r="AD62" s="85"/>
-      <c r="AE62" s="112"/>
-      <c r="AF62" s="63"/>
-      <c r="AH62" s="8"/>
-      <c r="AI62" s="8"/>
+      <c r="B62" s="87"/>
+      <c r="C62" s="6"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="6"/>
+      <c r="F62" s="64"/>
+      <c r="G62" s="64"/>
+      <c r="H62" s="64"/>
+      <c r="I62" s="64"/>
+      <c r="J62" s="64"/>
+      <c r="K62" s="64"/>
+      <c r="L62" s="64"/>
+      <c r="M62" s="64"/>
+      <c r="N62" s="64"/>
+      <c r="O62" s="64"/>
+      <c r="P62" s="64"/>
+      <c r="Q62" s="64"/>
+      <c r="R62" s="64"/>
+      <c r="S62" s="64"/>
+      <c r="T62" s="64"/>
+      <c r="U62" s="64"/>
+      <c r="V62" s="64"/>
+      <c r="W62" s="64"/>
+      <c r="X62" s="64"/>
+      <c r="Y62" s="64"/>
+      <c r="Z62" s="64"/>
+      <c r="AA62" s="64"/>
+      <c r="AB62" s="64"/>
+      <c r="AC62" s="64"/>
+      <c r="AD62" s="64"/>
+      <c r="AE62" s="64"/>
+      <c r="AF62" s="51"/>
     </row>
-    <row r="63" spans="1:35" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="128" t="s">
+    <row r="63" spans="1:35" ht="23.25" customHeight="1">
+      <c r="A63" s="90" t="s">
         <v>67</v>
       </c>
-      <c r="B63" s="128"/>
-      <c r="C63" s="18"/>
-      <c r="D63" s="18"/>
-      <c r="E63" s="18"/>
-      <c r="F63" s="85"/>
-      <c r="G63" s="85"/>
-      <c r="H63" s="85"/>
-      <c r="I63" s="85"/>
-      <c r="J63" s="85"/>
-      <c r="K63" s="85"/>
-      <c r="L63" s="85"/>
-      <c r="M63" s="85"/>
-      <c r="N63" s="85"/>
-      <c r="O63" s="85"/>
-      <c r="P63" s="85"/>
-      <c r="Q63" s="85"/>
-      <c r="R63" s="85"/>
-      <c r="S63" s="85"/>
-      <c r="T63" s="85"/>
-      <c r="U63" s="85"/>
-      <c r="V63" s="85"/>
-      <c r="W63" s="85"/>
-      <c r="X63" s="85"/>
-      <c r="Y63" s="85"/>
-      <c r="Z63" s="85"/>
-      <c r="AA63" s="85"/>
-      <c r="AB63" s="85"/>
-      <c r="AC63" s="85"/>
-      <c r="AD63" s="85"/>
-      <c r="AE63" s="112"/>
-      <c r="AF63" s="114"/>
-      <c r="AH63" s="8"/>
+      <c r="B63" s="90"/>
+      <c r="C63" s="6"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="6"/>
+      <c r="F63" s="64"/>
+      <c r="G63" s="64"/>
+      <c r="H63" s="64"/>
+      <c r="I63" s="64"/>
+      <c r="J63" s="64"/>
+      <c r="K63" s="64"/>
+      <c r="L63" s="64"/>
+      <c r="M63" s="64"/>
+      <c r="N63" s="64"/>
+      <c r="O63" s="64"/>
+      <c r="P63" s="64"/>
+      <c r="Q63" s="64"/>
+      <c r="R63" s="64"/>
+      <c r="S63" s="64"/>
+      <c r="T63" s="64"/>
+      <c r="U63" s="64"/>
+      <c r="V63" s="64"/>
+      <c r="W63" s="64"/>
+      <c r="X63" s="64"/>
+      <c r="Y63" s="64"/>
+      <c r="Z63" s="64"/>
+      <c r="AA63" s="64"/>
+      <c r="AB63" s="64"/>
+      <c r="AC63" s="64"/>
+      <c r="AD63" s="64"/>
+      <c r="AE63" s="64"/>
+      <c r="AF63" s="50"/>
     </row>
-    <row r="64" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="128" t="s">
+    <row r="64" spans="1:35" ht="12" customHeight="1">
+      <c r="A64" s="90" t="s">
         <v>68</v>
       </c>
-      <c r="B64" s="128"/>
-      <c r="C64" s="18"/>
-      <c r="D64" s="18"/>
-      <c r="E64" s="18"/>
-      <c r="F64" s="85"/>
-      <c r="G64" s="85"/>
-      <c r="H64" s="85"/>
-      <c r="I64" s="85"/>
-      <c r="J64" s="85"/>
-      <c r="K64" s="85"/>
-      <c r="L64" s="85"/>
-      <c r="M64" s="85"/>
-      <c r="N64" s="85"/>
-      <c r="O64" s="85"/>
-      <c r="P64" s="85"/>
-      <c r="Q64" s="85"/>
-      <c r="R64" s="85"/>
-      <c r="S64" s="85"/>
-      <c r="T64" s="85"/>
-      <c r="U64" s="85"/>
-      <c r="V64" s="85"/>
-      <c r="W64" s="85"/>
-      <c r="X64" s="85"/>
-      <c r="Y64" s="85"/>
-      <c r="Z64" s="85"/>
-      <c r="AA64" s="85"/>
-      <c r="AB64" s="85"/>
-      <c r="AC64" s="85"/>
-      <c r="AD64" s="85"/>
-      <c r="AE64" s="112"/>
-      <c r="AF64" s="114"/>
+      <c r="B64" s="90"/>
+      <c r="C64" s="6"/>
+      <c r="D64" s="6"/>
+      <c r="E64" s="6"/>
+      <c r="F64" s="64"/>
+      <c r="G64" s="64"/>
+      <c r="H64" s="64"/>
+      <c r="I64" s="64"/>
+      <c r="J64" s="64"/>
+      <c r="K64" s="64"/>
+      <c r="L64" s="64"/>
+      <c r="M64" s="64"/>
+      <c r="N64" s="64"/>
+      <c r="O64" s="64"/>
+      <c r="P64" s="64"/>
+      <c r="Q64" s="64"/>
+      <c r="R64" s="64"/>
+      <c r="S64" s="64"/>
+      <c r="T64" s="64"/>
+      <c r="U64" s="64"/>
+      <c r="V64" s="64"/>
+      <c r="W64" s="64"/>
+      <c r="X64" s="64"/>
+      <c r="Y64" s="64"/>
+      <c r="Z64" s="64"/>
+      <c r="AA64" s="64"/>
+      <c r="AB64" s="64"/>
+      <c r="AC64" s="64"/>
+      <c r="AD64" s="64"/>
+      <c r="AE64" s="64"/>
+      <c r="AF64" s="50"/>
     </row>
-    <row r="65" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="125" t="s">
+    <row r="65" spans="1:32" ht="24" customHeight="1">
+      <c r="A65" s="87" t="s">
         <v>66</v>
       </c>
-      <c r="B65" s="125"/>
-      <c r="E65" s="73"/>
-      <c r="F65" s="74"/>
-      <c r="G65" s="74"/>
-      <c r="H65" s="74"/>
-      <c r="I65" s="74"/>
-      <c r="J65" s="74"/>
-      <c r="K65" s="74"/>
-      <c r="L65" s="74"/>
-      <c r="M65" s="74"/>
-      <c r="N65" s="74"/>
-      <c r="O65" s="74"/>
-      <c r="P65" s="74"/>
-      <c r="Q65" s="74"/>
-      <c r="R65" s="74"/>
-      <c r="S65" s="74"/>
-      <c r="T65" s="74"/>
-      <c r="U65" s="74"/>
-      <c r="V65" s="74"/>
-      <c r="W65" s="74"/>
-      <c r="X65" s="74"/>
-      <c r="Y65" s="74"/>
-      <c r="Z65" s="74"/>
-      <c r="AA65" s="74"/>
-      <c r="AB65" s="74"/>
-      <c r="AC65" s="74"/>
-      <c r="AD65" s="74"/>
-      <c r="AE65" s="113"/>
-      <c r="AF65" s="109"/>
+      <c r="B65" s="87"/>
+      <c r="E65" s="59"/>
+      <c r="F65" s="60"/>
+      <c r="G65" s="60"/>
+      <c r="H65" s="60"/>
+      <c r="I65" s="60"/>
+      <c r="J65" s="60"/>
+      <c r="K65" s="60"/>
+      <c r="L65" s="60"/>
+      <c r="M65" s="60"/>
+      <c r="N65" s="60"/>
+      <c r="O65" s="60"/>
+      <c r="P65" s="60"/>
+      <c r="Q65" s="60"/>
+      <c r="R65" s="60"/>
+      <c r="S65" s="60"/>
+      <c r="T65" s="60"/>
+      <c r="U65" s="60"/>
+      <c r="V65" s="60"/>
+      <c r="W65" s="60"/>
+      <c r="X65" s="60"/>
+      <c r="Y65" s="60"/>
+      <c r="Z65" s="60"/>
+      <c r="AA65" s="60"/>
+      <c r="AB65" s="60"/>
+      <c r="AC65" s="60"/>
+      <c r="AD65" s="60"/>
+      <c r="AE65" s="60"/>
+      <c r="AF65" s="51"/>
     </row>
-    <row r="66" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="125" t="s">
+    <row r="66" spans="1:32" ht="24" customHeight="1">
+      <c r="A66" s="87" t="s">
         <v>69</v>
       </c>
-      <c r="B66" s="125"/>
-      <c r="AF66" s="8"/>
+      <c r="B66" s="87"/>
     </row>
-    <row r="67" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A67" s="125" t="s">
+    <row r="67" spans="1:32">
+      <c r="A67" s="87" t="s">
         <v>70</v>
       </c>
-      <c r="B67" s="125"/>
+      <c r="B67" s="87"/>
     </row>
-    <row r="68" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="E68" s="73"/>
-      <c r="F68" s="73"/>
-      <c r="G68" s="73"/>
-      <c r="H68" s="73"/>
-      <c r="I68" s="73"/>
-      <c r="J68" s="73"/>
-      <c r="K68" s="73"/>
-      <c r="L68" s="73"/>
-      <c r="M68" s="73"/>
-      <c r="N68" s="73"/>
-      <c r="O68" s="73"/>
-      <c r="P68" s="73"/>
-      <c r="Q68" s="73"/>
-      <c r="R68" s="73"/>
-      <c r="S68" s="73"/>
-      <c r="T68" s="73"/>
-      <c r="U68" s="73"/>
-      <c r="V68" s="73"/>
+    <row r="68" spans="1:32">
+      <c r="E68" s="59"/>
+      <c r="F68" s="59"/>
+      <c r="G68" s="59"/>
+      <c r="H68" s="59"/>
+      <c r="I68" s="59"/>
+      <c r="J68" s="59"/>
+      <c r="K68" s="59"/>
+      <c r="L68" s="59"/>
+      <c r="M68" s="59"/>
+      <c r="N68" s="59"/>
+      <c r="O68" s="59"/>
+      <c r="P68" s="59"/>
+      <c r="Q68" s="59"/>
+      <c r="R68" s="59"/>
+      <c r="S68" s="59"/>
+      <c r="T68" s="59"/>
+      <c r="U68" s="59"/>
+      <c r="V68" s="59"/>
     </row>
-    <row r="69" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="E69" s="73"/>
-      <c r="F69" s="73"/>
-      <c r="G69" s="73"/>
-      <c r="H69" s="73"/>
-      <c r="I69" s="73"/>
-      <c r="J69" s="73"/>
-      <c r="K69" s="73"/>
-      <c r="L69" s="73"/>
-      <c r="M69" s="73"/>
-      <c r="N69" s="73"/>
-      <c r="O69" s="73"/>
-      <c r="P69" s="73"/>
-      <c r="Q69" s="73"/>
-      <c r="R69" s="73"/>
-      <c r="S69" s="73"/>
-      <c r="T69" s="73"/>
-      <c r="U69" s="73"/>
-      <c r="V69" s="73"/>
+    <row r="69" spans="1:32">
+      <c r="E69" s="59"/>
+      <c r="F69" s="59"/>
+      <c r="G69" s="59"/>
+      <c r="H69" s="59"/>
+      <c r="I69" s="59"/>
+      <c r="J69" s="59"/>
+      <c r="K69" s="59"/>
+      <c r="L69" s="59"/>
+      <c r="M69" s="59"/>
+      <c r="N69" s="59"/>
+      <c r="O69" s="59"/>
+      <c r="P69" s="59"/>
+      <c r="Q69" s="59"/>
+      <c r="R69" s="59"/>
+      <c r="S69" s="59"/>
+      <c r="T69" s="59"/>
+      <c r="U69" s="59"/>
+      <c r="V69" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="8">
